--- a/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9462080627846644</v>
+        <v>0.9462080627846654</v>
       </c>
       <c r="D2">
         <v>1.026882581942444</v>
       </c>
       <c r="E2">
-        <v>0.9575794268814454</v>
+        <v>0.9575794268814459</v>
       </c>
       <c r="F2">
-        <v>0.9933349698409581</v>
+        <v>0.9933349698409591</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044287829413066</v>
+        <v>1.044287829413067</v>
       </c>
       <c r="J2">
-        <v>0.9701260020981675</v>
+        <v>0.9701260020981685</v>
       </c>
       <c r="K2">
-        <v>1.037979685113575</v>
+        <v>1.037979685113576</v>
       </c>
       <c r="L2">
-        <v>0.9696631864098954</v>
+        <v>0.969663186409896</v>
       </c>
       <c r="M2">
-        <v>1.00488794678048</v>
+        <v>1.004887946780481</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9599087701623653</v>
+        <v>0.959908770162364</v>
       </c>
       <c r="D3">
-        <v>1.032736187028016</v>
+        <v>1.032736187028015</v>
       </c>
       <c r="E3">
-        <v>0.9694053422705319</v>
+        <v>0.9694053422705308</v>
       </c>
       <c r="F3">
-        <v>1.003549747690375</v>
+        <v>1.003549747690374</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.047789913709081</v>
       </c>
       <c r="J3">
-        <v>0.9815554110233153</v>
+        <v>0.9815554110233141</v>
       </c>
       <c r="K3">
         <v>1.042966659266877</v>
       </c>
       <c r="L3">
-        <v>0.9804452559767378</v>
+        <v>0.9804452559767366</v>
       </c>
       <c r="M3">
-        <v>1.014137409430056</v>
+        <v>1.014137409430055</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>0.9683037603472212</v>
+        <v>0.9683037603472187</v>
       </c>
       <c r="D4">
-        <v>1.036349406892857</v>
+        <v>1.036349406892856</v>
       </c>
       <c r="E4">
-        <v>0.9766566685249106</v>
+        <v>0.9766566685249083</v>
       </c>
       <c r="F4">
-        <v>1.009838308000476</v>
+        <v>1.009838308000473</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049926425364349</v>
+        <v>1.049926425364348</v>
       </c>
       <c r="J4">
-        <v>0.9885545436647695</v>
+        <v>0.9885545436647669</v>
       </c>
       <c r="K4">
-        <v>1.046028060785937</v>
+        <v>1.046028060785936</v>
       </c>
       <c r="L4">
-        <v>0.9870452381290477</v>
+        <v>0.9870452381290452</v>
       </c>
       <c r="M4">
-        <v>1.019819425950267</v>
+        <v>1.019819425950265</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9717318874792508</v>
+        <v>0.9717318874792545</v>
       </c>
       <c r="D5">
-        <v>1.037830257089142</v>
+        <v>1.037830257089144</v>
       </c>
       <c r="E5">
-        <v>0.9796187198764694</v>
+        <v>0.9796187198764731</v>
       </c>
       <c r="F5">
-        <v>1.012412424963444</v>
+        <v>1.012412424963446</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050796217358902</v>
+        <v>1.050796217358903</v>
       </c>
       <c r="J5">
-        <v>0.9914114553721655</v>
+        <v>0.9914114553721691</v>
       </c>
       <c r="K5">
-        <v>1.047278869323565</v>
+        <v>1.047278869323567</v>
       </c>
       <c r="L5">
-        <v>0.9897385623271706</v>
+        <v>0.9897385623271743</v>
       </c>
       <c r="M5">
-        <v>1.022142413443199</v>
+        <v>1.022142413443201</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9723018526375122</v>
+        <v>0.9723018526375145</v>
       </c>
       <c r="D6">
-        <v>1.038076755917416</v>
+        <v>1.038076755917418</v>
       </c>
       <c r="E6">
-        <v>0.9801112429081361</v>
+        <v>0.9801112429081381</v>
       </c>
       <c r="F6">
-        <v>1.012840739243963</v>
+        <v>1.012840739243965</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050940662416015</v>
+        <v>1.050940662416016</v>
       </c>
       <c r="J6">
-        <v>0.9918863724019207</v>
+        <v>0.9918863724019229</v>
       </c>
       <c r="K6">
-        <v>1.047486851739999</v>
+        <v>1.04748685174</v>
       </c>
       <c r="L6">
-        <v>0.9901862463852588</v>
+        <v>0.9901862463852606</v>
       </c>
       <c r="M6">
-        <v>1.022528776153681</v>
+        <v>1.022528776153683</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.968349950793589</v>
+        <v>0.9683499507935899</v>
       </c>
       <c r="D7">
         <v>1.03636933962465</v>
       </c>
       <c r="E7">
-        <v>0.9766965756697265</v>
+        <v>0.9766965756697272</v>
       </c>
       <c r="F7">
         <v>1.009872968194721</v>
@@ -629,16 +629,16 @@
         <v>1.049938155999522</v>
       </c>
       <c r="J7">
-        <v>0.9885930426603722</v>
+        <v>0.9885930426603732</v>
       </c>
       <c r="K7">
         <v>1.046044912300977</v>
       </c>
       <c r="L7">
-        <v>0.9870815353007351</v>
+        <v>0.9870815353007359</v>
       </c>
       <c r="M7">
-        <v>1.019850715931494</v>
+        <v>1.019850715931495</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9509432170467822</v>
+        <v>0.9509432170467806</v>
       </c>
       <c r="D8">
-        <v>1.028899331705474</v>
+        <v>1.028899331705473</v>
       </c>
       <c r="E8">
-        <v>0.9616653414471926</v>
+        <v>0.9616653414471913</v>
       </c>
       <c r="F8">
-        <v>0.9968583679296775</v>
+        <v>0.9968583679296761</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045499927768461</v>
+        <v>1.04549992776846</v>
       </c>
       <c r="J8">
-        <v>0.9740769032739826</v>
+        <v>0.9740769032739812</v>
       </c>
       <c r="K8">
-        <v>1.039701570644517</v>
+        <v>1.039701570644516</v>
       </c>
       <c r="L8">
-        <v>0.9733908981342277</v>
+        <v>0.9733908981342264</v>
       </c>
       <c r="M8">
-        <v>1.00808106346192</v>
+        <v>1.008081063461919</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.916016518382244</v>
+        <v>0.9160165183822431</v>
       </c>
       <c r="D9">
         <v>1.014197088909101</v>
       </c>
       <c r="E9">
-        <v>0.9315665766642801</v>
+        <v>0.931566576664279</v>
       </c>
       <c r="F9">
-        <v>0.9710557194683243</v>
+        <v>0.9710557194683233</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036539066329454</v>
+        <v>1.036539066329453</v>
       </c>
       <c r="J9">
-        <v>0.9449282674096195</v>
+        <v>0.9449282674096184</v>
       </c>
       <c r="K9">
-        <v>1.027063952347738</v>
+        <v>1.027063952347737</v>
       </c>
       <c r="L9">
-        <v>0.9458769300692018</v>
+        <v>0.9458769300692006</v>
       </c>
       <c r="M9">
-        <v>0.9846365282001025</v>
+        <v>0.9846365282001016</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8886342453047359</v>
+        <v>0.8886342453047347</v>
       </c>
       <c r="D10">
         <v>1.002981835687402</v>
       </c>
       <c r="E10">
-        <v>0.9080475429811465</v>
+        <v>0.9080475429811453</v>
       </c>
       <c r="F10">
-        <v>0.9511551264077298</v>
+        <v>0.951155126407729</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.029521433976965</v>
       </c>
       <c r="J10">
-        <v>0.9220873607891017</v>
+        <v>0.9220873607891006</v>
       </c>
       <c r="K10">
         <v>1.017297460073331</v>
       </c>
       <c r="L10">
-        <v>0.9243023618107832</v>
+        <v>0.9243023618107824</v>
       </c>
       <c r="M10">
-        <v>0.9664660839929238</v>
+        <v>0.9664660839929233</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8753760478405339</v>
+        <v>0.8753760478405331</v>
       </c>
       <c r="D11">
-        <v>0.9976615059969854</v>
+        <v>0.9976615059969853</v>
       </c>
       <c r="E11">
-        <v>0.8966907500344827</v>
+        <v>0.8966907500344821</v>
       </c>
       <c r="F11">
-        <v>0.9416347142717745</v>
+        <v>0.9416347142717741</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.026140490011253</v>
       </c>
       <c r="J11">
-        <v>0.9110400109037387</v>
+        <v>0.9110400109037378</v>
       </c>
       <c r="K11">
         <v>1.012627658046864</v>
       </c>
       <c r="L11">
-        <v>0.9138647151994754</v>
+        <v>0.9138647151994749</v>
       </c>
       <c r="M11">
-        <v>0.9577481545681331</v>
+        <v>0.9577481545681326</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8701851958345923</v>
+        <v>0.8701851958345914</v>
       </c>
       <c r="D12">
-        <v>0.995599198486529</v>
+        <v>0.9955991984865282</v>
       </c>
       <c r="E12">
-        <v>0.8922505030784129</v>
+        <v>0.8922505030784119</v>
       </c>
       <c r="F12">
-        <v>0.9379290323407141</v>
+        <v>0.9379290323407135</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024821128298522</v>
+        <v>1.024821128298521</v>
       </c>
       <c r="J12">
-        <v>0.9067177091773397</v>
+        <v>0.9067177091773391</v>
       </c>
       <c r="K12">
-        <v>1.01081119938282</v>
+        <v>1.010811199382819</v>
       </c>
       <c r="L12">
-        <v>0.9097806530721844</v>
+        <v>0.9097806530721836</v>
       </c>
       <c r="M12">
-        <v>0.9543505371464823</v>
+        <v>0.9543505371464817</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.871311847576365</v>
+        <v>0.8713118475763658</v>
       </c>
       <c r="D13">
-        <v>0.996045802890998</v>
+        <v>0.9960458028909978</v>
       </c>
       <c r="E13">
-        <v>0.8932139318339829</v>
+        <v>0.8932139318339836</v>
       </c>
       <c r="F13">
-        <v>0.9387322710027343</v>
+        <v>0.9387322710027345</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.025107259749467</v>
       </c>
       <c r="J13">
-        <v>0.9076556898273365</v>
+        <v>0.9076556898273374</v>
       </c>
       <c r="K13">
         <v>1.011204863186947</v>
       </c>
       <c r="L13">
-        <v>0.9106669448879452</v>
+        <v>0.9106669448879459</v>
       </c>
       <c r="M13">
-        <v>0.9550872028736904</v>
+        <v>0.955087202873691</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,25 +877,25 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8749528055267507</v>
+        <v>0.874952805526751</v>
       </c>
       <c r="D14">
-        <v>0.9974929098728481</v>
+        <v>0.9974929098728483</v>
       </c>
       <c r="E14">
         <v>0.8963285748912786</v>
       </c>
       <c r="F14">
-        <v>0.9413321006286044</v>
+        <v>0.9413321006286046</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026032814849526</v>
+        <v>1.026032814849527</v>
       </c>
       <c r="J14">
-        <v>0.910687519445906</v>
+        <v>0.9106875194459061</v>
       </c>
       <c r="K14">
         <v>1.012479292782038</v>
@@ -904,7 +904,7 @@
         <v>0.9135316579513695</v>
       </c>
       <c r="M14">
-        <v>0.9574707877570827</v>
+        <v>0.9574707877570829</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8771587951377376</v>
+        <v>0.8771587951377385</v>
       </c>
       <c r="D15">
-        <v>0.9983725103057343</v>
+        <v>0.9983725103057348</v>
       </c>
       <c r="E15">
-        <v>0.8982165324895192</v>
+        <v>0.8982165324895199</v>
       </c>
       <c r="F15">
-        <v>0.9429102601384034</v>
+        <v>0.9429102601384041</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026594216808103</v>
+        <v>1.026594216808104</v>
       </c>
       <c r="J15">
-        <v>0.9125248735219641</v>
+        <v>0.9125248735219649</v>
       </c>
       <c r="K15">
-        <v>1.013253085400213</v>
+        <v>1.013253085400214</v>
       </c>
       <c r="L15">
-        <v>0.9152677000731252</v>
+        <v>0.9152677000731259</v>
       </c>
       <c r="M15">
-        <v>0.9589171069284536</v>
+        <v>0.9589171069284544</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8894803614509307</v>
+        <v>0.8894803614509321</v>
       </c>
       <c r="D16">
         <v>1.003323891303147</v>
       </c>
       <c r="E16">
-        <v>0.9087730469675808</v>
+        <v>0.9087730469675821</v>
       </c>
       <c r="F16">
-        <v>0.9517653465482356</v>
+        <v>0.9517653465482366</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029737674725049</v>
+        <v>1.02973767472505</v>
       </c>
       <c r="J16">
-        <v>0.9227927102511362</v>
+        <v>0.9227927102511378</v>
       </c>
       <c r="K16">
-        <v>1.017596887967126</v>
+        <v>1.017596887967127</v>
       </c>
       <c r="L16">
-        <v>0.9249687349423943</v>
+        <v>0.9249687349423957</v>
       </c>
       <c r="M16">
-        <v>0.9670243221202753</v>
+        <v>0.9670243221202762</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8968012409188341</v>
+        <v>0.8968012409188356</v>
       </c>
       <c r="D17">
         <v>1.00629576212231</v>
       </c>
       <c r="E17">
-        <v>0.9150538203084737</v>
+        <v>0.9150538203084748</v>
       </c>
       <c r="F17">
-        <v>0.9570580474301252</v>
+        <v>0.9570580474301261</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031610649275051</v>
       </c>
       <c r="J17">
-        <v>0.9288970200582893</v>
+        <v>0.9288970200582906</v>
       </c>
       <c r="K17">
-        <v>1.020194297017823</v>
+        <v>1.020194297017824</v>
       </c>
       <c r="L17">
-        <v>0.9307354365256788</v>
+        <v>0.9307354365256804</v>
       </c>
       <c r="M17">
-        <v>0.9718633647524758</v>
+        <v>0.9718633647524768</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9009407964039956</v>
+        <v>0.9009407964039954</v>
       </c>
       <c r="D18">
         <v>1.007985786773637</v>
       </c>
       <c r="E18">
-        <v>0.9186079172085431</v>
+        <v>0.9186079172085433</v>
       </c>
       <c r="F18">
-        <v>0.9600608259327272</v>
+        <v>0.9600608259327265</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032671104713128</v>
+        <v>1.032671104713127</v>
       </c>
       <c r="J18">
         <v>0.932349663010013</v>
       </c>
       <c r="K18">
-        <v>1.021668084323308</v>
+        <v>1.021668084323307</v>
       </c>
       <c r="L18">
-        <v>0.9339968665780238</v>
+        <v>0.9339968665780239</v>
       </c>
       <c r="M18">
-        <v>0.9746065137539537</v>
+        <v>0.974606513753953</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9023314830453971</v>
+        <v>0.9023314830453979</v>
       </c>
       <c r="D19">
         <v>1.00855508013425</v>
       </c>
       <c r="E19">
-        <v>0.919802335474402</v>
+        <v>0.9198023354744025</v>
       </c>
       <c r="F19">
-        <v>0.9610712120622424</v>
+        <v>0.9610712120622429</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.033027558765343</v>
       </c>
       <c r="J19">
-        <v>0.9335097222175327</v>
+        <v>0.9335097222175331</v>
       </c>
       <c r="K19">
         <v>1.022163997654515</v>
       </c>
       <c r="L19">
-        <v>0.9350926335696147</v>
+        <v>0.9350926335696151</v>
       </c>
       <c r="M19">
-        <v>0.9755291687910143</v>
+        <v>0.9755291687910144</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8960296209624429</v>
+        <v>0.896029620962443</v>
       </c>
       <c r="D20">
-        <v>1.005981498412254</v>
+        <v>1.005981498412255</v>
       </c>
       <c r="E20">
-        <v>0.9143915398297792</v>
+        <v>0.9143915398297793</v>
       </c>
       <c r="F20">
-        <v>0.9564991200076399</v>
+        <v>0.9564991200076406</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.031413081756838</v>
       </c>
       <c r="J20">
-        <v>0.9282535160566537</v>
+        <v>0.928253516056654</v>
       </c>
       <c r="K20">
         <v>1.019919979528326</v>
       </c>
       <c r="L20">
-        <v>0.9301275490404535</v>
+        <v>0.9301275490404538</v>
       </c>
       <c r="M20">
-        <v>0.971352583232456</v>
+        <v>0.9713525832324567</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8738885454269384</v>
+        <v>0.8738885454269385</v>
       </c>
       <c r="D21">
         <v>0.9970693144227084</v>
       </c>
       <c r="E21">
-        <v>0.8954179751218773</v>
+        <v>0.8954179751218774</v>
       </c>
       <c r="F21">
-        <v>0.9405715304593976</v>
+        <v>0.9405715304593977</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>1.025762137630813</v>
       </c>
       <c r="J21">
-        <v>0.9098012170943607</v>
+        <v>0.9098012170943611</v>
       </c>
       <c r="K21">
         <v>1.012106423073554</v>
@@ -1170,7 +1170,7 @@
         <v>0.9126942164210053</v>
       </c>
       <c r="M21">
-        <v>0.9567736009155041</v>
+        <v>0.9567736009155042</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8583799073884485</v>
+        <v>0.8583799073884462</v>
       </c>
       <c r="D22">
-        <v>0.9909539223528545</v>
+        <v>0.9909539223528533</v>
       </c>
       <c r="E22">
-        <v>0.8821661686652058</v>
+        <v>0.8821661686652036</v>
       </c>
       <c r="F22">
-        <v>0.9295487631650527</v>
+        <v>0.929548763165051</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021831361322807</v>
+        <v>1.021831361322806</v>
       </c>
       <c r="J22">
-        <v>0.8968950279346563</v>
+        <v>0.8968950279346541</v>
       </c>
       <c r="K22">
-        <v>1.006706739360759</v>
+        <v>1.006706739360758</v>
       </c>
       <c r="L22">
-        <v>0.9004989926527139</v>
+        <v>0.9004989926527117</v>
       </c>
       <c r="M22">
-        <v>0.9466581648219279</v>
+        <v>0.9466581648219263</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8667773097546099</v>
+        <v>0.8667773097546121</v>
       </c>
       <c r="D23">
-        <v>0.9942517569101116</v>
+        <v>0.9942517569101131</v>
       </c>
       <c r="E23">
-        <v>0.889337391356254</v>
+        <v>0.889337391356256</v>
       </c>
       <c r="F23">
-        <v>0.9355030316344193</v>
+        <v>0.9355030316344211</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023956453815765</v>
+        <v>1.023956453815766</v>
       </c>
       <c r="J23">
-        <v>0.9038810645146828</v>
+        <v>0.9038810645146848</v>
       </c>
       <c r="K23">
-        <v>1.009622480044051</v>
+        <v>1.009622480044052</v>
       </c>
       <c r="L23">
-        <v>0.9071002929507274</v>
+        <v>0.9071002929507294</v>
       </c>
       <c r="M23">
-        <v>0.9521249253515721</v>
+        <v>0.9521249253515737</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8963786824616798</v>
+        <v>0.8963786824616811</v>
       </c>
       <c r="D24">
         <v>1.006123633673541</v>
       </c>
       <c r="E24">
-        <v>0.914691130655273</v>
+        <v>0.9146911306552741</v>
       </c>
       <c r="F24">
-        <v>0.9567519335915946</v>
+        <v>0.9567519335915955</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031502452109391</v>
+        <v>1.031502452109392</v>
       </c>
       <c r="J24">
-        <v>0.9285446180894235</v>
+        <v>0.9285446180894245</v>
       </c>
       <c r="K24">
         <v>1.020044058127177</v>
       </c>
       <c r="L24">
-        <v>0.9304025400408386</v>
+        <v>0.9304025400408399</v>
       </c>
       <c r="M24">
-        <v>0.9715836265004498</v>
+        <v>0.9715836265004507</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9256565818217332</v>
+        <v>0.9256565818217324</v>
       </c>
       <c r="D25">
-        <v>1.018213310468175</v>
+        <v>1.018213310468174</v>
       </c>
       <c r="E25">
-        <v>0.9398642834085734</v>
+        <v>0.9398642834085726</v>
       </c>
       <c r="F25">
-        <v>0.9781330565552662</v>
+        <v>0.9781330565552655</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.039014806845839</v>
       </c>
       <c r="J25">
-        <v>0.9529738757493396</v>
+        <v>0.9529738757493388</v>
       </c>
       <c r="K25">
         <v>1.030535317656781</v>
       </c>
       <c r="L25">
-        <v>0.9534738475612855</v>
+        <v>0.9534738475612846</v>
       </c>
       <c r="M25">
-        <v>0.9910805865867437</v>
+        <v>0.9910805865867431</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9462080627846654</v>
+        <v>0.9462080627846644</v>
       </c>
       <c r="D2">
         <v>1.026882581942444</v>
       </c>
       <c r="E2">
-        <v>0.9575794268814459</v>
+        <v>0.9575794268814454</v>
       </c>
       <c r="F2">
-        <v>0.9933349698409591</v>
+        <v>0.9933349698409581</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044287829413067</v>
+        <v>1.044287829413066</v>
       </c>
       <c r="J2">
-        <v>0.9701260020981685</v>
+        <v>0.9701260020981675</v>
       </c>
       <c r="K2">
-        <v>1.037979685113576</v>
+        <v>1.037979685113575</v>
       </c>
       <c r="L2">
-        <v>0.969663186409896</v>
+        <v>0.9696631864098954</v>
       </c>
       <c r="M2">
-        <v>1.004887946780481</v>
+        <v>1.00488794678048</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.959908770162364</v>
+        <v>0.9599087701623653</v>
       </c>
       <c r="D3">
-        <v>1.032736187028015</v>
+        <v>1.032736187028016</v>
       </c>
       <c r="E3">
-        <v>0.9694053422705308</v>
+        <v>0.9694053422705319</v>
       </c>
       <c r="F3">
-        <v>1.003549747690374</v>
+        <v>1.003549747690375</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.047789913709081</v>
       </c>
       <c r="J3">
-        <v>0.9815554110233141</v>
+        <v>0.9815554110233153</v>
       </c>
       <c r="K3">
         <v>1.042966659266877</v>
       </c>
       <c r="L3">
-        <v>0.9804452559767366</v>
+        <v>0.9804452559767378</v>
       </c>
       <c r="M3">
-        <v>1.014137409430055</v>
+        <v>1.014137409430056</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9683037603472187</v>
+        <v>0.9683037603472212</v>
       </c>
       <c r="D4">
-        <v>1.036349406892856</v>
+        <v>1.036349406892857</v>
       </c>
       <c r="E4">
-        <v>0.9766566685249083</v>
+        <v>0.9766566685249106</v>
       </c>
       <c r="F4">
-        <v>1.009838308000473</v>
+        <v>1.009838308000476</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049926425364348</v>
+        <v>1.049926425364349</v>
       </c>
       <c r="J4">
-        <v>0.9885545436647669</v>
+        <v>0.9885545436647695</v>
       </c>
       <c r="K4">
-        <v>1.046028060785936</v>
+        <v>1.046028060785937</v>
       </c>
       <c r="L4">
-        <v>0.9870452381290452</v>
+        <v>0.9870452381290477</v>
       </c>
       <c r="M4">
-        <v>1.019819425950265</v>
+        <v>1.019819425950267</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9717318874792545</v>
+        <v>0.9717318874792508</v>
       </c>
       <c r="D5">
-        <v>1.037830257089144</v>
+        <v>1.037830257089142</v>
       </c>
       <c r="E5">
-        <v>0.9796187198764731</v>
+        <v>0.9796187198764694</v>
       </c>
       <c r="F5">
-        <v>1.012412424963446</v>
+        <v>1.012412424963444</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050796217358903</v>
+        <v>1.050796217358902</v>
       </c>
       <c r="J5">
-        <v>0.9914114553721691</v>
+        <v>0.9914114553721655</v>
       </c>
       <c r="K5">
-        <v>1.047278869323567</v>
+        <v>1.047278869323565</v>
       </c>
       <c r="L5">
-        <v>0.9897385623271743</v>
+        <v>0.9897385623271706</v>
       </c>
       <c r="M5">
-        <v>1.022142413443201</v>
+        <v>1.022142413443199</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9723018526375145</v>
+        <v>0.9723018526375122</v>
       </c>
       <c r="D6">
-        <v>1.038076755917418</v>
+        <v>1.038076755917416</v>
       </c>
       <c r="E6">
-        <v>0.9801112429081381</v>
+        <v>0.9801112429081361</v>
       </c>
       <c r="F6">
-        <v>1.012840739243965</v>
+        <v>1.012840739243963</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050940662416016</v>
+        <v>1.050940662416015</v>
       </c>
       <c r="J6">
-        <v>0.9918863724019229</v>
+        <v>0.9918863724019207</v>
       </c>
       <c r="K6">
-        <v>1.04748685174</v>
+        <v>1.047486851739999</v>
       </c>
       <c r="L6">
-        <v>0.9901862463852606</v>
+        <v>0.9901862463852588</v>
       </c>
       <c r="M6">
-        <v>1.022528776153683</v>
+        <v>1.022528776153681</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9683499507935899</v>
+        <v>0.968349950793589</v>
       </c>
       <c r="D7">
         <v>1.03636933962465</v>
       </c>
       <c r="E7">
-        <v>0.9766965756697272</v>
+        <v>0.9766965756697265</v>
       </c>
       <c r="F7">
         <v>1.009872968194721</v>
@@ -629,16 +629,16 @@
         <v>1.049938155999522</v>
       </c>
       <c r="J7">
-        <v>0.9885930426603732</v>
+        <v>0.9885930426603722</v>
       </c>
       <c r="K7">
         <v>1.046044912300977</v>
       </c>
       <c r="L7">
-        <v>0.9870815353007359</v>
+        <v>0.9870815353007351</v>
       </c>
       <c r="M7">
-        <v>1.019850715931495</v>
+        <v>1.019850715931494</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9509432170467806</v>
+        <v>0.9509432170467822</v>
       </c>
       <c r="D8">
-        <v>1.028899331705473</v>
+        <v>1.028899331705474</v>
       </c>
       <c r="E8">
-        <v>0.9616653414471913</v>
+        <v>0.9616653414471926</v>
       </c>
       <c r="F8">
-        <v>0.9968583679296761</v>
+        <v>0.9968583679296775</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04549992776846</v>
+        <v>1.045499927768461</v>
       </c>
       <c r="J8">
-        <v>0.9740769032739812</v>
+        <v>0.9740769032739826</v>
       </c>
       <c r="K8">
-        <v>1.039701570644516</v>
+        <v>1.039701570644517</v>
       </c>
       <c r="L8">
-        <v>0.9733908981342264</v>
+        <v>0.9733908981342277</v>
       </c>
       <c r="M8">
-        <v>1.008081063461919</v>
+        <v>1.00808106346192</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9160165183822431</v>
+        <v>0.916016518382244</v>
       </c>
       <c r="D9">
         <v>1.014197088909101</v>
       </c>
       <c r="E9">
-        <v>0.931566576664279</v>
+        <v>0.9315665766642801</v>
       </c>
       <c r="F9">
-        <v>0.9710557194683233</v>
+        <v>0.9710557194683243</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036539066329453</v>
+        <v>1.036539066329454</v>
       </c>
       <c r="J9">
-        <v>0.9449282674096184</v>
+        <v>0.9449282674096195</v>
       </c>
       <c r="K9">
-        <v>1.027063952347737</v>
+        <v>1.027063952347738</v>
       </c>
       <c r="L9">
-        <v>0.9458769300692006</v>
+        <v>0.9458769300692018</v>
       </c>
       <c r="M9">
-        <v>0.9846365282001016</v>
+        <v>0.9846365282001025</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8886342453047347</v>
+        <v>0.8886342453047359</v>
       </c>
       <c r="D10">
         <v>1.002981835687402</v>
       </c>
       <c r="E10">
-        <v>0.9080475429811453</v>
+        <v>0.9080475429811465</v>
       </c>
       <c r="F10">
-        <v>0.951155126407729</v>
+        <v>0.9511551264077298</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.029521433976965</v>
       </c>
       <c r="J10">
-        <v>0.9220873607891006</v>
+        <v>0.9220873607891017</v>
       </c>
       <c r="K10">
         <v>1.017297460073331</v>
       </c>
       <c r="L10">
-        <v>0.9243023618107824</v>
+        <v>0.9243023618107832</v>
       </c>
       <c r="M10">
-        <v>0.9664660839929233</v>
+        <v>0.9664660839929238</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8753760478405331</v>
+        <v>0.8753760478405339</v>
       </c>
       <c r="D11">
-        <v>0.9976615059969853</v>
+        <v>0.9976615059969854</v>
       </c>
       <c r="E11">
-        <v>0.8966907500344821</v>
+        <v>0.8966907500344827</v>
       </c>
       <c r="F11">
-        <v>0.9416347142717741</v>
+        <v>0.9416347142717745</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.026140490011253</v>
       </c>
       <c r="J11">
-        <v>0.9110400109037378</v>
+        <v>0.9110400109037387</v>
       </c>
       <c r="K11">
         <v>1.012627658046864</v>
       </c>
       <c r="L11">
-        <v>0.9138647151994749</v>
+        <v>0.9138647151994754</v>
       </c>
       <c r="M11">
-        <v>0.9577481545681326</v>
+        <v>0.9577481545681331</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8701851958345914</v>
+        <v>0.8701851958345923</v>
       </c>
       <c r="D12">
-        <v>0.9955991984865282</v>
+        <v>0.995599198486529</v>
       </c>
       <c r="E12">
-        <v>0.8922505030784119</v>
+        <v>0.8922505030784129</v>
       </c>
       <c r="F12">
-        <v>0.9379290323407135</v>
+        <v>0.9379290323407141</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024821128298521</v>
+        <v>1.024821128298522</v>
       </c>
       <c r="J12">
-        <v>0.9067177091773391</v>
+        <v>0.9067177091773397</v>
       </c>
       <c r="K12">
-        <v>1.010811199382819</v>
+        <v>1.01081119938282</v>
       </c>
       <c r="L12">
-        <v>0.9097806530721836</v>
+        <v>0.9097806530721844</v>
       </c>
       <c r="M12">
-        <v>0.9543505371464817</v>
+        <v>0.9543505371464823</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8713118475763658</v>
+        <v>0.871311847576365</v>
       </c>
       <c r="D13">
-        <v>0.9960458028909978</v>
+        <v>0.996045802890998</v>
       </c>
       <c r="E13">
-        <v>0.8932139318339836</v>
+        <v>0.8932139318339829</v>
       </c>
       <c r="F13">
-        <v>0.9387322710027345</v>
+        <v>0.9387322710027343</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.025107259749467</v>
       </c>
       <c r="J13">
-        <v>0.9076556898273374</v>
+        <v>0.9076556898273365</v>
       </c>
       <c r="K13">
         <v>1.011204863186947</v>
       </c>
       <c r="L13">
-        <v>0.9106669448879459</v>
+        <v>0.9106669448879452</v>
       </c>
       <c r="M13">
-        <v>0.955087202873691</v>
+        <v>0.9550872028736904</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,25 +877,25 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.874952805526751</v>
+        <v>0.8749528055267507</v>
       </c>
       <c r="D14">
-        <v>0.9974929098728483</v>
+        <v>0.9974929098728481</v>
       </c>
       <c r="E14">
         <v>0.8963285748912786</v>
       </c>
       <c r="F14">
-        <v>0.9413321006286046</v>
+        <v>0.9413321006286044</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026032814849527</v>
+        <v>1.026032814849526</v>
       </c>
       <c r="J14">
-        <v>0.9106875194459061</v>
+        <v>0.910687519445906</v>
       </c>
       <c r="K14">
         <v>1.012479292782038</v>
@@ -904,7 +904,7 @@
         <v>0.9135316579513695</v>
       </c>
       <c r="M14">
-        <v>0.9574707877570829</v>
+        <v>0.9574707877570827</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8771587951377385</v>
+        <v>0.8771587951377376</v>
       </c>
       <c r="D15">
-        <v>0.9983725103057348</v>
+        <v>0.9983725103057343</v>
       </c>
       <c r="E15">
-        <v>0.8982165324895199</v>
+        <v>0.8982165324895192</v>
       </c>
       <c r="F15">
-        <v>0.9429102601384041</v>
+        <v>0.9429102601384034</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026594216808104</v>
+        <v>1.026594216808103</v>
       </c>
       <c r="J15">
-        <v>0.9125248735219649</v>
+        <v>0.9125248735219641</v>
       </c>
       <c r="K15">
-        <v>1.013253085400214</v>
+        <v>1.013253085400213</v>
       </c>
       <c r="L15">
-        <v>0.9152677000731259</v>
+        <v>0.9152677000731252</v>
       </c>
       <c r="M15">
-        <v>0.9589171069284544</v>
+        <v>0.9589171069284536</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8894803614509321</v>
+        <v>0.8894803614509307</v>
       </c>
       <c r="D16">
         <v>1.003323891303147</v>
       </c>
       <c r="E16">
-        <v>0.9087730469675821</v>
+        <v>0.9087730469675808</v>
       </c>
       <c r="F16">
-        <v>0.9517653465482366</v>
+        <v>0.9517653465482356</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02973767472505</v>
+        <v>1.029737674725049</v>
       </c>
       <c r="J16">
-        <v>0.9227927102511378</v>
+        <v>0.9227927102511362</v>
       </c>
       <c r="K16">
-        <v>1.017596887967127</v>
+        <v>1.017596887967126</v>
       </c>
       <c r="L16">
-        <v>0.9249687349423957</v>
+        <v>0.9249687349423943</v>
       </c>
       <c r="M16">
-        <v>0.9670243221202762</v>
+        <v>0.9670243221202753</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8968012409188356</v>
+        <v>0.8968012409188341</v>
       </c>
       <c r="D17">
         <v>1.00629576212231</v>
       </c>
       <c r="E17">
-        <v>0.9150538203084748</v>
+        <v>0.9150538203084737</v>
       </c>
       <c r="F17">
-        <v>0.9570580474301261</v>
+        <v>0.9570580474301252</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031610649275051</v>
       </c>
       <c r="J17">
-        <v>0.9288970200582906</v>
+        <v>0.9288970200582893</v>
       </c>
       <c r="K17">
-        <v>1.020194297017824</v>
+        <v>1.020194297017823</v>
       </c>
       <c r="L17">
-        <v>0.9307354365256804</v>
+        <v>0.9307354365256788</v>
       </c>
       <c r="M17">
-        <v>0.9718633647524768</v>
+        <v>0.9718633647524758</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9009407964039954</v>
+        <v>0.9009407964039956</v>
       </c>
       <c r="D18">
         <v>1.007985786773637</v>
       </c>
       <c r="E18">
-        <v>0.9186079172085433</v>
+        <v>0.9186079172085431</v>
       </c>
       <c r="F18">
-        <v>0.9600608259327265</v>
+        <v>0.9600608259327272</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032671104713127</v>
+        <v>1.032671104713128</v>
       </c>
       <c r="J18">
         <v>0.932349663010013</v>
       </c>
       <c r="K18">
-        <v>1.021668084323307</v>
+        <v>1.021668084323308</v>
       </c>
       <c r="L18">
-        <v>0.9339968665780239</v>
+        <v>0.9339968665780238</v>
       </c>
       <c r="M18">
-        <v>0.974606513753953</v>
+        <v>0.9746065137539537</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9023314830453979</v>
+        <v>0.9023314830453971</v>
       </c>
       <c r="D19">
         <v>1.00855508013425</v>
       </c>
       <c r="E19">
-        <v>0.9198023354744025</v>
+        <v>0.919802335474402</v>
       </c>
       <c r="F19">
-        <v>0.9610712120622429</v>
+        <v>0.9610712120622424</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.033027558765343</v>
       </c>
       <c r="J19">
-        <v>0.9335097222175331</v>
+        <v>0.9335097222175327</v>
       </c>
       <c r="K19">
         <v>1.022163997654515</v>
       </c>
       <c r="L19">
-        <v>0.9350926335696151</v>
+        <v>0.9350926335696147</v>
       </c>
       <c r="M19">
-        <v>0.9755291687910144</v>
+        <v>0.9755291687910143</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.896029620962443</v>
+        <v>0.8960296209624429</v>
       </c>
       <c r="D20">
-        <v>1.005981498412255</v>
+        <v>1.005981498412254</v>
       </c>
       <c r="E20">
-        <v>0.9143915398297793</v>
+        <v>0.9143915398297792</v>
       </c>
       <c r="F20">
-        <v>0.9564991200076406</v>
+        <v>0.9564991200076399</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.031413081756838</v>
       </c>
       <c r="J20">
-        <v>0.928253516056654</v>
+        <v>0.9282535160566537</v>
       </c>
       <c r="K20">
         <v>1.019919979528326</v>
       </c>
       <c r="L20">
-        <v>0.9301275490404538</v>
+        <v>0.9301275490404535</v>
       </c>
       <c r="M20">
-        <v>0.9713525832324567</v>
+        <v>0.971352583232456</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8738885454269385</v>
+        <v>0.8738885454269384</v>
       </c>
       <c r="D21">
         <v>0.9970693144227084</v>
       </c>
       <c r="E21">
-        <v>0.8954179751218774</v>
+        <v>0.8954179751218773</v>
       </c>
       <c r="F21">
-        <v>0.9405715304593977</v>
+        <v>0.9405715304593976</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>1.025762137630813</v>
       </c>
       <c r="J21">
-        <v>0.9098012170943611</v>
+        <v>0.9098012170943607</v>
       </c>
       <c r="K21">
         <v>1.012106423073554</v>
@@ -1170,7 +1170,7 @@
         <v>0.9126942164210053</v>
       </c>
       <c r="M21">
-        <v>0.9567736009155042</v>
+        <v>0.9567736009155041</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8583799073884462</v>
+        <v>0.8583799073884485</v>
       </c>
       <c r="D22">
-        <v>0.9909539223528533</v>
+        <v>0.9909539223528545</v>
       </c>
       <c r="E22">
-        <v>0.8821661686652036</v>
+        <v>0.8821661686652058</v>
       </c>
       <c r="F22">
-        <v>0.929548763165051</v>
+        <v>0.9295487631650527</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021831361322806</v>
+        <v>1.021831361322807</v>
       </c>
       <c r="J22">
-        <v>0.8968950279346541</v>
+        <v>0.8968950279346563</v>
       </c>
       <c r="K22">
-        <v>1.006706739360758</v>
+        <v>1.006706739360759</v>
       </c>
       <c r="L22">
-        <v>0.9004989926527117</v>
+        <v>0.9004989926527139</v>
       </c>
       <c r="M22">
-        <v>0.9466581648219263</v>
+        <v>0.9466581648219279</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8667773097546121</v>
+        <v>0.8667773097546099</v>
       </c>
       <c r="D23">
-        <v>0.9942517569101131</v>
+        <v>0.9942517569101116</v>
       </c>
       <c r="E23">
-        <v>0.889337391356256</v>
+        <v>0.889337391356254</v>
       </c>
       <c r="F23">
-        <v>0.9355030316344211</v>
+        <v>0.9355030316344193</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023956453815766</v>
+        <v>1.023956453815765</v>
       </c>
       <c r="J23">
-        <v>0.9038810645146848</v>
+        <v>0.9038810645146828</v>
       </c>
       <c r="K23">
-        <v>1.009622480044052</v>
+        <v>1.009622480044051</v>
       </c>
       <c r="L23">
-        <v>0.9071002929507294</v>
+        <v>0.9071002929507274</v>
       </c>
       <c r="M23">
-        <v>0.9521249253515737</v>
+        <v>0.9521249253515721</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8963786824616811</v>
+        <v>0.8963786824616798</v>
       </c>
       <c r="D24">
         <v>1.006123633673541</v>
       </c>
       <c r="E24">
-        <v>0.9146911306552741</v>
+        <v>0.914691130655273</v>
       </c>
       <c r="F24">
-        <v>0.9567519335915955</v>
+        <v>0.9567519335915946</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031502452109392</v>
+        <v>1.031502452109391</v>
       </c>
       <c r="J24">
-        <v>0.9285446180894245</v>
+        <v>0.9285446180894235</v>
       </c>
       <c r="K24">
         <v>1.020044058127177</v>
       </c>
       <c r="L24">
-        <v>0.9304025400408399</v>
+        <v>0.9304025400408386</v>
       </c>
       <c r="M24">
-        <v>0.9715836265004507</v>
+        <v>0.9715836265004498</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9256565818217324</v>
+        <v>0.9256565818217332</v>
       </c>
       <c r="D25">
-        <v>1.018213310468174</v>
+        <v>1.018213310468175</v>
       </c>
       <c r="E25">
-        <v>0.9398642834085726</v>
+        <v>0.9398642834085734</v>
       </c>
       <c r="F25">
-        <v>0.9781330565552655</v>
+        <v>0.9781330565552662</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.039014806845839</v>
       </c>
       <c r="J25">
-        <v>0.9529738757493388</v>
+        <v>0.9529738757493396</v>
       </c>
       <c r="K25">
         <v>1.030535317656781</v>
       </c>
       <c r="L25">
-        <v>0.9534738475612846</v>
+        <v>0.9534738475612855</v>
       </c>
       <c r="M25">
-        <v>0.9910805865867431</v>
+        <v>0.9910805865867437</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9462080627846644</v>
+        <v>0.9503387066921182</v>
       </c>
       <c r="D2">
-        <v>1.026882581942444</v>
+        <v>1.028073147220977</v>
       </c>
       <c r="E2">
-        <v>0.9575794268814454</v>
+        <v>0.9611383138043849</v>
       </c>
       <c r="F2">
-        <v>0.9933349698409581</v>
+        <v>0.9958050579314802</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044287829413066</v>
+        <v>1.045228202710187</v>
       </c>
       <c r="J2">
-        <v>0.9701260020981675</v>
+        <v>0.974113499137533</v>
       </c>
       <c r="K2">
-        <v>1.037979685113575</v>
+        <v>1.039154756621161</v>
       </c>
       <c r="L2">
-        <v>0.9696631864098954</v>
+        <v>0.973166983655922</v>
       </c>
       <c r="M2">
-        <v>1.00488794678048</v>
+        <v>1.007323145998027</v>
+      </c>
+      <c r="N2">
+        <v>0.9754968520386883</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9599087701623653</v>
+        <v>0.9639764966247419</v>
       </c>
       <c r="D3">
-        <v>1.032736187028016</v>
+        <v>1.033907293230962</v>
       </c>
       <c r="E3">
-        <v>0.9694053422705319</v>
+        <v>0.9729143168389932</v>
       </c>
       <c r="F3">
-        <v>1.003549747690375</v>
+        <v>1.005980218010825</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047789913709081</v>
+        <v>1.048717189473094</v>
       </c>
       <c r="J3">
-        <v>0.9815554110233153</v>
+        <v>0.985499811598067</v>
       </c>
       <c r="K3">
-        <v>1.042966659266877</v>
+        <v>1.044123954457157</v>
       </c>
       <c r="L3">
-        <v>0.9804452559767378</v>
+        <v>0.9839059102907473</v>
       </c>
       <c r="M3">
-        <v>1.014137409430056</v>
+        <v>1.016537148430423</v>
+      </c>
+      <c r="N3">
+        <v>0.9868993343689446</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9683037603472212</v>
+        <v>0.9723373363826541</v>
       </c>
       <c r="D4">
-        <v>1.036349406892857</v>
+        <v>1.037509846402493</v>
       </c>
       <c r="E4">
-        <v>0.9766566685249106</v>
+        <v>0.9801386834563499</v>
       </c>
       <c r="F4">
-        <v>1.009838308000476</v>
+        <v>1.012247088723666</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049926425364349</v>
+        <v>1.050846648775674</v>
       </c>
       <c r="J4">
-        <v>0.9885545436647695</v>
+        <v>0.9924761390050297</v>
       </c>
       <c r="K4">
-        <v>1.046028060785937</v>
+        <v>1.047175694995948</v>
       </c>
       <c r="L4">
-        <v>0.9870452381290477</v>
+        <v>0.9904828787879033</v>
       </c>
       <c r="M4">
-        <v>1.019819425950267</v>
+        <v>1.022199915608117</v>
+      </c>
+      <c r="N4">
+        <v>0.9938855689610211</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9717318874792508</v>
+        <v>0.975752422042188</v>
       </c>
       <c r="D5">
-        <v>1.037830257089142</v>
+        <v>1.038986601938883</v>
       </c>
       <c r="E5">
-        <v>0.9796187198764694</v>
+        <v>0.983090472609721</v>
       </c>
       <c r="F5">
-        <v>1.012412424963444</v>
+        <v>1.014812883163707</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050796217358902</v>
+        <v>1.051713763663562</v>
       </c>
       <c r="J5">
-        <v>0.9914114553721655</v>
+        <v>0.9953244808183828</v>
       </c>
       <c r="K5">
-        <v>1.047278869323565</v>
+        <v>1.048422814621709</v>
       </c>
       <c r="L5">
-        <v>0.9897385623271706</v>
+        <v>0.9931675119057656</v>
       </c>
       <c r="M5">
-        <v>1.022142413443199</v>
+        <v>1.02451555562657</v>
+      </c>
+      <c r="N5">
+        <v>0.9967379557464585</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9723018526375122</v>
+        <v>0.9763202683241365</v>
       </c>
       <c r="D6">
-        <v>1.038076755917416</v>
+        <v>1.039232434347413</v>
       </c>
       <c r="E6">
-        <v>0.9801112429081361</v>
+        <v>0.9835813303375622</v>
       </c>
       <c r="F6">
-        <v>1.012840739243963</v>
+        <v>1.015239843048703</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050940662416015</v>
+        <v>1.051857774790333</v>
       </c>
       <c r="J6">
-        <v>0.9918863724019207</v>
+        <v>0.9957980136929748</v>
       </c>
       <c r="K6">
-        <v>1.047486851739999</v>
+        <v>1.048630197816612</v>
       </c>
       <c r="L6">
-        <v>0.9901862463852588</v>
+        <v>0.9936137897127648</v>
       </c>
       <c r="M6">
-        <v>1.022528776153681</v>
+        <v>1.024900724900214</v>
+      </c>
+      <c r="N6">
+        <v>0.9972121610920475</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.968349950793589</v>
+        <v>0.9723833476915287</v>
       </c>
       <c r="D7">
-        <v>1.03636933962465</v>
+        <v>1.037529722971742</v>
       </c>
       <c r="E7">
-        <v>0.9766965756697265</v>
+        <v>0.9801784495018954</v>
       </c>
       <c r="F7">
-        <v>1.009872968194721</v>
+        <v>1.012281634755402</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049938155999522</v>
+        <v>1.050858342569205</v>
       </c>
       <c r="J7">
-        <v>0.9885930426603722</v>
+        <v>0.992514519718612</v>
       </c>
       <c r="K7">
-        <v>1.046044912300977</v>
+        <v>1.047192495833773</v>
       </c>
       <c r="L7">
-        <v>0.9870815353007351</v>
+        <v>0.9905190561799257</v>
       </c>
       <c r="M7">
-        <v>1.019850715931494</v>
+        <v>1.022231104644818</v>
+      </c>
+      <c r="N7">
+        <v>0.9939240041796189</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9509432170467822</v>
+        <v>0.9550510635289244</v>
       </c>
       <c r="D8">
-        <v>1.028899331705474</v>
+        <v>1.030082873367414</v>
       </c>
       <c r="E8">
-        <v>0.9616653414471926</v>
+        <v>0.9652061136077733</v>
       </c>
       <c r="F8">
-        <v>0.9968583679296775</v>
+        <v>0.9993141478573984</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045499927768461</v>
+        <v>1.046435543807548</v>
       </c>
       <c r="J8">
-        <v>0.9740769032739826</v>
+        <v>0.9780486466956896</v>
       </c>
       <c r="K8">
-        <v>1.039701570644517</v>
+        <v>1.040870206383328</v>
       </c>
       <c r="L8">
-        <v>0.9733908981342277</v>
+        <v>0.9768789693633497</v>
       </c>
       <c r="M8">
-        <v>1.00808106346192</v>
+        <v>1.010503417467551</v>
+      </c>
+      <c r="N8">
+        <v>0.9794375879577453</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.916016518382244</v>
+        <v>0.9203221481995132</v>
       </c>
       <c r="D9">
-        <v>1.014197088909101</v>
+        <v>1.015440707903642</v>
       </c>
       <c r="E9">
-        <v>0.9315665766642801</v>
+        <v>0.935265174234699</v>
       </c>
       <c r="F9">
-        <v>0.9710557194683243</v>
+        <v>0.9736342180727746</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036539066329454</v>
+        <v>1.037516141057577</v>
       </c>
       <c r="J9">
-        <v>0.9449282674096195</v>
+        <v>0.949040256138063</v>
       </c>
       <c r="K9">
-        <v>1.027063952347738</v>
+        <v>1.02828814098734</v>
       </c>
       <c r="L9">
-        <v>0.9458769300692018</v>
+        <v>0.9495037718462915</v>
       </c>
       <c r="M9">
-        <v>0.9846365282001025</v>
+        <v>0.9871700543352951</v>
+      </c>
+      <c r="N9">
+        <v>0.9503880021582179</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8886342453047359</v>
+        <v>0.8931527523596696</v>
       </c>
       <c r="D10">
-        <v>1.002981835687402</v>
+        <v>1.004288448364258</v>
       </c>
       <c r="E10">
-        <v>0.9080475429811465</v>
+        <v>0.9119168382631037</v>
       </c>
       <c r="F10">
-        <v>0.9511551264077298</v>
+        <v>0.9538630402777958</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029521433976965</v>
+        <v>1.030543202561047</v>
       </c>
       <c r="J10">
-        <v>0.9220873607891017</v>
+        <v>0.9263559363264388</v>
       </c>
       <c r="K10">
-        <v>1.017297460073331</v>
+        <v>1.018580702850877</v>
       </c>
       <c r="L10">
-        <v>0.9243023618107832</v>
+        <v>0.9280820630269463</v>
       </c>
       <c r="M10">
-        <v>0.9664660839929238</v>
+        <v>0.9691184603703007</v>
+      </c>
+      <c r="N10">
+        <v>0.9276714680105334</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8753760478405339</v>
+        <v>0.8800213302834116</v>
       </c>
       <c r="D11">
-        <v>0.9976615059969854</v>
+        <v>0.999005046315549</v>
       </c>
       <c r="E11">
-        <v>0.8966907500344827</v>
+        <v>0.9006618316487286</v>
       </c>
       <c r="F11">
-        <v>0.9416347142717745</v>
+        <v>0.9444187751363495</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026140490011253</v>
+        <v>1.027188810012017</v>
       </c>
       <c r="J11">
-        <v>0.9110400109037387</v>
+        <v>0.9154034082473823</v>
       </c>
       <c r="K11">
-        <v>1.012627658046864</v>
+        <v>1.013945750429194</v>
       </c>
       <c r="L11">
-        <v>0.9138647151994754</v>
+        <v>0.9177363423005932</v>
       </c>
       <c r="M11">
-        <v>0.9577481545681331</v>
+        <v>0.9604709311104308</v>
+      </c>
+      <c r="N11">
+        <v>0.916703386085332</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8701851958345923</v>
+        <v>0.8748851308022355</v>
       </c>
       <c r="D12">
-        <v>0.995599198486529</v>
+        <v>0.9969585493327136</v>
       </c>
       <c r="E12">
-        <v>0.8922505030784129</v>
+        <v>0.8962654744676269</v>
       </c>
       <c r="F12">
-        <v>0.9379290323407141</v>
+        <v>0.9407457483251829</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024821128298522</v>
+        <v>1.025880875606685</v>
       </c>
       <c r="J12">
-        <v>0.9067177091773397</v>
+        <v>0.9111222424844606</v>
       </c>
       <c r="K12">
-        <v>1.01081119938282</v>
+        <v>1.012144251634977</v>
       </c>
       <c r="L12">
-        <v>0.9097806530721844</v>
+        <v>0.913692047523453</v>
       </c>
       <c r="M12">
-        <v>0.9543505371464823</v>
+        <v>0.9571035844894646</v>
+      </c>
+      <c r="N12">
+        <v>0.9124161405759704</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.871311847576365</v>
+        <v>0.8759996631034251</v>
       </c>
       <c r="D13">
-        <v>0.996045802890998</v>
+        <v>0.9974016528786915</v>
       </c>
       <c r="E13">
-        <v>0.8932139318339829</v>
+        <v>0.8972191702281951</v>
       </c>
       <c r="F13">
-        <v>0.9387322710027343</v>
+        <v>0.9415417537806028</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025107259749467</v>
+        <v>1.026164474007356</v>
       </c>
       <c r="J13">
-        <v>0.9076556898273365</v>
+        <v>0.9120510892074677</v>
       </c>
       <c r="K13">
-        <v>1.011204863186947</v>
+        <v>1.012534601129871</v>
       </c>
       <c r="L13">
-        <v>0.9106669448879452</v>
+        <v>0.914569514573763</v>
       </c>
       <c r="M13">
-        <v>0.9550872028736904</v>
+        <v>0.9578335414129159</v>
+      </c>
+      <c r="N13">
+        <v>0.9133463063678644</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8749528055267507</v>
+        <v>0.8796024324324047</v>
       </c>
       <c r="D14">
-        <v>0.9974929098728481</v>
+        <v>0.9988377092532985</v>
       </c>
       <c r="E14">
-        <v>0.8963285748912786</v>
+        <v>0.9003031452856963</v>
       </c>
       <c r="F14">
-        <v>0.9413321006286044</v>
+        <v>0.9441187608730512</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026032814849526</v>
+        <v>1.027082043660578</v>
       </c>
       <c r="J14">
-        <v>0.910687519445906</v>
+        <v>0.9150541816292062</v>
       </c>
       <c r="K14">
-        <v>1.012479292782038</v>
+        <v>1.013798575697686</v>
       </c>
       <c r="L14">
-        <v>0.9135316579513695</v>
+        <v>0.9174064435506318</v>
       </c>
       <c r="M14">
-        <v>0.9574707877570827</v>
+        <v>0.960195972263769</v>
+      </c>
+      <c r="N14">
+        <v>0.9163536635253008</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8771587951377376</v>
+        <v>0.8817859896440307</v>
       </c>
       <c r="D15">
-        <v>0.9983725103057343</v>
+        <v>0.9997108042708103</v>
       </c>
       <c r="E15">
-        <v>0.8982165324895192</v>
+        <v>0.9021730890737512</v>
       </c>
       <c r="F15">
-        <v>0.9429102601384034</v>
+        <v>0.9456834918142221</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026594216808103</v>
+        <v>1.027638752240582</v>
       </c>
       <c r="J15">
-        <v>0.9125248735219641</v>
+        <v>0.9168746879658494</v>
       </c>
       <c r="K15">
-        <v>1.013253085400213</v>
+        <v>1.014566218512262</v>
       </c>
       <c r="L15">
-        <v>0.9152677000731252</v>
+        <v>0.9191261822808436</v>
       </c>
       <c r="M15">
-        <v>0.9589171069284536</v>
+        <v>0.9616298548831972</v>
+      </c>
+      <c r="N15">
+        <v>0.9181767551897576</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8894803614509307</v>
+        <v>0.893991356285909</v>
       </c>
       <c r="D16">
-        <v>1.003323891303147</v>
+        <v>1.004628303592408</v>
       </c>
       <c r="E16">
-        <v>0.9087730469675808</v>
+        <v>0.9126363125334032</v>
       </c>
       <c r="F16">
-        <v>0.9517653465482356</v>
+        <v>0.9544687290492273</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029737674725049</v>
+        <v>1.030757868141199</v>
       </c>
       <c r="J16">
-        <v>0.9227927102511362</v>
+        <v>0.9270556973631093</v>
       </c>
       <c r="K16">
-        <v>1.017596887967126</v>
+        <v>1.018878058746847</v>
       </c>
       <c r="L16">
-        <v>0.9249687349423943</v>
+        <v>0.9287430056615722</v>
       </c>
       <c r="M16">
-        <v>0.9670243221202753</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9696725184229341</v>
+      </c>
+      <c r="N16">
+        <v>0.9283722227881397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8968012409188341</v>
+        <v>0.9012499023461105</v>
       </c>
       <c r="D17">
-        <v>1.00629576212231</v>
+        <v>1.007581857990494</v>
       </c>
       <c r="E17">
-        <v>0.9150538203084737</v>
+        <v>0.9188670656340316</v>
       </c>
       <c r="F17">
-        <v>0.9570580474301252</v>
+        <v>0.9597237385052726</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031610649275051</v>
+        <v>1.032617765494231</v>
       </c>
       <c r="J17">
-        <v>0.9288970200582893</v>
+        <v>0.9331137902599081</v>
       </c>
       <c r="K17">
-        <v>1.020194297017823</v>
+        <v>1.02145824302324</v>
       </c>
       <c r="L17">
-        <v>0.9307354365256788</v>
+        <v>0.9344647339164541</v>
       </c>
       <c r="M17">
-        <v>0.9718633647524758</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9744768380947123</v>
+      </c>
+      <c r="N17">
+        <v>0.934438918871725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9009407964039956</v>
+        <v>0.9053562308156757</v>
       </c>
       <c r="D18">
-        <v>1.007985786773637</v>
+        <v>1.009262073795522</v>
       </c>
       <c r="E18">
-        <v>0.9186079172085431</v>
+        <v>0.9223945099999737</v>
       </c>
       <c r="F18">
-        <v>0.9600608259327272</v>
+        <v>0.9627063543710696</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032671104713128</v>
+        <v>1.033671245461829</v>
       </c>
       <c r="J18">
-        <v>0.932349663010013</v>
+        <v>0.9365419199028703</v>
       </c>
       <c r="K18">
-        <v>1.021668084323308</v>
+        <v>1.022922824298612</v>
       </c>
       <c r="L18">
-        <v>0.9339968665780238</v>
+        <v>0.9377022612005057</v>
       </c>
       <c r="M18">
-        <v>0.9746065137539537</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9772014492266697</v>
+      </c>
+      <c r="N18">
+        <v>0.9378719168519921</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9023314830453971</v>
+        <v>0.9067360668798266</v>
       </c>
       <c r="D19">
-        <v>1.00855508013425</v>
+        <v>1.009828156748163</v>
       </c>
       <c r="E19">
-        <v>0.919802335474402</v>
+        <v>0.9235802266821042</v>
       </c>
       <c r="F19">
-        <v>0.9610712120622424</v>
+        <v>0.9637101448162412</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033027558765343</v>
+        <v>1.034025421021197</v>
       </c>
       <c r="J19">
-        <v>0.9335097222175327</v>
+        <v>0.9376939944346242</v>
       </c>
       <c r="K19">
-        <v>1.022163997654515</v>
+        <v>1.023415727524873</v>
       </c>
       <c r="L19">
-        <v>0.9350926335696147</v>
+        <v>0.9387902343883111</v>
       </c>
       <c r="M19">
-        <v>0.9755291687910143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9781180461339795</v>
+      </c>
+      <c r="N19">
+        <v>0.9390256274617258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8960296209624429</v>
+        <v>0.900484633313658</v>
       </c>
       <c r="D20">
-        <v>1.005981498412254</v>
+        <v>1.007269465422451</v>
       </c>
       <c r="E20">
-        <v>0.9143915398297792</v>
+        <v>0.9182098804161247</v>
       </c>
       <c r="F20">
-        <v>0.9564991200076399</v>
+        <v>0.9591686591043934</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031413081756838</v>
+        <v>1.032421530908762</v>
       </c>
       <c r="J20">
-        <v>0.9282535160566537</v>
+        <v>0.9324749818760657</v>
       </c>
       <c r="K20">
-        <v>1.019919979528326</v>
+        <v>1.021185683188751</v>
       </c>
       <c r="L20">
-        <v>0.9301275490404535</v>
+        <v>0.9338614210438005</v>
       </c>
       <c r="M20">
-        <v>0.971352583232456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9739695975536079</v>
+      </c>
+      <c r="N20">
+        <v>0.9337992033067053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8738885454269384</v>
+        <v>0.8785491829402999</v>
       </c>
       <c r="D21">
-        <v>0.9970693144227084</v>
+        <v>0.9984173030005766</v>
       </c>
       <c r="E21">
-        <v>0.8954179751218773</v>
+        <v>0.8994013875972904</v>
       </c>
       <c r="F21">
-        <v>0.9405715304593976</v>
+        <v>0.9433647757802139</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025762137630813</v>
+        <v>1.026813669402467</v>
       </c>
       <c r="J21">
-        <v>0.9098012170943607</v>
+        <v>0.9141761577898672</v>
       </c>
       <c r="K21">
-        <v>1.012106423073554</v>
+        <v>1.013428722228171</v>
       </c>
       <c r="L21">
-        <v>0.9126942164210053</v>
+        <v>0.9165770090819322</v>
       </c>
       <c r="M21">
-        <v>0.9567736009155041</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9595048868651802</v>
+      </c>
+      <c r="N21">
+        <v>0.9154743927913997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8583799073884485</v>
+        <v>0.8632160643729175</v>
       </c>
       <c r="D22">
-        <v>0.9909539223528545</v>
+        <v>0.9923524362735829</v>
       </c>
       <c r="E22">
-        <v>0.8821661686652058</v>
+        <v>0.886290539340436</v>
       </c>
       <c r="F22">
-        <v>0.9295487631650527</v>
+        <v>0.9324464845068524</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021831361322807</v>
+        <v>1.022919540700785</v>
       </c>
       <c r="J22">
-        <v>0.8968950279346563</v>
+        <v>0.9014026353136404</v>
       </c>
       <c r="K22">
-        <v>1.006706739360759</v>
+        <v>1.008076930626683</v>
       </c>
       <c r="L22">
-        <v>0.9004989926527139</v>
+        <v>0.9045097850165463</v>
       </c>
       <c r="M22">
-        <v>0.9466581648219279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9494864751518824</v>
+      </c>
+      <c r="N22">
+        <v>0.9026827304481131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8667773097546099</v>
+        <v>0.8715148041283657</v>
       </c>
       <c r="D23">
-        <v>0.9942517569101116</v>
+        <v>0.9956219392806788</v>
       </c>
       <c r="E23">
-        <v>0.889337391356254</v>
+        <v>0.8933825267589663</v>
       </c>
       <c r="F23">
-        <v>0.9355030316344193</v>
+        <v>0.9383421355893278</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023956453815765</v>
+        <v>1.025024047663388</v>
       </c>
       <c r="J23">
-        <v>0.9038810645146828</v>
+        <v>0.9083139450453713</v>
       </c>
       <c r="K23">
-        <v>1.009622480044051</v>
+        <v>1.010965792808814</v>
       </c>
       <c r="L23">
-        <v>0.9071002929507274</v>
+        <v>0.9110390569831782</v>
       </c>
       <c r="M23">
-        <v>0.9521249253515721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9548987503106287</v>
+      </c>
+      <c r="N23">
+        <v>0.9096038550324014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8963786824616798</v>
+        <v>0.9008308155861626</v>
       </c>
       <c r="D24">
-        <v>1.006123633673541</v>
+        <v>1.007410752534909</v>
       </c>
       <c r="E24">
-        <v>0.914691130655273</v>
+        <v>0.9185071612412224</v>
       </c>
       <c r="F24">
-        <v>0.9567519335915946</v>
+        <v>0.9594197283924696</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031502452109391</v>
+        <v>1.032510296983139</v>
       </c>
       <c r="J24">
-        <v>0.9285446180894235</v>
+        <v>0.9327639547319554</v>
       </c>
       <c r="K24">
-        <v>1.020044058127177</v>
+        <v>1.021308965021956</v>
       </c>
       <c r="L24">
-        <v>0.9304025400408386</v>
+        <v>0.934134337892533</v>
       </c>
       <c r="M24">
-        <v>0.9715836265004498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9741990355898377</v>
+      </c>
+      <c r="N24">
+        <v>0.934088586537196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9256565818217332</v>
+        <v>0.9299003412294032</v>
       </c>
       <c r="D25">
-        <v>1.018213310468175</v>
+        <v>1.019438327433888</v>
       </c>
       <c r="E25">
-        <v>0.9398642834085734</v>
+        <v>0.943513383662046</v>
       </c>
       <c r="F25">
-        <v>0.9781330565552662</v>
+        <v>0.9806734772464116</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039014806845839</v>
+        <v>1.039978885348046</v>
       </c>
       <c r="J25">
-        <v>0.9529738757493396</v>
+        <v>0.957041260453697</v>
       </c>
       <c r="K25">
-        <v>1.030535317656781</v>
+        <v>1.031742200537611</v>
       </c>
       <c r="L25">
-        <v>0.9534738475612855</v>
+        <v>0.9570568089510367</v>
       </c>
       <c r="M25">
-        <v>0.9910805865867437</v>
+        <v>0.9935794094818716</v>
+      </c>
+      <c r="N25">
+        <v>0.9584003688177078</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9503387066921182</v>
+        <v>0.9087867136427965</v>
       </c>
       <c r="D2">
-        <v>1.028073147220977</v>
+        <v>1.031194003074464</v>
       </c>
       <c r="E2">
-        <v>0.9611383138043849</v>
+        <v>0.926078009849817</v>
       </c>
       <c r="F2">
-        <v>0.9958050579314802</v>
+        <v>0.9377790769792814</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045228202710187</v>
+        <v>1.044003639699205</v>
       </c>
       <c r="J2">
-        <v>0.974113499137533</v>
+        <v>0.9340856113936854</v>
       </c>
       <c r="K2">
-        <v>1.039154756621161</v>
+        <v>1.042235210726336</v>
       </c>
       <c r="L2">
-        <v>0.973166983655922</v>
+        <v>0.9386732159177077</v>
       </c>
       <c r="M2">
-        <v>1.007323145998027</v>
+        <v>0.9501791507479597</v>
       </c>
       <c r="N2">
-        <v>0.9754968520386883</v>
+        <v>0.9354121201029816</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9639764966247419</v>
+        <v>0.9234669325924291</v>
       </c>
       <c r="D3">
-        <v>1.033907293230962</v>
+        <v>1.033876583858677</v>
       </c>
       <c r="E3">
-        <v>0.9729143168389932</v>
+        <v>0.9385837671974788</v>
       </c>
       <c r="F3">
-        <v>1.005980218010825</v>
+        <v>0.9510877704194822</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048717189473094</v>
+        <v>1.045267179801361</v>
       </c>
       <c r="J3">
-        <v>0.985499811598067</v>
+        <v>0.946286158958291</v>
       </c>
       <c r="K3">
-        <v>1.044123954457157</v>
+        <v>1.044093606750037</v>
       </c>
       <c r="L3">
-        <v>0.9839059102907473</v>
+        <v>0.9500678578994028</v>
       </c>
       <c r="M3">
-        <v>1.016537148430423</v>
+        <v>0.9623872628481451</v>
       </c>
       <c r="N3">
-        <v>0.9868993343689446</v>
+        <v>0.947629993844551</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9723373363826541</v>
+        <v>0.9324060193252749</v>
       </c>
       <c r="D4">
-        <v>1.037509846402493</v>
+        <v>1.035550959804256</v>
       </c>
       <c r="E4">
-        <v>0.9801386834563499</v>
+        <v>0.9462104144737826</v>
       </c>
       <c r="F4">
-        <v>1.012247088723666</v>
+        <v>0.9592110259334298</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050846648775674</v>
+        <v>1.046030791553046</v>
       </c>
       <c r="J4">
-        <v>0.9924761390050297</v>
+        <v>0.9537124504368233</v>
       </c>
       <c r="K4">
-        <v>1.047175694995948</v>
+        <v>1.045238444948602</v>
       </c>
       <c r="L4">
-        <v>0.9904828787879033</v>
+        <v>0.9570045212418835</v>
       </c>
       <c r="M4">
-        <v>1.022199915608117</v>
+        <v>0.9698280111814237</v>
       </c>
       <c r="N4">
-        <v>0.9938855689610211</v>
+        <v>0.9550668315087906</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.975752422042188</v>
+        <v>0.9360451911191762</v>
       </c>
       <c r="D5">
-        <v>1.038986601938883</v>
+        <v>1.036241231475548</v>
       </c>
       <c r="E5">
-        <v>0.983090472609721</v>
+        <v>0.949317616992305</v>
       </c>
       <c r="F5">
-        <v>1.014812883163707</v>
+        <v>0.9625217116895156</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051713763663562</v>
+        <v>1.046339849778546</v>
       </c>
       <c r="J5">
-        <v>0.9953244808183828</v>
+        <v>0.956734783423551</v>
       </c>
       <c r="K5">
-        <v>1.048422814621709</v>
+        <v>1.045706938256148</v>
       </c>
       <c r="L5">
-        <v>0.9931675119057656</v>
+        <v>0.9598277255372649</v>
       </c>
       <c r="M5">
-        <v>1.02451555562657</v>
+        <v>0.9728579768655664</v>
       </c>
       <c r="N5">
-        <v>0.9967379557464585</v>
+        <v>0.9580934565550259</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9763202683241365</v>
+        <v>0.9366496462231412</v>
       </c>
       <c r="D6">
-        <v>1.039232434347413</v>
+        <v>1.036356359206221</v>
       </c>
       <c r="E6">
-        <v>0.9835813303375622</v>
+        <v>0.9498338393661726</v>
       </c>
       <c r="F6">
-        <v>1.015239843048703</v>
+        <v>0.9630717951607742</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051857774790333</v>
+        <v>1.04639106511734</v>
       </c>
       <c r="J6">
-        <v>0.9957980136929748</v>
+        <v>0.9572367193172224</v>
       </c>
       <c r="K6">
-        <v>1.048630197816612</v>
+        <v>1.045784875962227</v>
       </c>
       <c r="L6">
-        <v>0.9936137897127648</v>
+        <v>0.960296597111795</v>
       </c>
       <c r="M6">
-        <v>1.024900724900214</v>
+        <v>0.9733612672443513</v>
       </c>
       <c r="N6">
-        <v>0.9972121610920475</v>
+        <v>0.958596105255239</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9723833476915287</v>
+        <v>0.9324550950019902</v>
       </c>
       <c r="D7">
-        <v>1.037529722971742</v>
+        <v>1.035560235549716</v>
       </c>
       <c r="E7">
-        <v>0.9801784495018954</v>
+        <v>0.9462523075861002</v>
       </c>
       <c r="F7">
-        <v>1.012281634755402</v>
+        <v>0.959255658530568</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050858342569205</v>
+        <v>1.046034967075379</v>
       </c>
       <c r="J7">
-        <v>0.992514519718612</v>
+        <v>0.9537532119850416</v>
       </c>
       <c r="K7">
-        <v>1.047192495833773</v>
+        <v>1.045244754060044</v>
       </c>
       <c r="L7">
-        <v>0.9905190561799257</v>
+        <v>0.9570425967280215</v>
       </c>
       <c r="M7">
-        <v>1.022231104644818</v>
+        <v>0.9698688694535139</v>
       </c>
       <c r="N7">
-        <v>0.9939240041796189</v>
+        <v>0.9551076509430828</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9550510635289244</v>
+        <v>0.9138740977171694</v>
       </c>
       <c r="D8">
-        <v>1.030082873367414</v>
+        <v>1.032114023612844</v>
       </c>
       <c r="E8">
-        <v>0.9652061136077733</v>
+        <v>0.9304090167951728</v>
       </c>
       <c r="F8">
-        <v>0.9993141478573984</v>
+        <v>0.9423863167576648</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046435543807548</v>
+        <v>1.044442474590575</v>
       </c>
       <c r="J8">
-        <v>0.9780486466956896</v>
+        <v>0.9383140982044672</v>
       </c>
       <c r="K8">
-        <v>1.040870206383328</v>
+        <v>1.042875874968427</v>
       </c>
       <c r="L8">
-        <v>0.9768789693633497</v>
+        <v>0.942622137368422</v>
       </c>
       <c r="M8">
-        <v>1.010503417467551</v>
+        <v>0.9544077133605657</v>
       </c>
       <c r="N8">
-        <v>0.9794375879577453</v>
+        <v>0.9396466118500489</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9203221481995132</v>
+        <v>0.8759423074807411</v>
       </c>
       <c r="D9">
-        <v>1.015440707903642</v>
+        <v>1.025509000559811</v>
       </c>
       <c r="E9">
-        <v>0.935265174234699</v>
+        <v>0.8981977278349247</v>
       </c>
       <c r="F9">
-        <v>0.9736342180727746</v>
+        <v>0.908181633772714</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037516141057577</v>
+        <v>1.041166906580533</v>
       </c>
       <c r="J9">
-        <v>0.949040256138063</v>
+        <v>0.9067895920186759</v>
       </c>
       <c r="K9">
-        <v>1.02828814098734</v>
+        <v>1.038201338375422</v>
       </c>
       <c r="L9">
-        <v>0.9495037718462915</v>
+        <v>0.9131909094521538</v>
       </c>
       <c r="M9">
-        <v>0.9871700543352951</v>
+        <v>0.922963561138332</v>
       </c>
       <c r="N9">
-        <v>0.9503880021582179</v>
+        <v>0.9080773372495624</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8931527523596696</v>
+        <v>0.845350044687717</v>
       </c>
       <c r="D10">
-        <v>1.004288448364258</v>
+        <v>1.020626573602509</v>
       </c>
       <c r="E10">
-        <v>0.9119168382631037</v>
+        <v>0.8723754941702841</v>
       </c>
       <c r="F10">
-        <v>0.9538630402777958</v>
+        <v>0.8808926934474713</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030543202561047</v>
+        <v>1.0385568229833</v>
       </c>
       <c r="J10">
-        <v>0.9263559363264388</v>
+        <v>0.8813990606330906</v>
       </c>
       <c r="K10">
-        <v>1.018580702850877</v>
+        <v>1.034633134923764</v>
       </c>
       <c r="L10">
-        <v>0.9280820630269463</v>
+        <v>0.8895070801428767</v>
       </c>
       <c r="M10">
-        <v>0.9691184603703007</v>
+        <v>0.897806221621155</v>
       </c>
       <c r="N10">
-        <v>0.9276714680105334</v>
+        <v>0.8826507483970748</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8800213302834116</v>
+        <v>0.8301532087069596</v>
       </c>
       <c r="D11">
-        <v>0.999005046315549</v>
+        <v>1.018354150827724</v>
       </c>
       <c r="E11">
-        <v>0.9006618316487286</v>
+        <v>0.859609373588032</v>
       </c>
       <c r="F11">
-        <v>0.9444187751363495</v>
+        <v>0.8674568729562032</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027188810012017</v>
+        <v>1.037284188981946</v>
       </c>
       <c r="J11">
-        <v>0.9154034082473823</v>
+        <v>0.8688092372913953</v>
       </c>
       <c r="K11">
-        <v>1.013945750429194</v>
+        <v>1.032938041263959</v>
       </c>
       <c r="L11">
-        <v>0.9177363423005932</v>
+        <v>0.8777727764650136</v>
       </c>
       <c r="M11">
-        <v>0.9604709311104308</v>
+        <v>0.8854012562736693</v>
       </c>
       <c r="N11">
-        <v>0.916703386085332</v>
+        <v>0.8700430460621614</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8748851308022355</v>
+        <v>0.8241164605571984</v>
       </c>
       <c r="D12">
-        <v>0.9969585493327136</v>
+        <v>1.017480062204244</v>
       </c>
       <c r="E12">
-        <v>0.8962654744676269</v>
+        <v>0.8545505950650492</v>
       </c>
       <c r="F12">
-        <v>0.9407457483251829</v>
+        <v>0.8621442333673786</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025880875606685</v>
+        <v>1.036784267414602</v>
       </c>
       <c r="J12">
-        <v>0.9111222424844606</v>
+        <v>0.8638135969787024</v>
       </c>
       <c r="K12">
-        <v>1.012144251634977</v>
+        <v>1.032279863137999</v>
       </c>
       <c r="L12">
-        <v>0.913692047523453</v>
+        <v>0.8731185840272586</v>
       </c>
       <c r="M12">
-        <v>0.9571035844894646</v>
+        <v>0.8804931832523298</v>
       </c>
       <c r="N12">
-        <v>0.9124161405759704</v>
+        <v>0.8650403113672164</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8759996631034251</v>
+        <v>0.8254312944361762</v>
       </c>
       <c r="D13">
-        <v>0.9974016528786915</v>
+        <v>1.017669051400551</v>
       </c>
       <c r="E13">
-        <v>0.8972191702281951</v>
+        <v>0.8556517997467984</v>
       </c>
       <c r="F13">
-        <v>0.9415417537806028</v>
+        <v>0.8633001164170472</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026164474007356</v>
+        <v>1.036892861040905</v>
       </c>
       <c r="J13">
-        <v>0.9120510892074677</v>
+        <v>0.8649013825002819</v>
       </c>
       <c r="K13">
-        <v>1.012534601129871</v>
+        <v>1.032422467902608</v>
       </c>
       <c r="L13">
-        <v>0.914569514573763</v>
+        <v>0.8741319193357755</v>
       </c>
       <c r="M13">
-        <v>0.9578335414129159</v>
+        <v>0.8815611854004642</v>
       </c>
       <c r="N13">
-        <v>0.9133463063678644</v>
+        <v>0.8661296416690073</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8796024324324047</v>
+        <v>0.8296629721174915</v>
       </c>
       <c r="D14">
-        <v>0.9988377092532985</v>
+        <v>1.018282558254284</v>
       </c>
       <c r="E14">
-        <v>0.9003031452856963</v>
+        <v>0.8591982860913376</v>
       </c>
       <c r="F14">
-        <v>0.9441187608730512</v>
+        <v>0.8670249031671681</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027082043660578</v>
+        <v>1.037243464970816</v>
       </c>
       <c r="J14">
-        <v>0.9150541816292062</v>
+        <v>0.8684034229396004</v>
       </c>
       <c r="K14">
-        <v>1.013798575697686</v>
+        <v>1.032884264416269</v>
       </c>
       <c r="L14">
-        <v>0.9174064435506318</v>
+        <v>0.8773946554392839</v>
       </c>
       <c r="M14">
-        <v>0.960195972263769</v>
+        <v>0.88500224428685</v>
       </c>
       <c r="N14">
-        <v>0.9163536635253008</v>
+        <v>0.8696366554074395</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8817859896440307</v>
+        <v>0.8322144465596057</v>
       </c>
       <c r="D15">
-        <v>0.9997108042708103</v>
+        <v>1.018656343117279</v>
       </c>
       <c r="E15">
-        <v>0.9021730890737512</v>
+        <v>0.8613383386255162</v>
       </c>
       <c r="F15">
-        <v>0.9456834918142221</v>
+        <v>0.869274146369428</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027638752240582</v>
+        <v>1.037455653338577</v>
       </c>
       <c r="J15">
-        <v>0.9168746879658494</v>
+        <v>0.8705157486794545</v>
       </c>
       <c r="K15">
-        <v>1.014566218512262</v>
+        <v>1.033164777847101</v>
       </c>
       <c r="L15">
-        <v>0.9191261822808436</v>
+        <v>0.879362916024698</v>
       </c>
       <c r="M15">
-        <v>0.9616298548831972</v>
+        <v>0.8870797549866971</v>
       </c>
       <c r="N15">
-        <v>0.9181767551897576</v>
+        <v>0.8717519808921314</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.893991356285909</v>
+        <v>0.8463101740905929</v>
       </c>
       <c r="D16">
-        <v>1.004628303592408</v>
+        <v>1.020773586348515</v>
       </c>
       <c r="E16">
-        <v>0.9126363125334032</v>
+        <v>0.8731834926174282</v>
       </c>
       <c r="F16">
-        <v>0.9544687290492273</v>
+        <v>0.8817444078733278</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030757868141199</v>
+        <v>1.038637849164475</v>
       </c>
       <c r="J16">
-        <v>0.9270556973631093</v>
+        <v>0.8821950815797157</v>
       </c>
       <c r="K16">
-        <v>1.018878058746847</v>
+        <v>1.034742023494245</v>
       </c>
       <c r="L16">
-        <v>0.9287430056615722</v>
+        <v>0.8902492341900472</v>
       </c>
       <c r="M16">
-        <v>0.9696725184229341</v>
+        <v>0.8985922009545021</v>
       </c>
       <c r="N16">
-        <v>0.9283722227881397</v>
+        <v>0.883447899784749</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9012499023461105</v>
+        <v>0.8545742252538698</v>
       </c>
       <c r="D17">
-        <v>1.007581857990494</v>
+        <v>1.022055752544894</v>
       </c>
       <c r="E17">
-        <v>0.9188670656340316</v>
+        <v>0.8801448815302388</v>
       </c>
       <c r="F17">
-        <v>0.9597237385052726</v>
+        <v>0.8890886034725396</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032617765494231</v>
+        <v>1.039337977486731</v>
       </c>
       <c r="J17">
-        <v>0.9331137902599081</v>
+        <v>0.8890492164087894</v>
       </c>
       <c r="K17">
-        <v>1.02145824302324</v>
+        <v>1.035687808753964</v>
       </c>
       <c r="L17">
-        <v>0.9344647339164541</v>
+        <v>0.8966405794160281</v>
       </c>
       <c r="M17">
-        <v>0.9744768380947123</v>
+        <v>0.9053675553436937</v>
       </c>
       <c r="N17">
-        <v>0.934438918871725</v>
+        <v>0.8903117682714604</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9053562308156757</v>
+        <v>0.8592148291553036</v>
       </c>
       <c r="D18">
-        <v>1.009262073795522</v>
+        <v>1.022788874677366</v>
       </c>
       <c r="E18">
-        <v>0.9223945099999737</v>
+        <v>0.8840591630297191</v>
       </c>
       <c r="F18">
-        <v>0.9627063543710696</v>
+        <v>0.8932228135104959</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033671245461829</v>
+        <v>1.039733101475597</v>
       </c>
       <c r="J18">
-        <v>0.9365419199028703</v>
+        <v>0.8928999795533203</v>
       </c>
       <c r="K18">
-        <v>1.022922824298612</v>
+        <v>1.036225504407775</v>
       </c>
       <c r="L18">
-        <v>0.9377022612005057</v>
+        <v>0.9002321161751355</v>
       </c>
       <c r="M18">
-        <v>0.9772014492266697</v>
+        <v>0.9091799108636367</v>
       </c>
       <c r="N18">
-        <v>0.9378719168519921</v>
+        <v>0.8941679999413452</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9067360668798266</v>
+        <v>0.8607689434662235</v>
       </c>
       <c r="D19">
-        <v>1.009828156748163</v>
+        <v>1.023036494079161</v>
       </c>
       <c r="E19">
-        <v>0.9235802266821042</v>
+        <v>0.8853708450606546</v>
       </c>
       <c r="F19">
-        <v>0.9637101448162412</v>
+        <v>0.8946089190186791</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034025421021197</v>
+        <v>1.039865715481479</v>
       </c>
       <c r="J19">
-        <v>0.9376939944346242</v>
+        <v>0.8941898564341061</v>
       </c>
       <c r="K19">
-        <v>1.023415727524873</v>
+        <v>1.036406615022852</v>
       </c>
       <c r="L19">
-        <v>0.9387902343883111</v>
+        <v>0.9014352800146053</v>
       </c>
       <c r="M19">
-        <v>0.9781180461339795</v>
+        <v>0.9104578323806227</v>
       </c>
       <c r="N19">
-        <v>0.9390256274617258</v>
+        <v>0.8954597085952526</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.900484633313658</v>
+        <v>0.8537067176365565</v>
       </c>
       <c r="D20">
-        <v>1.007269465422451</v>
+        <v>1.021919749040939</v>
       </c>
       <c r="E20">
-        <v>0.9182098804161247</v>
+        <v>0.8794135587325026</v>
       </c>
       <c r="F20">
-        <v>0.9591686591043934</v>
+        <v>0.8883165567986412</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032421530908762</v>
+        <v>1.039264264006573</v>
       </c>
       <c r="J20">
-        <v>0.9324749818760657</v>
+        <v>0.888329504065592</v>
       </c>
       <c r="K20">
-        <v>1.021185683188751</v>
+        <v>1.035587813830416</v>
       </c>
       <c r="L20">
-        <v>0.9338614210438005</v>
+        <v>0.8959693772869007</v>
       </c>
       <c r="M20">
-        <v>0.9739695975536079</v>
+        <v>0.9046554804666935</v>
       </c>
       <c r="N20">
-        <v>0.9337992033067053</v>
+        <v>0.8895910338541835</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.8785491829402999</v>
+        <v>0.8284287351859315</v>
       </c>
       <c r="D21">
-        <v>0.9984173030005766</v>
+        <v>1.018102790491573</v>
       </c>
       <c r="E21">
-        <v>0.8994013875972904</v>
+        <v>0.8581635278462822</v>
       </c>
       <c r="F21">
-        <v>0.9433647757802139</v>
+        <v>0.8659377777618734</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026813669402467</v>
+        <v>1.037141033984802</v>
       </c>
       <c r="J21">
-        <v>0.9141761577898672</v>
+        <v>0.867381826376826</v>
       </c>
       <c r="K21">
-        <v>1.013428722228171</v>
+        <v>1.032749128876433</v>
       </c>
       <c r="L21">
-        <v>0.9165770090819322</v>
+        <v>0.8764428078784601</v>
       </c>
       <c r="M21">
-        <v>0.9595048868651802</v>
+        <v>0.8839980134227592</v>
       </c>
       <c r="N21">
-        <v>0.9154743927913997</v>
+        <v>0.8686136080603672</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8632160643729175</v>
+        <v>0.8101694685825417</v>
       </c>
       <c r="D22">
-        <v>0.9923524362735829</v>
+        <v>1.015523268415754</v>
       </c>
       <c r="E22">
-        <v>0.886290539340436</v>
+        <v>0.842891783066075</v>
       </c>
       <c r="F22">
-        <v>0.9324464845068524</v>
+        <v>0.8499273158340163</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022919540700785</v>
+        <v>1.035642998333749</v>
       </c>
       <c r="J22">
-        <v>0.9014026353136404</v>
+        <v>0.8522857371696552</v>
       </c>
       <c r="K22">
-        <v>1.008076930626683</v>
+        <v>1.030793353719057</v>
       </c>
       <c r="L22">
-        <v>0.9045097850165463</v>
+        <v>0.8623833533295249</v>
       </c>
       <c r="M22">
-        <v>0.9494864751518824</v>
+        <v>0.8692004427820831</v>
       </c>
       <c r="N22">
-        <v>0.9026827304481131</v>
+        <v>0.8534960806749765</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8715148041283657</v>
+        <v>0.8201230678936853</v>
       </c>
       <c r="D23">
-        <v>0.9956219392806788</v>
+        <v>1.016910828324577</v>
       </c>
       <c r="E23">
-        <v>0.8933825267589663</v>
+        <v>0.8512081978564049</v>
       </c>
       <c r="F23">
-        <v>0.9383421355893278</v>
+        <v>0.8586379058796676</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025024047663388</v>
+        <v>1.036455476799051</v>
       </c>
       <c r="J23">
-        <v>0.9083139450453713</v>
+        <v>0.8605108215508509</v>
       </c>
       <c r="K23">
-        <v>1.010965792808814</v>
+        <v>1.03184932937497</v>
       </c>
       <c r="L23">
-        <v>0.9110390569831782</v>
+        <v>0.8700422107876737</v>
       </c>
       <c r="M23">
-        <v>0.9548987503106287</v>
+        <v>0.8772529653408737</v>
       </c>
       <c r="N23">
-        <v>0.9096038550324014</v>
+        <v>0.8617328456194238</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9008308155861626</v>
+        <v>0.8540992555180463</v>
       </c>
       <c r="D24">
-        <v>1.007410752534909</v>
+        <v>1.0219812483077</v>
       </c>
       <c r="E24">
-        <v>0.9185071612412224</v>
+        <v>0.8797444584019416</v>
       </c>
       <c r="F24">
-        <v>0.9594197283924696</v>
+        <v>0.8886658682057423</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032510296983139</v>
+        <v>1.039297612502424</v>
       </c>
       <c r="J24">
-        <v>0.9327639547319554</v>
+        <v>0.8886551603847012</v>
       </c>
       <c r="K24">
-        <v>1.021308965021956</v>
+        <v>1.035633039978113</v>
       </c>
       <c r="L24">
-        <v>0.934134337892533</v>
+        <v>0.8962730812462424</v>
       </c>
       <c r="M24">
-        <v>0.9741990355898377</v>
+        <v>0.9049776628522702</v>
       </c>
       <c r="N24">
-        <v>0.934088586537196</v>
+        <v>0.8899171526426193</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9299003412294032</v>
+        <v>0.8865142127899183</v>
       </c>
       <c r="D25">
-        <v>1.019438327433888</v>
+        <v>1.027289861905614</v>
       </c>
       <c r="E25">
-        <v>0.943513383662046</v>
+        <v>0.9071555311084109</v>
       </c>
       <c r="F25">
-        <v>0.9806734772464116</v>
+        <v>0.9176781405591699</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039978885348046</v>
+        <v>1.042078631943391</v>
       </c>
       <c r="J25">
-        <v>0.957041260453697</v>
+        <v>0.9155735124162152</v>
       </c>
       <c r="K25">
-        <v>1.031742200537611</v>
+        <v>1.039478809707115</v>
       </c>
       <c r="L25">
-        <v>0.9570568089510367</v>
+        <v>0.9213891909406795</v>
       </c>
       <c r="M25">
-        <v>0.9935794094818716</v>
+        <v>0.9317046624145499</v>
       </c>
       <c r="N25">
-        <v>0.9584003688177078</v>
+        <v>0.9168737318215961</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9087867136427965</v>
+        <v>1.035643746900414</v>
       </c>
       <c r="D2">
-        <v>1.031194003074464</v>
+        <v>1.052684555144483</v>
       </c>
       <c r="E2">
-        <v>0.926078009849817</v>
+        <v>1.047085584623228</v>
       </c>
       <c r="F2">
-        <v>0.9377790769792814</v>
+        <v>1.05833259652029</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044003639699205</v>
+        <v>1.060539807970735</v>
       </c>
       <c r="J2">
-        <v>0.9340856113936854</v>
+        <v>1.056808225684783</v>
       </c>
       <c r="K2">
-        <v>1.042235210726336</v>
+        <v>1.063455645208558</v>
       </c>
       <c r="L2">
-        <v>0.9386732159177077</v>
+        <v>1.057925718487508</v>
       </c>
       <c r="M2">
-        <v>0.9501791507479597</v>
+        <v>1.069034956936132</v>
       </c>
       <c r="N2">
-        <v>0.9354121201029816</v>
+        <v>1.058309014582854</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9234669325924291</v>
+        <v>1.041760948202161</v>
       </c>
       <c r="D3">
-        <v>1.033876583858677</v>
+        <v>1.056406593194003</v>
       </c>
       <c r="E3">
-        <v>0.9385837671974788</v>
+        <v>1.052065521952601</v>
       </c>
       <c r="F3">
-        <v>0.9510877704194822</v>
+        <v>1.063076702050267</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045267179801361</v>
+        <v>1.062462771849806</v>
       </c>
       <c r="J3">
-        <v>0.946286158958291</v>
+        <v>1.061174471613608</v>
       </c>
       <c r="K3">
-        <v>1.044093606750037</v>
+        <v>1.066365238657276</v>
       </c>
       <c r="L3">
-        <v>0.9500678578994028</v>
+        <v>1.062072890775678</v>
       </c>
       <c r="M3">
-        <v>0.9623872628481451</v>
+        <v>1.072961436386676</v>
       </c>
       <c r="N3">
-        <v>0.947629993844551</v>
+        <v>1.062681461081713</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9324060193252749</v>
+        <v>1.045624790629238</v>
       </c>
       <c r="D4">
-        <v>1.035550959804256</v>
+        <v>1.05876292946146</v>
       </c>
       <c r="E4">
-        <v>0.9462104144737826</v>
+        <v>1.055216884959224</v>
       </c>
       <c r="F4">
-        <v>0.9592110259334298</v>
+        <v>1.066079998682399</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046030791553046</v>
+        <v>1.063668854626117</v>
       </c>
       <c r="J4">
-        <v>0.9537124504368233</v>
+        <v>1.063929276527314</v>
       </c>
       <c r="K4">
-        <v>1.045238444948602</v>
+        <v>1.068200324457902</v>
       </c>
       <c r="L4">
-        <v>0.9570045212418835</v>
+        <v>1.064691614530388</v>
       </c>
       <c r="M4">
-        <v>0.9698280111814237</v>
+        <v>1.075441313646925</v>
       </c>
       <c r="N4">
-        <v>0.9550668315087906</v>
+        <v>1.065440178134376</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9360451911191762</v>
+        <v>1.047227564049434</v>
       </c>
       <c r="D5">
-        <v>1.036241231475548</v>
+        <v>1.059741546081622</v>
       </c>
       <c r="E5">
-        <v>0.949317616992305</v>
+        <v>1.056525444851357</v>
       </c>
       <c r="F5">
-        <v>0.9625217116895156</v>
+        <v>1.067327332235411</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046339849778546</v>
+        <v>1.064167053739947</v>
       </c>
       <c r="J5">
-        <v>0.956734783423551</v>
+        <v>1.065071218980131</v>
       </c>
       <c r="K5">
-        <v>1.045706938256148</v>
+        <v>1.068960812674834</v>
       </c>
       <c r="L5">
-        <v>0.9598277255372649</v>
+        <v>1.065777647866846</v>
       </c>
       <c r="M5">
-        <v>0.9728579768655664</v>
+        <v>1.076469868414111</v>
       </c>
       <c r="N5">
-        <v>0.9580934565550259</v>
+        <v>1.066583742276459</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9366496462231412</v>
+        <v>1.047495439196079</v>
       </c>
       <c r="D6">
-        <v>1.036356359206221</v>
+        <v>1.059905170576922</v>
       </c>
       <c r="E6">
-        <v>0.9498338393661726</v>
+        <v>1.056744223719057</v>
       </c>
       <c r="F6">
-        <v>0.9630717951607742</v>
+        <v>1.067535889001586</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04639106511734</v>
+        <v>1.064250193890444</v>
       </c>
       <c r="J6">
-        <v>0.9572367193172224</v>
+        <v>1.065262026686843</v>
       </c>
       <c r="K6">
-        <v>1.045784875962227</v>
+        <v>1.069087869675302</v>
       </c>
       <c r="L6">
-        <v>0.960296597111795</v>
+        <v>1.065959142744125</v>
       </c>
       <c r="M6">
-        <v>0.9733612672443513</v>
+        <v>1.076641763201895</v>
       </c>
       <c r="N6">
-        <v>0.958596105255239</v>
+        <v>1.066774820952001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9324550950019902</v>
+        <v>1.045646290491701</v>
       </c>
       <c r="D7">
-        <v>1.035560235549716</v>
+        <v>1.058776052272801</v>
       </c>
       <c r="E7">
-        <v>0.9462523075861002</v>
+        <v>1.055234433019823</v>
       </c>
       <c r="F7">
-        <v>0.959255658530568</v>
+        <v>1.066096724704472</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046034967075379</v>
+        <v>1.063675545920938</v>
       </c>
       <c r="J7">
-        <v>0.9537532119850416</v>
+        <v>1.063944597906025</v>
       </c>
       <c r="K7">
-        <v>1.045244754060044</v>
+        <v>1.068210528755756</v>
       </c>
       <c r="L7">
-        <v>0.9570425967280215</v>
+        <v>1.06470618381803</v>
       </c>
       <c r="M7">
-        <v>0.9698688694535139</v>
+        <v>1.075455111465746</v>
       </c>
       <c r="N7">
-        <v>0.9551076509430828</v>
+        <v>1.065455521271203</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9138740977171694</v>
+        <v>1.037731259654713</v>
       </c>
       <c r="D8">
-        <v>1.032114023612844</v>
+        <v>1.053953514611073</v>
       </c>
       <c r="E8">
-        <v>0.9304090167951728</v>
+        <v>1.048783725647919</v>
       </c>
       <c r="F8">
-        <v>0.9423863167576648</v>
+        <v>1.059950058393992</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044442474590575</v>
+        <v>1.061197784495299</v>
       </c>
       <c r="J8">
-        <v>0.9383140982044672</v>
+        <v>1.058298833862353</v>
       </c>
       <c r="K8">
-        <v>1.042875874968427</v>
+        <v>1.064449074721094</v>
       </c>
       <c r="L8">
-        <v>0.942622137368422</v>
+        <v>1.059341078000554</v>
       </c>
       <c r="M8">
-        <v>0.9544077133605657</v>
+        <v>1.070374878894736</v>
       </c>
       <c r="N8">
-        <v>0.9396466118500489</v>
+        <v>1.059801739595011</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8759423074807411</v>
+        <v>1.023011891289893</v>
       </c>
       <c r="D9">
-        <v>1.025509000559811</v>
+        <v>1.04503368184714</v>
       </c>
       <c r="E9">
-        <v>0.8981977278349247</v>
+        <v>1.036838153690088</v>
       </c>
       <c r="F9">
-        <v>0.908181633772714</v>
+        <v>1.048578104232831</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041166906580533</v>
+        <v>1.056524157894518</v>
       </c>
       <c r="J9">
-        <v>0.9067895920186759</v>
+        <v>1.047777414467979</v>
       </c>
       <c r="K9">
-        <v>1.038201338375422</v>
+        <v>1.057436055871008</v>
       </c>
       <c r="L9">
-        <v>0.9131909094521538</v>
+        <v>1.049360550775817</v>
       </c>
       <c r="M9">
-        <v>0.922963561138332</v>
+        <v>1.060929306504961</v>
       </c>
       <c r="N9">
-        <v>0.9080773372495624</v>
+        <v>1.049265378578272</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.845350044687717</v>
+        <v>1.012604997953827</v>
       </c>
       <c r="D10">
-        <v>1.020626573602509</v>
+        <v>1.038768457754509</v>
       </c>
       <c r="E10">
-        <v>0.8723754941702841</v>
+        <v>1.028432388477799</v>
       </c>
       <c r="F10">
-        <v>0.8808926934474713</v>
+        <v>1.040585042342833</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0385568229833</v>
+        <v>1.053179008991276</v>
       </c>
       <c r="J10">
-        <v>0.8813990606330906</v>
+        <v>1.040327279850178</v>
       </c>
       <c r="K10">
-        <v>1.034633134923764</v>
+        <v>1.05247132254173</v>
       </c>
       <c r="L10">
-        <v>0.8895070801428767</v>
+        <v>1.042306586686943</v>
       </c>
       <c r="M10">
-        <v>0.897806221621155</v>
+        <v>1.054258246792776</v>
       </c>
       <c r="N10">
-        <v>0.8826507483970748</v>
+        <v>1.041804663914773</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8301532087069596</v>
+        <v>1.00793904225145</v>
       </c>
       <c r="D11">
-        <v>1.018354150827724</v>
+        <v>1.035971263613352</v>
       </c>
       <c r="E11">
-        <v>0.859609373588032</v>
+        <v>1.024674522454898</v>
       </c>
       <c r="F11">
-        <v>0.8674568729562032</v>
+        <v>1.037014293516993</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037284188981946</v>
+        <v>1.051670457726183</v>
       </c>
       <c r="J11">
-        <v>0.8688092372913953</v>
+        <v>1.036985237152039</v>
       </c>
       <c r="K11">
-        <v>1.032938041263959</v>
+        <v>1.050245267540625</v>
       </c>
       <c r="L11">
-        <v>0.8777727764650136</v>
+        <v>1.03914564718503</v>
       </c>
       <c r="M11">
-        <v>0.8854012562736693</v>
+        <v>1.05127037716951</v>
       </c>
       <c r="N11">
-        <v>0.8700430460621614</v>
+        <v>1.038457875132664</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8241164605571984</v>
+        <v>1.006180124261045</v>
       </c>
       <c r="D12">
-        <v>1.017480062204244</v>
+        <v>1.034918775096958</v>
       </c>
       <c r="E12">
-        <v>0.8545505950650492</v>
+        <v>1.023259688565985</v>
       </c>
       <c r="F12">
-        <v>0.8621442333673786</v>
+        <v>1.035670344966145</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036784267414602</v>
+        <v>1.051100553864923</v>
       </c>
       <c r="J12">
-        <v>0.8638135969787024</v>
+        <v>1.035725213728311</v>
       </c>
       <c r="K12">
-        <v>1.032279863137999</v>
+        <v>1.049406229192645</v>
       </c>
       <c r="L12">
-        <v>0.8731185840272586</v>
+        <v>1.037954436601209</v>
       </c>
       <c r="M12">
-        <v>0.8804931832523298</v>
+        <v>1.050144643863188</v>
       </c>
       <c r="N12">
-        <v>0.8650403113672164</v>
+        <v>1.037196062331147</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8254312944361762</v>
+        <v>1.006558614973671</v>
       </c>
       <c r="D13">
-        <v>1.017669051400551</v>
+        <v>1.035145161701075</v>
       </c>
       <c r="E13">
-        <v>0.8556517997467984</v>
+        <v>1.023564056158137</v>
       </c>
       <c r="F13">
-        <v>0.8633001164170472</v>
+        <v>1.035959442864558</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036892861040905</v>
+        <v>1.051223241951148</v>
       </c>
       <c r="J13">
-        <v>0.8649013825002819</v>
+        <v>1.035996357036604</v>
       </c>
       <c r="K13">
-        <v>1.032422467902608</v>
+        <v>1.049586769341419</v>
       </c>
       <c r="L13">
-        <v>0.8741319193357755</v>
+        <v>1.038210747656841</v>
       </c>
       <c r="M13">
-        <v>0.8815611854004642</v>
+        <v>1.050386854199974</v>
       </c>
       <c r="N13">
-        <v>0.8661296416690073</v>
+        <v>1.037467590694039</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8296629721174915</v>
+        <v>1.00779418624102</v>
       </c>
       <c r="D14">
-        <v>1.018282558254284</v>
+        <v>1.03588454469719</v>
       </c>
       <c r="E14">
-        <v>0.8591982860913376</v>
+        <v>1.0245579669808</v>
       </c>
       <c r="F14">
-        <v>0.8670249031671681</v>
+        <v>1.036903568537123</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037243464970816</v>
+        <v>1.051623547599136</v>
       </c>
       <c r="J14">
-        <v>0.8684034229396004</v>
+        <v>1.036881470812308</v>
       </c>
       <c r="K14">
-        <v>1.032884264416269</v>
+        <v>1.050176165287324</v>
       </c>
       <c r="L14">
-        <v>0.8773946554392839</v>
+        <v>1.039047536800588</v>
       </c>
       <c r="M14">
-        <v>0.88500224428685</v>
+        <v>1.051177654242238</v>
       </c>
       <c r="N14">
-        <v>0.8696366554074395</v>
+        <v>1.038353961432828</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8322144465596057</v>
+        <v>1.008551990937727</v>
       </c>
       <c r="D15">
-        <v>1.018656343117279</v>
+        <v>1.036338290164024</v>
       </c>
       <c r="E15">
-        <v>0.8613383386255162</v>
+        <v>1.025167791840638</v>
       </c>
       <c r="F15">
-        <v>0.869274146369428</v>
+        <v>1.037482905936454</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037455653338577</v>
+        <v>1.051868905397147</v>
       </c>
       <c r="J15">
-        <v>0.8705157486794545</v>
+        <v>1.037424310840309</v>
       </c>
       <c r="K15">
-        <v>1.033164777847101</v>
+        <v>1.050537674624659</v>
       </c>
       <c r="L15">
-        <v>0.879362916024698</v>
+        <v>1.039560810283614</v>
       </c>
       <c r="M15">
-        <v>0.8870797549866971</v>
+        <v>1.051662753339327</v>
       </c>
       <c r="N15">
-        <v>0.8717519808921314</v>
+        <v>1.038897572355933</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8463101740905929</v>
+        <v>1.012911149182218</v>
       </c>
       <c r="D16">
-        <v>1.020773586348515</v>
+        <v>1.038952253712927</v>
       </c>
       <c r="E16">
-        <v>0.8731834926174282</v>
+        <v>1.028679193072244</v>
       </c>
       <c r="F16">
-        <v>0.8817444078733278</v>
+        <v>1.040819615616061</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038637849164475</v>
+        <v>1.053277816255946</v>
       </c>
       <c r="J16">
-        <v>0.8821950815797157</v>
+        <v>1.040546534597249</v>
       </c>
       <c r="K16">
-        <v>1.034742023494245</v>
+        <v>1.052617391086441</v>
       </c>
       <c r="L16">
-        <v>0.8902492341900472</v>
+        <v>1.042514032485428</v>
       </c>
       <c r="M16">
-        <v>0.8985922009545021</v>
+        <v>1.054454367917386</v>
       </c>
       <c r="N16">
-        <v>0.883447899784749</v>
+        <v>1.042024230028733</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8545742252538698</v>
+        <v>1.015601572573667</v>
       </c>
       <c r="D17">
-        <v>1.022055752544894</v>
+        <v>1.040568795827978</v>
       </c>
       <c r="E17">
-        <v>0.8801448815302388</v>
+        <v>1.030849333039493</v>
       </c>
       <c r="F17">
-        <v>0.8890886034725396</v>
+        <v>1.042882508070947</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039337977486731</v>
+        <v>1.054145141659458</v>
       </c>
       <c r="J17">
-        <v>0.8890492164087894</v>
+        <v>1.042473131642489</v>
       </c>
       <c r="K17">
-        <v>1.035687808753964</v>
+        <v>1.053901028312724</v>
       </c>
       <c r="L17">
-        <v>0.8966405794160281</v>
+        <v>1.044337250611661</v>
       </c>
       <c r="M17">
-        <v>0.9053675553436937</v>
+        <v>1.056178227079571</v>
       </c>
       <c r="N17">
-        <v>0.8903117682714604</v>
+        <v>1.043953563062761</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8592148291553036</v>
+        <v>1.017155571072614</v>
       </c>
       <c r="D18">
-        <v>1.022788874677366</v>
+        <v>1.041503621820807</v>
       </c>
       <c r="E18">
-        <v>0.8840591630297191</v>
+        <v>1.032103832970569</v>
       </c>
       <c r="F18">
-        <v>0.8932228135104959</v>
+        <v>1.044075255598332</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039733101475597</v>
+        <v>1.054645279691977</v>
       </c>
       <c r="J18">
-        <v>0.8928999795533203</v>
+        <v>1.04358576932228</v>
       </c>
       <c r="K18">
-        <v>1.036225504407775</v>
+        <v>1.054642443059097</v>
       </c>
       <c r="L18">
-        <v>0.9002321161751355</v>
+        <v>1.045390503615664</v>
       </c>
       <c r="M18">
-        <v>0.9091799108636367</v>
+        <v>1.057174219885754</v>
       </c>
       <c r="N18">
-        <v>0.8941679999413452</v>
+        <v>1.045067780815679</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8607689434662235</v>
+        <v>1.017682903985567</v>
       </c>
       <c r="D19">
-        <v>1.023036494079161</v>
+        <v>1.041821027247878</v>
       </c>
       <c r="E19">
-        <v>0.8853708450606546</v>
+        <v>1.032529703426283</v>
       </c>
       <c r="F19">
-        <v>0.8946089190186791</v>
+        <v>1.044480202952906</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039865715481479</v>
+        <v>1.054814852580312</v>
       </c>
       <c r="J19">
-        <v>0.8941898564341061</v>
+        <v>1.04396329953917</v>
       </c>
       <c r="K19">
-        <v>1.036406615022852</v>
+        <v>1.054894027385716</v>
       </c>
       <c r="L19">
-        <v>0.9014352800146053</v>
+        <v>1.045747937235355</v>
       </c>
       <c r="M19">
-        <v>0.9104578323806227</v>
+        <v>1.057512244157801</v>
       </c>
       <c r="N19">
-        <v>0.8954597085952526</v>
+        <v>1.04544584716878</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8537067176365565</v>
+        <v>1.015314508407648</v>
       </c>
       <c r="D20">
-        <v>1.021919749040939</v>
+        <v>1.040396197149976</v>
       </c>
       <c r="E20">
-        <v>0.8794135587325026</v>
+        <v>1.03061767565543</v>
       </c>
       <c r="F20">
-        <v>0.8883165567986412</v>
+        <v>1.042662273434881</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039264264006573</v>
+        <v>1.054052685155224</v>
       </c>
       <c r="J20">
-        <v>0.888329504065592</v>
+        <v>1.042267583873126</v>
       </c>
       <c r="K20">
-        <v>1.035587813830416</v>
+        <v>1.053764067200414</v>
       </c>
       <c r="L20">
-        <v>0.8959693772869007</v>
+        <v>1.044142699092939</v>
       </c>
       <c r="M20">
-        <v>0.9046554804666935</v>
+        <v>1.055994263347988</v>
       </c>
       <c r="N20">
-        <v>0.8895910338541835</v>
+        <v>1.043747723391989</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8284287351859315</v>
+        <v>1.007431067965754</v>
       </c>
       <c r="D21">
-        <v>1.018102790491573</v>
+        <v>1.035667194068291</v>
       </c>
       <c r="E21">
-        <v>0.8581635278462822</v>
+        <v>1.024265819998944</v>
       </c>
       <c r="F21">
-        <v>0.8659377777618734</v>
+        <v>1.036626042893297</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037141033984802</v>
+        <v>1.051505936029559</v>
       </c>
       <c r="J21">
-        <v>0.867381826376826</v>
+        <v>1.036621351625313</v>
       </c>
       <c r="K21">
-        <v>1.032749128876433</v>
+        <v>1.050002945284269</v>
       </c>
       <c r="L21">
-        <v>0.8764428078784601</v>
+        <v>1.038801604503007</v>
       </c>
       <c r="M21">
-        <v>0.8839980134227592</v>
+        <v>1.050945230851125</v>
       </c>
       <c r="N21">
-        <v>0.8686136080603672</v>
+        <v>1.038093472846751</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8101694685825417</v>
+        <v>1.002324301388012</v>
       </c>
       <c r="D22">
-        <v>1.015523268415754</v>
+        <v>1.032615394152864</v>
       </c>
       <c r="E22">
-        <v>0.842891783066075</v>
+        <v>1.02016154916239</v>
       </c>
       <c r="F22">
-        <v>0.8499273158340163</v>
+        <v>1.032728279708349</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035642998333749</v>
+        <v>1.049849075907777</v>
       </c>
       <c r="J22">
-        <v>0.8522857371696552</v>
+        <v>1.03296281628705</v>
       </c>
       <c r="K22">
-        <v>1.030793353719057</v>
+        <v>1.047567288173634</v>
       </c>
       <c r="L22">
-        <v>0.8623833533295249</v>
+        <v>1.035343910269964</v>
       </c>
       <c r="M22">
-        <v>0.8692004427820831</v>
+        <v>1.047678117783255</v>
       </c>
       <c r="N22">
-        <v>0.8534960806749765</v>
+        <v>1.034429741968668</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8201230678936853</v>
+        <v>1.00504636714198</v>
       </c>
       <c r="D23">
-        <v>1.016910828324577</v>
+        <v>1.034240944307685</v>
       </c>
       <c r="E23">
-        <v>0.8512081978564049</v>
+        <v>1.022348233775207</v>
       </c>
       <c r="F23">
-        <v>0.8586379058796676</v>
+        <v>1.034804683951161</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036455476799051</v>
+        <v>1.050732872591876</v>
       </c>
       <c r="J23">
-        <v>0.8605108215508509</v>
+        <v>1.03491299311672</v>
       </c>
       <c r="K23">
-        <v>1.03184932937497</v>
+        <v>1.048865454052776</v>
       </c>
       <c r="L23">
-        <v>0.8700422107876737</v>
+        <v>1.037186726688947</v>
       </c>
       <c r="M23">
-        <v>0.8772529653408737</v>
+        <v>1.049419208817152</v>
       </c>
       <c r="N23">
-        <v>0.8617328456194238</v>
+        <v>1.036382688273125</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8540992555180463</v>
+        <v>1.01544426743575</v>
       </c>
       <c r="D24">
-        <v>1.0219812483077</v>
+        <v>1.040474211959286</v>
       </c>
       <c r="E24">
-        <v>0.8797444584019416</v>
+        <v>1.030722386502591</v>
       </c>
       <c r="F24">
-        <v>0.8886658682057423</v>
+        <v>1.042761820360378</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039297612502424</v>
+        <v>1.054094480024842</v>
       </c>
       <c r="J24">
-        <v>0.8886551603847012</v>
+        <v>1.04236049631878</v>
       </c>
       <c r="K24">
-        <v>1.035633039978113</v>
+        <v>1.05382597656602</v>
       </c>
       <c r="L24">
-        <v>0.8962730812462424</v>
+        <v>1.044230639988158</v>
       </c>
       <c r="M24">
-        <v>0.9049776628522702</v>
+        <v>1.056077417940035</v>
       </c>
       <c r="N24">
-        <v>0.8899171526426193</v>
+        <v>1.043840767783973</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8865142127899183</v>
+        <v>1.026916010444719</v>
       </c>
       <c r="D25">
-        <v>1.027289861905614</v>
+        <v>1.047393101478879</v>
       </c>
       <c r="E25">
-        <v>0.9071555311084109</v>
+        <v>1.040000128177701</v>
       </c>
       <c r="F25">
-        <v>0.9176781405591699</v>
+        <v>1.051586828069006</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042078631943391</v>
+        <v>1.057771058991522</v>
       </c>
       <c r="J25">
-        <v>0.9155735124162152</v>
+        <v>1.050570298198097</v>
       </c>
       <c r="K25">
-        <v>1.039478809707115</v>
+        <v>1.059297696315032</v>
       </c>
       <c r="L25">
-        <v>0.9213891909406795</v>
+        <v>1.052007679491248</v>
       </c>
       <c r="M25">
-        <v>0.9317046624145499</v>
+        <v>1.063433830352431</v>
       </c>
       <c r="N25">
-        <v>0.9168737318215961</v>
+        <v>1.052062228523635</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.035643746900414</v>
+        <v>1.070051846520101</v>
       </c>
       <c r="D2">
-        <v>1.052684555144483</v>
+        <v>1.06626654332389</v>
       </c>
       <c r="E2">
-        <v>1.047085584623228</v>
+        <v>1.07338479428994</v>
       </c>
       <c r="F2">
-        <v>1.05833259652029</v>
+        <v>1.081096729699277</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060539807970735</v>
+        <v>1.05443466022714</v>
       </c>
       <c r="J2">
-        <v>1.056808225684783</v>
+        <v>1.074983459293816</v>
       </c>
       <c r="K2">
-        <v>1.063455645208558</v>
+        <v>1.068977553544383</v>
       </c>
       <c r="L2">
-        <v>1.057925718487508</v>
+        <v>1.076076796518562</v>
       </c>
       <c r="M2">
-        <v>1.069034956936132</v>
+        <v>1.083768443738624</v>
       </c>
       <c r="N2">
-        <v>1.058309014582854</v>
+        <v>1.07651005910834</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.041760948202161</v>
+        <v>1.071326623303014</v>
       </c>
       <c r="D3">
-        <v>1.056406593194003</v>
+        <v>1.067048921584357</v>
       </c>
       <c r="E3">
-        <v>1.052065521952601</v>
+        <v>1.074463954362187</v>
       </c>
       <c r="F3">
-        <v>1.063076702050267</v>
+        <v>1.082122539378438</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062462771849806</v>
+        <v>1.054773441197071</v>
       </c>
       <c r="J3">
-        <v>1.061174471613608</v>
+        <v>1.075914092385136</v>
       </c>
       <c r="K3">
-        <v>1.066365238657276</v>
+        <v>1.069575573768923</v>
       </c>
       <c r="L3">
-        <v>1.062072890775678</v>
+        <v>1.076972236134882</v>
       </c>
       <c r="M3">
-        <v>1.072961436386676</v>
+        <v>1.084612131521825</v>
       </c>
       <c r="N3">
-        <v>1.062681461081713</v>
+        <v>1.077442013805395</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.045624790629238</v>
+        <v>1.072151451856025</v>
       </c>
       <c r="D4">
-        <v>1.05876292946146</v>
+        <v>1.06755516541778</v>
       </c>
       <c r="E4">
-        <v>1.055216884959224</v>
+        <v>1.075162458477653</v>
       </c>
       <c r="F4">
-        <v>1.066079998682399</v>
+        <v>1.082786536972249</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063668854626117</v>
+        <v>1.054991471227954</v>
       </c>
       <c r="J4">
-        <v>1.063929276527314</v>
+        <v>1.076515695605537</v>
       </c>
       <c r="K4">
-        <v>1.068200324457902</v>
+        <v>1.069961864986837</v>
       </c>
       <c r="L4">
-        <v>1.064691614530388</v>
+        <v>1.077551259262455</v>
       </c>
       <c r="M4">
-        <v>1.075441313646925</v>
+        <v>1.085157669968502</v>
       </c>
       <c r="N4">
-        <v>1.065440178134376</v>
+        <v>1.078044471371373</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.047227564049434</v>
+        <v>1.072498202769721</v>
       </c>
       <c r="D5">
-        <v>1.059741546081622</v>
+        <v>1.067767988441152</v>
       </c>
       <c r="E5">
-        <v>1.056525444851357</v>
+        <v>1.075456161942716</v>
       </c>
       <c r="F5">
-        <v>1.067327332235411</v>
+        <v>1.083065737066358</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064167053739947</v>
+        <v>1.055082847863422</v>
       </c>
       <c r="J5">
-        <v>1.065071218980131</v>
+        <v>1.07676847209967</v>
       </c>
       <c r="K5">
-        <v>1.068960812674834</v>
+        <v>1.070124102059616</v>
       </c>
       <c r="L5">
-        <v>1.065777647866846</v>
+        <v>1.077794588897882</v>
       </c>
       <c r="M5">
-        <v>1.076469868414111</v>
+        <v>1.085386922884018</v>
       </c>
       <c r="N5">
-        <v>1.066583742276459</v>
+        <v>1.078297606837122</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.047495439196079</v>
+        <v>1.072556423418484</v>
       </c>
       <c r="D6">
-        <v>1.059905170576922</v>
+        <v>1.067803722248159</v>
       </c>
       <c r="E6">
-        <v>1.056744223719057</v>
+        <v>1.075505479138219</v>
       </c>
       <c r="F6">
-        <v>1.067535889001586</v>
+        <v>1.083112619257498</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064250193890444</v>
+        <v>1.05509817380325</v>
       </c>
       <c r="J6">
-        <v>1.065262026686843</v>
+        <v>1.076810906352015</v>
       </c>
       <c r="K6">
-        <v>1.069087869675302</v>
+        <v>1.070151333013677</v>
       </c>
       <c r="L6">
-        <v>1.065959142744125</v>
+        <v>1.077835439660028</v>
       </c>
       <c r="M6">
-        <v>1.076641763201895</v>
+        <v>1.085425410108563</v>
       </c>
       <c r="N6">
-        <v>1.066774820952001</v>
+        <v>1.078340101350973</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.045646290491701</v>
+        <v>1.072156085183849</v>
       </c>
       <c r="D7">
-        <v>1.058776052272801</v>
+        <v>1.067558009177039</v>
       </c>
       <c r="E7">
-        <v>1.055234433019823</v>
+        <v>1.075166382751121</v>
       </c>
       <c r="F7">
-        <v>1.066096724704472</v>
+        <v>1.082790267438958</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063675545920938</v>
+        <v>1.054992693319467</v>
       </c>
       <c r="J7">
-        <v>1.063944597906025</v>
+        <v>1.076519073756423</v>
       </c>
       <c r="K7">
-        <v>1.068210528755756</v>
+        <v>1.069964033434111</v>
       </c>
       <c r="L7">
-        <v>1.06470618381803</v>
+        <v>1.077554511004265</v>
       </c>
       <c r="M7">
-        <v>1.075455111465746</v>
+        <v>1.085160733615913</v>
       </c>
       <c r="N7">
-        <v>1.065455521271203</v>
+        <v>1.078047854319621</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.037731259654713</v>
+        <v>1.070482672168963</v>
       </c>
       <c r="D8">
-        <v>1.053953514611073</v>
+        <v>1.06653095312175</v>
       </c>
       <c r="E8">
-        <v>1.048783725647919</v>
+        <v>1.073749457355912</v>
       </c>
       <c r="F8">
-        <v>1.059950058393992</v>
+        <v>1.081443359479404</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061197784495299</v>
+        <v>1.054549398123599</v>
       </c>
       <c r="J8">
-        <v>1.058298833862353</v>
+        <v>1.075298091526921</v>
       </c>
       <c r="K8">
-        <v>1.064449074721094</v>
+        <v>1.069179795642582</v>
       </c>
       <c r="L8">
-        <v>1.059341078000554</v>
+        <v>1.07637949495129</v>
       </c>
       <c r="M8">
-        <v>1.070374878894736</v>
+        <v>1.084053651763696</v>
       </c>
       <c r="N8">
-        <v>1.059801739595011</v>
+        <v>1.076825138155304</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.023011891289893</v>
+        <v>1.067533533492868</v>
       </c>
       <c r="D9">
-        <v>1.04503368184714</v>
+        <v>1.064721100156159</v>
       </c>
       <c r="E9">
-        <v>1.036838153690088</v>
+        <v>1.071254268430547</v>
       </c>
       <c r="F9">
-        <v>1.048578104232831</v>
+        <v>1.079071679210713</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056524157894518</v>
+        <v>1.053759177009951</v>
       </c>
       <c r="J9">
-        <v>1.047777414467979</v>
+        <v>1.073142087205492</v>
       </c>
       <c r="K9">
-        <v>1.057436055871008</v>
+        <v>1.06779274716049</v>
       </c>
       <c r="L9">
-        <v>1.049360550775817</v>
+        <v>1.074305974233897</v>
       </c>
       <c r="M9">
-        <v>1.060929306504961</v>
+        <v>1.082099869674999</v>
       </c>
       <c r="N9">
-        <v>1.049265378578272</v>
+        <v>1.074666072060442</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.012604997953827</v>
+        <v>1.065567069489681</v>
       </c>
       <c r="D10">
-        <v>1.038768457754509</v>
+        <v>1.063514504458682</v>
       </c>
       <c r="E10">
-        <v>1.028432388477799</v>
+        <v>1.069591843161495</v>
       </c>
       <c r="F10">
-        <v>1.040585042342833</v>
+        <v>1.07749170194228</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053179008991276</v>
+        <v>1.053226242468146</v>
       </c>
       <c r="J10">
-        <v>1.040327279850178</v>
+        <v>1.071701673770698</v>
       </c>
       <c r="K10">
-        <v>1.05247132254173</v>
+        <v>1.066864593873293</v>
       </c>
       <c r="L10">
-        <v>1.042306586686943</v>
+        <v>1.072921564465842</v>
       </c>
       <c r="M10">
-        <v>1.054258246792776</v>
+        <v>1.080795323657236</v>
       </c>
       <c r="N10">
-        <v>1.041804663914773</v>
+        <v>1.073223613073353</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.00793904225145</v>
+        <v>1.06471545289279</v>
       </c>
       <c r="D11">
-        <v>1.035971263613352</v>
+        <v>1.062992029172416</v>
       </c>
       <c r="E11">
-        <v>1.024674522454898</v>
+        <v>1.068872227587508</v>
       </c>
       <c r="F11">
-        <v>1.037014293516993</v>
+        <v>1.076807817955567</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051670457726183</v>
+        <v>1.052994020087337</v>
       </c>
       <c r="J11">
-        <v>1.036985237152039</v>
+        <v>1.071077213410752</v>
       </c>
       <c r="K11">
-        <v>1.050245267540625</v>
+        <v>1.066461870787877</v>
       </c>
       <c r="L11">
-        <v>1.03914564718503</v>
+        <v>1.072321598481835</v>
       </c>
       <c r="M11">
-        <v>1.05127037716951</v>
+        <v>1.080229952507326</v>
       </c>
       <c r="N11">
-        <v>1.038457875132664</v>
+        <v>1.072598265908069</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.006180124261045</v>
+        <v>1.064399103340826</v>
       </c>
       <c r="D12">
-        <v>1.034918775096958</v>
+        <v>1.062797956809958</v>
       </c>
       <c r="E12">
-        <v>1.023259688565985</v>
+        <v>1.068604963044349</v>
       </c>
       <c r="F12">
-        <v>1.035670344966145</v>
+        <v>1.076553830795703</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051100553864923</v>
+        <v>1.052907542854701</v>
       </c>
       <c r="J12">
-        <v>1.035725213728311</v>
+        <v>1.070845146637188</v>
       </c>
       <c r="K12">
-        <v>1.049406229192645</v>
+        <v>1.066312156959518</v>
       </c>
       <c r="L12">
-        <v>1.037954436601209</v>
+        <v>1.072098667035903</v>
       </c>
       <c r="M12">
-        <v>1.050144643863188</v>
+        <v>1.080019873458044</v>
       </c>
       <c r="N12">
-        <v>1.037196062331147</v>
+        <v>1.072365869573068</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.006558614973671</v>
+        <v>1.064466962394353</v>
       </c>
       <c r="D13">
-        <v>1.035145161701075</v>
+        <v>1.062839586072085</v>
       </c>
       <c r="E13">
-        <v>1.023564056158137</v>
+        <v>1.068662290734079</v>
       </c>
       <c r="F13">
-        <v>1.035959442864558</v>
+        <v>1.076608310205074</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051223241951148</v>
+        <v>1.052926102454295</v>
       </c>
       <c r="J13">
-        <v>1.035996357036604</v>
+        <v>1.07089493094745</v>
       </c>
       <c r="K13">
-        <v>1.049586769341419</v>
+        <v>1.066344276725532</v>
       </c>
       <c r="L13">
-        <v>1.038210747656841</v>
+        <v>1.072146490106995</v>
       </c>
       <c r="M13">
-        <v>1.050386854199974</v>
+        <v>1.080064939535369</v>
       </c>
       <c r="N13">
-        <v>1.037467590694039</v>
+        <v>1.072415724582761</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.00779418624102</v>
+        <v>1.064689303787648</v>
       </c>
       <c r="D14">
-        <v>1.03588454469719</v>
+        <v>1.062975987127069</v>
       </c>
       <c r="E14">
-        <v>1.0245579669808</v>
+        <v>1.068850134756216</v>
       </c>
       <c r="F14">
-        <v>1.036903568537123</v>
+        <v>1.076786822530876</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051623547599136</v>
+        <v>1.052986876332496</v>
       </c>
       <c r="J14">
-        <v>1.036881470812308</v>
+        <v>1.071058033040731</v>
       </c>
       <c r="K14">
-        <v>1.050176165287324</v>
+        <v>1.066449497938843</v>
       </c>
       <c r="L14">
-        <v>1.039047536800588</v>
+        <v>1.07230317248377</v>
       </c>
       <c r="M14">
-        <v>1.051177654242238</v>
+        <v>1.080212588842801</v>
       </c>
       <c r="N14">
-        <v>1.038353961432828</v>
+        <v>1.072579058299722</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.008551990937727</v>
+        <v>1.064826292770487</v>
       </c>
       <c r="D15">
-        <v>1.036338290164024</v>
+        <v>1.063060028081166</v>
       </c>
       <c r="E15">
-        <v>1.025167791840638</v>
+        <v>1.068965875959031</v>
       </c>
       <c r="F15">
-        <v>1.037482905936454</v>
+        <v>1.076896814853247</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051868905397147</v>
+        <v>1.053024292026066</v>
       </c>
       <c r="J15">
-        <v>1.037424310840309</v>
+        <v>1.071158510422419</v>
       </c>
       <c r="K15">
-        <v>1.050537674624659</v>
+        <v>1.066514311687177</v>
       </c>
       <c r="L15">
-        <v>1.039560810283614</v>
+        <v>1.072399699381626</v>
       </c>
       <c r="M15">
-        <v>1.051662753339327</v>
+        <v>1.08030355048796</v>
       </c>
       <c r="N15">
-        <v>1.038897572355933</v>
+        <v>1.072679678370817</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.012911149182218</v>
+        <v>1.065623585638235</v>
       </c>
       <c r="D16">
-        <v>1.038952253712927</v>
+        <v>1.063549179177167</v>
       </c>
       <c r="E16">
-        <v>1.028679193072244</v>
+        <v>1.069639606329806</v>
       </c>
       <c r="F16">
-        <v>1.040819615616061</v>
+        <v>1.077537094412596</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053277816255946</v>
+        <v>1.053241623544022</v>
       </c>
       <c r="J16">
-        <v>1.040546534597249</v>
+        <v>1.071743101185243</v>
       </c>
       <c r="K16">
-        <v>1.052617391086441</v>
+        <v>1.066891303832411</v>
       </c>
       <c r="L16">
-        <v>1.042514032485428</v>
+        <v>1.07296137144496</v>
       </c>
       <c r="M16">
-        <v>1.054454367917386</v>
+        <v>1.080832835000144</v>
       </c>
       <c r="N16">
-        <v>1.042024230028733</v>
+        <v>1.073265099319578</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.015601572573667</v>
+        <v>1.066123671241735</v>
       </c>
       <c r="D17">
-        <v>1.040568795827978</v>
+        <v>1.063856007641466</v>
       </c>
       <c r="E17">
-        <v>1.030849333039493</v>
+        <v>1.070062279154182</v>
       </c>
       <c r="F17">
-        <v>1.042882508070947</v>
+        <v>1.077938793034928</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054145141659458</v>
+        <v>1.053377559162052</v>
       </c>
       <c r="J17">
-        <v>1.042473131642489</v>
+        <v>1.072109597223661</v>
       </c>
       <c r="K17">
-        <v>1.053901028312724</v>
+        <v>1.067127559492047</v>
       </c>
       <c r="L17">
-        <v>1.044337250611661</v>
+        <v>1.073313556841738</v>
       </c>
       <c r="M17">
-        <v>1.056178227079571</v>
+        <v>1.081164708340927</v>
       </c>
       <c r="N17">
-        <v>1.043953563062761</v>
+        <v>1.073632115824408</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.017155571072614</v>
+        <v>1.066415350850837</v>
       </c>
       <c r="D18">
-        <v>1.041503621820807</v>
+        <v>1.064034974400829</v>
       </c>
       <c r="E18">
-        <v>1.032103832970569</v>
+        <v>1.070308838902658</v>
       </c>
       <c r="F18">
-        <v>1.044075255598332</v>
+        <v>1.078173121855</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054645279691977</v>
+        <v>1.053456707441374</v>
       </c>
       <c r="J18">
-        <v>1.04358576932228</v>
+        <v>1.07232329571907</v>
       </c>
       <c r="K18">
-        <v>1.054642443059097</v>
+        <v>1.067265283692703</v>
       </c>
       <c r="L18">
-        <v>1.045390503615664</v>
+        <v>1.073518931744298</v>
       </c>
       <c r="M18">
-        <v>1.057174219885754</v>
+        <v>1.081358236825765</v>
       </c>
       <c r="N18">
-        <v>1.045067780815679</v>
+        <v>1.073846117796192</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.017682903985567</v>
+        <v>1.066514804122674</v>
       </c>
       <c r="D19">
-        <v>1.041821027247878</v>
+        <v>1.064095997257033</v>
       </c>
       <c r="E19">
-        <v>1.032529703426283</v>
+        <v>1.070392913144472</v>
       </c>
       <c r="F19">
-        <v>1.044480202952906</v>
+        <v>1.078253026157306</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054814852580312</v>
+        <v>1.053483671112242</v>
       </c>
       <c r="J19">
-        <v>1.04396329953917</v>
+        <v>1.072396149138921</v>
       </c>
       <c r="K19">
-        <v>1.054894027385716</v>
+        <v>1.067312230573122</v>
       </c>
       <c r="L19">
-        <v>1.045747937235355</v>
+        <v>1.073588951021446</v>
       </c>
       <c r="M19">
-        <v>1.057512244157801</v>
+        <v>1.081424216984298</v>
       </c>
       <c r="N19">
-        <v>1.04544584716878</v>
+        <v>1.073919074676256</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.015314508407648</v>
+        <v>1.066070018035526</v>
       </c>
       <c r="D20">
-        <v>1.040396197149976</v>
+        <v>1.063823087965199</v>
       </c>
       <c r="E20">
-        <v>1.03061767565543</v>
+        <v>1.070016928110499</v>
       </c>
       <c r="F20">
-        <v>1.042662273434881</v>
+        <v>1.077895692014474</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054052685155224</v>
+        <v>1.053362989110012</v>
       </c>
       <c r="J20">
-        <v>1.042267583873126</v>
+        <v>1.072070283171679</v>
       </c>
       <c r="K20">
-        <v>1.053764067200414</v>
+        <v>1.067102219745523</v>
       </c>
       <c r="L20">
-        <v>1.044142699092939</v>
+        <v>1.073275775746736</v>
       </c>
       <c r="M20">
-        <v>1.055994263347988</v>
+        <v>1.081129106404381</v>
       </c>
       <c r="N20">
-        <v>1.043747723391989</v>
+        <v>1.073592745941963</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.007431067965754</v>
+        <v>1.064623830395117</v>
       </c>
       <c r="D21">
-        <v>1.035667194068291</v>
+        <v>1.062935820465726</v>
       </c>
       <c r="E21">
-        <v>1.024265819998944</v>
+        <v>1.068794818479654</v>
       </c>
       <c r="F21">
-        <v>1.036626042893297</v>
+        <v>1.076734254062715</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051505936029559</v>
+        <v>1.052968986002794</v>
       </c>
       <c r="J21">
-        <v>1.036621351625313</v>
+        <v>1.071010006708794</v>
       </c>
       <c r="K21">
-        <v>1.050002945284269</v>
+        <v>1.066418516354981</v>
       </c>
       <c r="L21">
-        <v>1.038801604503007</v>
+        <v>1.072257035573799</v>
       </c>
       <c r="M21">
-        <v>1.050945230851125</v>
+        <v>1.080169111879454</v>
       </c>
       <c r="N21">
-        <v>1.038093472846751</v>
+        <v>1.072530963764885</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.002324301388012</v>
+        <v>1.063714430762195</v>
       </c>
       <c r="D22">
-        <v>1.032615394152864</v>
+        <v>1.062377949850026</v>
       </c>
       <c r="E22">
-        <v>1.02016154916239</v>
+        <v>1.06802661839024</v>
       </c>
       <c r="F22">
-        <v>1.032728279708349</v>
+        <v>1.07600423026704</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049849075907777</v>
+        <v>1.052719990439242</v>
       </c>
       <c r="J22">
-        <v>1.03296281628705</v>
+        <v>1.070342706265932</v>
       </c>
       <c r="K22">
-        <v>1.047567288173634</v>
+        <v>1.065987924149759</v>
       </c>
       <c r="L22">
-        <v>1.035343910269964</v>
+        <v>1.071616065015377</v>
       </c>
       <c r="M22">
-        <v>1.047678117783255</v>
+        <v>1.079565090716974</v>
       </c>
       <c r="N22">
-        <v>1.034429741968668</v>
+        <v>1.071862715678854</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.00504636714198</v>
+        <v>1.064196533307432</v>
       </c>
       <c r="D23">
-        <v>1.034240944307685</v>
+        <v>1.062673688620947</v>
       </c>
       <c r="E23">
-        <v>1.022348233775207</v>
+        <v>1.068433838291242</v>
       </c>
       <c r="F23">
-        <v>1.034804683951161</v>
+        <v>1.076391209248231</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050732872591876</v>
+        <v>1.052852108237117</v>
       </c>
       <c r="J23">
-        <v>1.03491299311672</v>
+        <v>1.070696518138844</v>
       </c>
       <c r="K23">
-        <v>1.048865454052776</v>
+        <v>1.066216257663589</v>
       </c>
       <c r="L23">
-        <v>1.037186726688947</v>
+        <v>1.071955898496884</v>
       </c>
       <c r="M23">
-        <v>1.049419208817152</v>
+        <v>1.079885335216089</v>
       </c>
       <c r="N23">
-        <v>1.036382688273125</v>
+        <v>1.072217030005208</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.01544426743575</v>
+        <v>1.066094261646624</v>
       </c>
       <c r="D24">
-        <v>1.040474211959286</v>
+        <v>1.063837962953465</v>
       </c>
       <c r="E24">
-        <v>1.030722386502591</v>
+        <v>1.070037420227679</v>
       </c>
       <c r="F24">
-        <v>1.042761820360378</v>
+        <v>1.077915167433871</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054094480024842</v>
+        <v>1.05336957312407</v>
       </c>
       <c r="J24">
-        <v>1.04236049631878</v>
+        <v>1.072088047723434</v>
       </c>
       <c r="K24">
-        <v>1.05382597656602</v>
+        <v>1.067113669932716</v>
       </c>
       <c r="L24">
-        <v>1.044230639988158</v>
+        <v>1.073292847548438</v>
       </c>
       <c r="M24">
-        <v>1.056077417940035</v>
+        <v>1.081145193534309</v>
       </c>
       <c r="N24">
-        <v>1.043840767783973</v>
+        <v>1.07361053572142</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.026916010444719</v>
+        <v>1.068296013074606</v>
       </c>
       <c r="D25">
-        <v>1.047393101478879</v>
+        <v>1.065188995709756</v>
       </c>
       <c r="E25">
-        <v>1.040000128177701</v>
+        <v>1.071899148533524</v>
       </c>
       <c r="F25">
-        <v>1.051586828069006</v>
+        <v>1.079684611793831</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057771058991522</v>
+        <v>1.053964545658562</v>
       </c>
       <c r="J25">
-        <v>1.050570298198097</v>
+        <v>1.073700003487542</v>
       </c>
       <c r="K25">
-        <v>1.059297696315032</v>
+        <v>1.068151940465834</v>
       </c>
       <c r="L25">
-        <v>1.052007679491248</v>
+        <v>1.07484238886405</v>
       </c>
       <c r="M25">
-        <v>1.063433830352431</v>
+        <v>1.082605323612142</v>
       </c>
       <c r="N25">
-        <v>1.052062228523635</v>
+        <v>1.075224780647606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.070051846520101</v>
+        <v>1.035643746900413</v>
       </c>
       <c r="D2">
-        <v>1.06626654332389</v>
+        <v>1.052684555144484</v>
       </c>
       <c r="E2">
-        <v>1.07338479428994</v>
+        <v>1.047085584623228</v>
       </c>
       <c r="F2">
-        <v>1.081096729699277</v>
+        <v>1.05833259652029</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05443466022714</v>
+        <v>1.060539807970735</v>
       </c>
       <c r="J2">
-        <v>1.074983459293816</v>
+        <v>1.056808225684783</v>
       </c>
       <c r="K2">
-        <v>1.068977553544383</v>
+        <v>1.063455645208558</v>
       </c>
       <c r="L2">
-        <v>1.076076796518562</v>
+        <v>1.057925718487508</v>
       </c>
       <c r="M2">
-        <v>1.083768443738624</v>
+        <v>1.069034956936132</v>
       </c>
       <c r="N2">
-        <v>1.07651005910834</v>
+        <v>1.058309014582854</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.071326623303014</v>
+        <v>1.04176094820216</v>
       </c>
       <c r="D3">
-        <v>1.067048921584357</v>
+        <v>1.056406593194003</v>
       </c>
       <c r="E3">
-        <v>1.074463954362187</v>
+        <v>1.052065521952601</v>
       </c>
       <c r="F3">
-        <v>1.082122539378438</v>
+        <v>1.063076702050267</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054773441197071</v>
+        <v>1.062462771849805</v>
       </c>
       <c r="J3">
-        <v>1.075914092385136</v>
+        <v>1.061174471613608</v>
       </c>
       <c r="K3">
-        <v>1.069575573768923</v>
+        <v>1.066365238657276</v>
       </c>
       <c r="L3">
-        <v>1.076972236134882</v>
+        <v>1.062072890775678</v>
       </c>
       <c r="M3">
-        <v>1.084612131521825</v>
+        <v>1.072961436386676</v>
       </c>
       <c r="N3">
-        <v>1.077442013805395</v>
+        <v>1.062681461081712</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.072151451856025</v>
+        <v>1.045624790629238</v>
       </c>
       <c r="D4">
-        <v>1.06755516541778</v>
+        <v>1.05876292946146</v>
       </c>
       <c r="E4">
-        <v>1.075162458477653</v>
+        <v>1.055216884959224</v>
       </c>
       <c r="F4">
-        <v>1.082786536972249</v>
+        <v>1.066079998682399</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054991471227954</v>
+        <v>1.063668854626117</v>
       </c>
       <c r="J4">
-        <v>1.076515695605537</v>
+        <v>1.063929276527314</v>
       </c>
       <c r="K4">
-        <v>1.069961864986837</v>
+        <v>1.068200324457901</v>
       </c>
       <c r="L4">
-        <v>1.077551259262455</v>
+        <v>1.064691614530388</v>
       </c>
       <c r="M4">
-        <v>1.085157669968502</v>
+        <v>1.075441313646925</v>
       </c>
       <c r="N4">
-        <v>1.078044471371373</v>
+        <v>1.065440178134376</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.072498202769721</v>
+        <v>1.047227564049435</v>
       </c>
       <c r="D5">
-        <v>1.067767988441152</v>
+        <v>1.059741546081622</v>
       </c>
       <c r="E5">
-        <v>1.075456161942716</v>
+        <v>1.056525444851357</v>
       </c>
       <c r="F5">
-        <v>1.083065737066358</v>
+        <v>1.067327332235412</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055082847863422</v>
+        <v>1.064167053739947</v>
       </c>
       <c r="J5">
-        <v>1.07676847209967</v>
+        <v>1.065071218980132</v>
       </c>
       <c r="K5">
-        <v>1.070124102059616</v>
+        <v>1.068960812674834</v>
       </c>
       <c r="L5">
-        <v>1.077794588897882</v>
+        <v>1.065777647866846</v>
       </c>
       <c r="M5">
-        <v>1.085386922884018</v>
+        <v>1.076469868414111</v>
       </c>
       <c r="N5">
-        <v>1.078297606837122</v>
+        <v>1.06658374227646</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.072556423418484</v>
+        <v>1.04749543919608</v>
       </c>
       <c r="D6">
-        <v>1.067803722248159</v>
+        <v>1.059905170576923</v>
       </c>
       <c r="E6">
-        <v>1.075505479138219</v>
+        <v>1.056744223719058</v>
       </c>
       <c r="F6">
-        <v>1.083112619257498</v>
+        <v>1.067535889001587</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05509817380325</v>
+        <v>1.064250193890444</v>
       </c>
       <c r="J6">
-        <v>1.076810906352015</v>
+        <v>1.065262026686844</v>
       </c>
       <c r="K6">
-        <v>1.070151333013677</v>
+        <v>1.069087869675303</v>
       </c>
       <c r="L6">
-        <v>1.077835439660028</v>
+        <v>1.065959142744126</v>
       </c>
       <c r="M6">
-        <v>1.085425410108563</v>
+        <v>1.076641763201896</v>
       </c>
       <c r="N6">
-        <v>1.078340101350973</v>
+        <v>1.066774820952002</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.072156085183849</v>
+        <v>1.0456462904917</v>
       </c>
       <c r="D7">
-        <v>1.067558009177039</v>
+        <v>1.0587760522728</v>
       </c>
       <c r="E7">
-        <v>1.075166382751121</v>
+        <v>1.055234433019822</v>
       </c>
       <c r="F7">
-        <v>1.082790267438958</v>
+        <v>1.066096724704471</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054992693319467</v>
+        <v>1.063675545920938</v>
       </c>
       <c r="J7">
-        <v>1.076519073756423</v>
+        <v>1.063944597906024</v>
       </c>
       <c r="K7">
-        <v>1.069964033434111</v>
+        <v>1.068210528755754</v>
       </c>
       <c r="L7">
-        <v>1.077554511004265</v>
+        <v>1.064706183818029</v>
       </c>
       <c r="M7">
-        <v>1.085160733615913</v>
+        <v>1.075455111465745</v>
       </c>
       <c r="N7">
-        <v>1.078047854319621</v>
+        <v>1.065455521271202</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.070482672168963</v>
+        <v>1.037731259654712</v>
       </c>
       <c r="D8">
-        <v>1.06653095312175</v>
+        <v>1.053953514611071</v>
       </c>
       <c r="E8">
-        <v>1.073749457355912</v>
+        <v>1.048783725647917</v>
       </c>
       <c r="F8">
-        <v>1.081443359479404</v>
+        <v>1.059950058393991</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054549398123599</v>
+        <v>1.061197784495298</v>
       </c>
       <c r="J8">
-        <v>1.075298091526921</v>
+        <v>1.058298833862351</v>
       </c>
       <c r="K8">
-        <v>1.069179795642582</v>
+        <v>1.064449074721093</v>
       </c>
       <c r="L8">
-        <v>1.07637949495129</v>
+        <v>1.059341078000553</v>
       </c>
       <c r="M8">
-        <v>1.084053651763696</v>
+        <v>1.070374878894734</v>
       </c>
       <c r="N8">
-        <v>1.076825138155304</v>
+        <v>1.059801739595009</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.067533533492868</v>
+        <v>1.023011891289893</v>
       </c>
       <c r="D9">
-        <v>1.064721100156159</v>
+        <v>1.04503368184714</v>
       </c>
       <c r="E9">
-        <v>1.071254268430547</v>
+        <v>1.036838153690088</v>
       </c>
       <c r="F9">
-        <v>1.079071679210713</v>
+        <v>1.048578104232831</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053759177009951</v>
+        <v>1.056524157894518</v>
       </c>
       <c r="J9">
-        <v>1.073142087205492</v>
+        <v>1.047777414467979</v>
       </c>
       <c r="K9">
-        <v>1.06779274716049</v>
+        <v>1.057436055871008</v>
       </c>
       <c r="L9">
-        <v>1.074305974233897</v>
+        <v>1.049360550775817</v>
       </c>
       <c r="M9">
-        <v>1.082099869674999</v>
+        <v>1.060929306504961</v>
       </c>
       <c r="N9">
-        <v>1.074666072060442</v>
+        <v>1.049265378578272</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.065567069489681</v>
+        <v>1.012604997953826</v>
       </c>
       <c r="D10">
-        <v>1.063514504458682</v>
+        <v>1.038768457754508</v>
       </c>
       <c r="E10">
-        <v>1.069591843161495</v>
+        <v>1.028432388477798</v>
       </c>
       <c r="F10">
-        <v>1.07749170194228</v>
+        <v>1.040585042342832</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053226242468146</v>
+        <v>1.053179008991276</v>
       </c>
       <c r="J10">
-        <v>1.071701673770698</v>
+        <v>1.040327279850177</v>
       </c>
       <c r="K10">
-        <v>1.066864593873293</v>
+        <v>1.052471322541729</v>
       </c>
       <c r="L10">
-        <v>1.072921564465842</v>
+        <v>1.042306586686942</v>
       </c>
       <c r="M10">
-        <v>1.080795323657236</v>
+        <v>1.054258246792775</v>
       </c>
       <c r="N10">
-        <v>1.073223613073353</v>
+        <v>1.041804663914771</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.06471545289279</v>
+        <v>1.007939042251448</v>
       </c>
       <c r="D11">
-        <v>1.062992029172416</v>
+        <v>1.035971263613351</v>
       </c>
       <c r="E11">
-        <v>1.068872227587508</v>
+        <v>1.024674522454896</v>
       </c>
       <c r="F11">
-        <v>1.076807817955567</v>
+        <v>1.037014293516991</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052994020087337</v>
+        <v>1.051670457726182</v>
       </c>
       <c r="J11">
-        <v>1.071077213410752</v>
+        <v>1.036985237152037</v>
       </c>
       <c r="K11">
-        <v>1.066461870787877</v>
+        <v>1.050245267540624</v>
       </c>
       <c r="L11">
-        <v>1.072321598481835</v>
+        <v>1.039145647185028</v>
       </c>
       <c r="M11">
-        <v>1.080229952507326</v>
+        <v>1.051270377169508</v>
       </c>
       <c r="N11">
-        <v>1.072598265908069</v>
+        <v>1.038457875132662</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.064399103340826</v>
+        <v>1.006180124261044</v>
       </c>
       <c r="D12">
-        <v>1.062797956809958</v>
+        <v>1.034918775096958</v>
       </c>
       <c r="E12">
-        <v>1.068604963044349</v>
+        <v>1.023259688565984</v>
       </c>
       <c r="F12">
-        <v>1.076553830795703</v>
+        <v>1.035670344966144</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052907542854701</v>
+        <v>1.051100553864922</v>
       </c>
       <c r="J12">
-        <v>1.070845146637188</v>
+        <v>1.03572521372831</v>
       </c>
       <c r="K12">
-        <v>1.066312156959518</v>
+        <v>1.049406229192645</v>
       </c>
       <c r="L12">
-        <v>1.072098667035903</v>
+        <v>1.037954436601207</v>
       </c>
       <c r="M12">
-        <v>1.080019873458044</v>
+        <v>1.050144643863187</v>
       </c>
       <c r="N12">
-        <v>1.072365869573068</v>
+        <v>1.037196062331146</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.064466962394353</v>
+        <v>1.006558614973671</v>
       </c>
       <c r="D13">
-        <v>1.062839586072085</v>
+        <v>1.035145161701075</v>
       </c>
       <c r="E13">
-        <v>1.068662290734079</v>
+        <v>1.023564056158136</v>
       </c>
       <c r="F13">
-        <v>1.076608310205074</v>
+        <v>1.035959442864558</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052926102454295</v>
+        <v>1.051223241951148</v>
       </c>
       <c r="J13">
-        <v>1.07089493094745</v>
+        <v>1.035996357036604</v>
       </c>
       <c r="K13">
-        <v>1.066344276725532</v>
+        <v>1.049586769341419</v>
       </c>
       <c r="L13">
-        <v>1.072146490106995</v>
+        <v>1.03821074765684</v>
       </c>
       <c r="M13">
-        <v>1.080064939535369</v>
+        <v>1.050386854199974</v>
       </c>
       <c r="N13">
-        <v>1.072415724582761</v>
+        <v>1.037467590694039</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.064689303787648</v>
+        <v>1.00779418624102</v>
       </c>
       <c r="D14">
-        <v>1.062975987127069</v>
+        <v>1.03588454469719</v>
       </c>
       <c r="E14">
-        <v>1.068850134756216</v>
+        <v>1.024557966980801</v>
       </c>
       <c r="F14">
-        <v>1.076786822530876</v>
+        <v>1.036903568537123</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052986876332496</v>
+        <v>1.051623547599136</v>
       </c>
       <c r="J14">
-        <v>1.071058033040731</v>
+        <v>1.036881470812308</v>
       </c>
       <c r="K14">
-        <v>1.066449497938843</v>
+        <v>1.050176165287324</v>
       </c>
       <c r="L14">
-        <v>1.07230317248377</v>
+        <v>1.039047536800589</v>
       </c>
       <c r="M14">
-        <v>1.080212588842801</v>
+        <v>1.051177654242238</v>
       </c>
       <c r="N14">
-        <v>1.072579058299722</v>
+        <v>1.038353961432828</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.064826292770487</v>
+        <v>1.008551990937727</v>
       </c>
       <c r="D15">
-        <v>1.063060028081166</v>
+        <v>1.036338290164024</v>
       </c>
       <c r="E15">
-        <v>1.068965875959031</v>
+        <v>1.025167791840638</v>
       </c>
       <c r="F15">
-        <v>1.076896814853247</v>
+        <v>1.037482905936454</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053024292026066</v>
+        <v>1.051868905397147</v>
       </c>
       <c r="J15">
-        <v>1.071158510422419</v>
+        <v>1.037424310840309</v>
       </c>
       <c r="K15">
-        <v>1.066514311687177</v>
+        <v>1.050537674624659</v>
       </c>
       <c r="L15">
-        <v>1.072399699381626</v>
+        <v>1.039560810283614</v>
       </c>
       <c r="M15">
-        <v>1.08030355048796</v>
+        <v>1.051662753339327</v>
       </c>
       <c r="N15">
-        <v>1.072679678370817</v>
+        <v>1.038897572355934</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.065623585638235</v>
+        <v>1.012911149182218</v>
       </c>
       <c r="D16">
-        <v>1.063549179177167</v>
+        <v>1.038952253712928</v>
       </c>
       <c r="E16">
-        <v>1.069639606329806</v>
+        <v>1.028679193072245</v>
       </c>
       <c r="F16">
-        <v>1.077537094412596</v>
+        <v>1.040819615616061</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053241623544022</v>
+        <v>1.053277816255946</v>
       </c>
       <c r="J16">
-        <v>1.071743101185243</v>
+        <v>1.040546534597249</v>
       </c>
       <c r="K16">
-        <v>1.066891303832411</v>
+        <v>1.052617391086441</v>
       </c>
       <c r="L16">
-        <v>1.07296137144496</v>
+        <v>1.042514032485428</v>
       </c>
       <c r="M16">
-        <v>1.080832835000144</v>
+        <v>1.054454367917386</v>
       </c>
       <c r="N16">
-        <v>1.073265099319578</v>
+        <v>1.042024230028733</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.066123671241735</v>
+        <v>1.015601572573668</v>
       </c>
       <c r="D17">
-        <v>1.063856007641466</v>
+        <v>1.040568795827978</v>
       </c>
       <c r="E17">
-        <v>1.070062279154182</v>
+        <v>1.030849333039493</v>
       </c>
       <c r="F17">
-        <v>1.077938793034928</v>
+        <v>1.042882508070947</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053377559162052</v>
+        <v>1.054145141659458</v>
       </c>
       <c r="J17">
-        <v>1.072109597223661</v>
+        <v>1.042473131642489</v>
       </c>
       <c r="K17">
-        <v>1.067127559492047</v>
+        <v>1.053901028312724</v>
       </c>
       <c r="L17">
-        <v>1.073313556841738</v>
+        <v>1.044337250611661</v>
       </c>
       <c r="M17">
-        <v>1.081164708340927</v>
+        <v>1.056178227079571</v>
       </c>
       <c r="N17">
-        <v>1.073632115824408</v>
+        <v>1.043953563062761</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.066415350850837</v>
+        <v>1.017155571072614</v>
       </c>
       <c r="D18">
-        <v>1.064034974400829</v>
+        <v>1.041503621820807</v>
       </c>
       <c r="E18">
-        <v>1.070308838902658</v>
+        <v>1.032103832970569</v>
       </c>
       <c r="F18">
-        <v>1.078173121855</v>
+        <v>1.044075255598332</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053456707441374</v>
+        <v>1.054645279691977</v>
       </c>
       <c r="J18">
-        <v>1.07232329571907</v>
+        <v>1.043585769322281</v>
       </c>
       <c r="K18">
-        <v>1.067265283692703</v>
+        <v>1.054642443059098</v>
       </c>
       <c r="L18">
-        <v>1.073518931744298</v>
+        <v>1.045390503615664</v>
       </c>
       <c r="M18">
-        <v>1.081358236825765</v>
+        <v>1.057174219885754</v>
       </c>
       <c r="N18">
-        <v>1.073846117796192</v>
+        <v>1.04506778081568</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.066514804122674</v>
+        <v>1.017682903985567</v>
       </c>
       <c r="D19">
-        <v>1.064095997257033</v>
+        <v>1.041821027247878</v>
       </c>
       <c r="E19">
-        <v>1.070392913144472</v>
+        <v>1.032529703426283</v>
       </c>
       <c r="F19">
-        <v>1.078253026157306</v>
+        <v>1.044480202952906</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053483671112242</v>
+        <v>1.054814852580312</v>
       </c>
       <c r="J19">
-        <v>1.072396149138921</v>
+        <v>1.04396329953917</v>
       </c>
       <c r="K19">
-        <v>1.067312230573122</v>
+        <v>1.054894027385716</v>
       </c>
       <c r="L19">
-        <v>1.073588951021446</v>
+        <v>1.045747937235355</v>
       </c>
       <c r="M19">
-        <v>1.081424216984298</v>
+        <v>1.057512244157801</v>
       </c>
       <c r="N19">
-        <v>1.073919074676256</v>
+        <v>1.04544584716878</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.066070018035526</v>
+        <v>1.015314508407649</v>
       </c>
       <c r="D20">
-        <v>1.063823087965199</v>
+        <v>1.040396197149977</v>
       </c>
       <c r="E20">
-        <v>1.070016928110499</v>
+        <v>1.030617675655431</v>
       </c>
       <c r="F20">
-        <v>1.077895692014474</v>
+        <v>1.042662273434881</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053362989110012</v>
+        <v>1.054052685155224</v>
       </c>
       <c r="J20">
-        <v>1.072070283171679</v>
+        <v>1.042267583873127</v>
       </c>
       <c r="K20">
-        <v>1.067102219745523</v>
+        <v>1.053764067200414</v>
       </c>
       <c r="L20">
-        <v>1.073275775746736</v>
+        <v>1.044142699092939</v>
       </c>
       <c r="M20">
-        <v>1.081129106404381</v>
+        <v>1.055994263347988</v>
       </c>
       <c r="N20">
-        <v>1.073592745941963</v>
+        <v>1.043747723391989</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.064623830395117</v>
+        <v>1.007431067965755</v>
       </c>
       <c r="D21">
-        <v>1.062935820465726</v>
+        <v>1.035667194068292</v>
       </c>
       <c r="E21">
-        <v>1.068794818479654</v>
+        <v>1.024265819998944</v>
       </c>
       <c r="F21">
-        <v>1.076734254062715</v>
+        <v>1.036626042893297</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052968986002794</v>
+        <v>1.05150593602956</v>
       </c>
       <c r="J21">
-        <v>1.071010006708794</v>
+        <v>1.036621351625314</v>
       </c>
       <c r="K21">
-        <v>1.066418516354981</v>
+        <v>1.05000294528427</v>
       </c>
       <c r="L21">
-        <v>1.072257035573799</v>
+        <v>1.038801604503008</v>
       </c>
       <c r="M21">
-        <v>1.080169111879454</v>
+        <v>1.050945230851125</v>
       </c>
       <c r="N21">
-        <v>1.072530963764885</v>
+        <v>1.038093472846752</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.063714430762195</v>
+        <v>1.002324301388012</v>
       </c>
       <c r="D22">
-        <v>1.062377949850026</v>
+        <v>1.032615394152864</v>
       </c>
       <c r="E22">
-        <v>1.06802661839024</v>
+        <v>1.02016154916239</v>
       </c>
       <c r="F22">
-        <v>1.07600423026704</v>
+        <v>1.032728279708349</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052719990439242</v>
+        <v>1.049849075907777</v>
       </c>
       <c r="J22">
-        <v>1.070342706265932</v>
+        <v>1.03296281628705</v>
       </c>
       <c r="K22">
-        <v>1.065987924149759</v>
+        <v>1.047567288173634</v>
       </c>
       <c r="L22">
-        <v>1.071616065015377</v>
+        <v>1.035343910269964</v>
       </c>
       <c r="M22">
-        <v>1.079565090716974</v>
+        <v>1.047678117783255</v>
       </c>
       <c r="N22">
-        <v>1.071862715678854</v>
+        <v>1.034429741968668</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.064196533307432</v>
+        <v>1.00504636714198</v>
       </c>
       <c r="D23">
-        <v>1.062673688620947</v>
+        <v>1.034240944307685</v>
       </c>
       <c r="E23">
-        <v>1.068433838291242</v>
+        <v>1.022348233775207</v>
       </c>
       <c r="F23">
-        <v>1.076391209248231</v>
+        <v>1.034804683951161</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052852108237117</v>
+        <v>1.050732872591876</v>
       </c>
       <c r="J23">
-        <v>1.070696518138844</v>
+        <v>1.034912993116719</v>
       </c>
       <c r="K23">
-        <v>1.066216257663589</v>
+        <v>1.048865454052776</v>
       </c>
       <c r="L23">
-        <v>1.071955898496884</v>
+        <v>1.037186726688947</v>
       </c>
       <c r="M23">
-        <v>1.079885335216089</v>
+        <v>1.049419208817152</v>
       </c>
       <c r="N23">
-        <v>1.072217030005208</v>
+        <v>1.036382688273125</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.066094261646624</v>
+        <v>1.01544426743575</v>
       </c>
       <c r="D24">
-        <v>1.063837962953465</v>
+        <v>1.040474211959285</v>
       </c>
       <c r="E24">
-        <v>1.070037420227679</v>
+        <v>1.03072238650259</v>
       </c>
       <c r="F24">
-        <v>1.077915167433871</v>
+        <v>1.042761820360377</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05336957312407</v>
+        <v>1.054094480024842</v>
       </c>
       <c r="J24">
-        <v>1.072088047723434</v>
+        <v>1.042360496318779</v>
       </c>
       <c r="K24">
-        <v>1.067113669932716</v>
+        <v>1.05382597656602</v>
       </c>
       <c r="L24">
-        <v>1.073292847548438</v>
+        <v>1.044230639988158</v>
       </c>
       <c r="M24">
-        <v>1.081145193534309</v>
+        <v>1.056077417940034</v>
       </c>
       <c r="N24">
-        <v>1.07361053572142</v>
+        <v>1.043840767783972</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.068296013074606</v>
+        <v>1.026916010444719</v>
       </c>
       <c r="D25">
-        <v>1.065188995709756</v>
+        <v>1.047393101478879</v>
       </c>
       <c r="E25">
-        <v>1.071899148533524</v>
+        <v>1.0400001281777</v>
       </c>
       <c r="F25">
-        <v>1.079684611793831</v>
+        <v>1.051586828069006</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053964545658562</v>
+        <v>1.057771058991522</v>
       </c>
       <c r="J25">
-        <v>1.073700003487542</v>
+        <v>1.050570298198096</v>
       </c>
       <c r="K25">
-        <v>1.068151940465834</v>
+        <v>1.059297696315032</v>
       </c>
       <c r="L25">
-        <v>1.07484238886405</v>
+        <v>1.052007679491248</v>
       </c>
       <c r="M25">
-        <v>1.082605323612142</v>
+        <v>1.063433830352431</v>
       </c>
       <c r="N25">
-        <v>1.075224780647606</v>
+        <v>1.052062228523635</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035643746900413</v>
+        <v>0.9731592449310896</v>
       </c>
       <c r="D2">
-        <v>1.052684555144484</v>
+        <v>1.03618268814141</v>
       </c>
       <c r="E2">
-        <v>1.047085584623228</v>
+        <v>0.9832333868804691</v>
       </c>
       <c r="F2">
-        <v>1.05833259652029</v>
+        <v>1.016079966903167</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060539807970735</v>
+        <v>1.049752477481649</v>
       </c>
       <c r="J2">
-        <v>1.056808225684783</v>
+        <v>0.9961735072018214</v>
       </c>
       <c r="K2">
-        <v>1.063455645208558</v>
+        <v>1.047159945110026</v>
       </c>
       <c r="L2">
-        <v>1.057925718487508</v>
+        <v>0.9949313571745154</v>
       </c>
       <c r="M2">
-        <v>1.069034956936132</v>
+        <v>1.027319737014338</v>
       </c>
       <c r="N2">
-        <v>1.058309014582854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.002566792159484</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.030194054823079</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044416433890641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04176094820216</v>
+        <v>0.9773670741895386</v>
       </c>
       <c r="D3">
-        <v>1.056406593194003</v>
+        <v>1.037598380781442</v>
       </c>
       <c r="E3">
-        <v>1.052065521952601</v>
+        <v>0.9865522563121824</v>
       </c>
       <c r="F3">
-        <v>1.063076702050267</v>
+        <v>1.018950383382393</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062462771849805</v>
+        <v>1.050017203629834</v>
       </c>
       <c r="J3">
-        <v>1.061174471613608</v>
+        <v>0.9984943456440261</v>
       </c>
       <c r="K3">
-        <v>1.066365238657276</v>
+        <v>1.047771764835022</v>
       </c>
       <c r="L3">
-        <v>1.062072890775678</v>
+        <v>0.9973601452273815</v>
       </c>
       <c r="M3">
-        <v>1.072961436386676</v>
+        <v>1.029346399025695</v>
       </c>
       <c r="N3">
-        <v>1.062681461081712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.003378683539281</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031798043443165</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044846387336474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045624790629238</v>
+        <v>0.9800382778988004</v>
       </c>
       <c r="D4">
-        <v>1.05876292946146</v>
+        <v>1.038502963413585</v>
       </c>
       <c r="E4">
-        <v>1.055216884959224</v>
+        <v>0.9886656253844383</v>
       </c>
       <c r="F4">
-        <v>1.066079998682399</v>
+        <v>1.020778626688907</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063668854626117</v>
+        <v>1.050175089907856</v>
       </c>
       <c r="J4">
-        <v>1.063929276527314</v>
+        <v>0.999966766881245</v>
       </c>
       <c r="K4">
-        <v>1.068200324457901</v>
+        <v>1.048157881010335</v>
       </c>
       <c r="L4">
-        <v>1.064691614530388</v>
+        <v>0.9989027990281287</v>
       </c>
       <c r="M4">
-        <v>1.075441313646925</v>
+        <v>1.030632576906821</v>
       </c>
       <c r="N4">
-        <v>1.065440178134376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.003893060054213</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.03281597874598</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045120286860211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047227564049435</v>
+        <v>0.981149545017267</v>
       </c>
       <c r="D5">
-        <v>1.059741546081622</v>
+        <v>1.038885768116317</v>
       </c>
       <c r="E5">
-        <v>1.056525444851357</v>
+        <v>0.989546370612636</v>
       </c>
       <c r="F5">
-        <v>1.067327332235412</v>
+        <v>1.021540071048271</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064167053739947</v>
+        <v>1.050239857777599</v>
       </c>
       <c r="J5">
-        <v>1.065071218980132</v>
+        <v>1.000579162271294</v>
       </c>
       <c r="K5">
-        <v>1.068960812674834</v>
+        <v>1.048323060700232</v>
       </c>
       <c r="L5">
-        <v>1.065777647866846</v>
+        <v>0.9995448069647808</v>
       </c>
       <c r="M5">
-        <v>1.076469868414111</v>
+        <v>1.031167033434108</v>
       </c>
       <c r="N5">
-        <v>1.06658374227646</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.004106862508622</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.033238969698642</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.045244199906273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04749543919608</v>
+        <v>0.9813356948869236</v>
       </c>
       <c r="D6">
-        <v>1.059905170576923</v>
+        <v>1.038956243463139</v>
       </c>
       <c r="E6">
-        <v>1.056744223719058</v>
+        <v>0.9896940370088778</v>
       </c>
       <c r="F6">
-        <v>1.067535889001587</v>
+        <v>1.02166707930975</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064250193890444</v>
+        <v>1.050252467686671</v>
       </c>
       <c r="J6">
-        <v>1.065262026686844</v>
+        <v>1.000681835897274</v>
       </c>
       <c r="K6">
-        <v>1.069087869675303</v>
+        <v>1.048356951136579</v>
       </c>
       <c r="L6">
-        <v>1.065959142744126</v>
+        <v>0.9996524537978244</v>
       </c>
       <c r="M6">
-        <v>1.076641763201896</v>
+        <v>1.031255985562247</v>
       </c>
       <c r="N6">
-        <v>1.066774820952002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.004142754905202</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.033309370059142</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.045276846268315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0456462904917</v>
+        <v>0.9800538489398776</v>
       </c>
       <c r="D7">
-        <v>1.0587760522728</v>
+        <v>1.038525039385311</v>
       </c>
       <c r="E7">
-        <v>1.055234433019822</v>
+        <v>0.9886780806012571</v>
       </c>
       <c r="F7">
-        <v>1.066096724704471</v>
+        <v>1.020787554344449</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063675545920938</v>
+        <v>1.050181037133585</v>
       </c>
       <c r="J7">
-        <v>1.063944597906024</v>
+        <v>0.9999756339515092</v>
       </c>
       <c r="K7">
-        <v>1.068210528755754</v>
+        <v>1.048176861231205</v>
       </c>
       <c r="L7">
-        <v>1.064706183818029</v>
+        <v>0.9989120514676949</v>
       </c>
       <c r="M7">
-        <v>1.075455111465745</v>
+        <v>1.030638482687215</v>
       </c>
       <c r="N7">
-        <v>1.065455521271202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.00389631252771</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.03282065282571</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045153674576572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037731259654712</v>
+        <v>0.9745931002959631</v>
       </c>
       <c r="D8">
-        <v>1.053953514611071</v>
+        <v>1.03668402154154</v>
       </c>
       <c r="E8">
-        <v>1.048783725647917</v>
+        <v>0.9843630918647912</v>
       </c>
       <c r="F8">
-        <v>1.059950058393991</v>
+        <v>1.017054290190251</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061197784495298</v>
+        <v>1.049850613353193</v>
       </c>
       <c r="J8">
-        <v>1.058298833862351</v>
+        <v>0.9969648806517071</v>
       </c>
       <c r="K8">
-        <v>1.064449074721093</v>
+        <v>1.047388994882844</v>
       </c>
       <c r="L8">
-        <v>1.059341078000553</v>
+        <v>0.9957591255146435</v>
       </c>
       <c r="M8">
-        <v>1.070374878894734</v>
+        <v>1.028008101176112</v>
       </c>
       <c r="N8">
-        <v>1.059801739595009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.002843985884614</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.030738856628235</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044601114318568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023011891289893</v>
+        <v>0.9645544188742978</v>
       </c>
       <c r="D9">
-        <v>1.04503368184714</v>
+        <v>1.033324571988725</v>
       </c>
       <c r="E9">
-        <v>1.036838153690088</v>
+        <v>0.9764843161142147</v>
       </c>
       <c r="F9">
-        <v>1.048578104232831</v>
+        <v>1.010246799867822</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056524157894518</v>
+        <v>1.049157479311989</v>
       </c>
       <c r="J9">
-        <v>1.047777414467979</v>
+        <v>0.9914240838308221</v>
       </c>
       <c r="K9">
-        <v>1.057436055871008</v>
+        <v>1.04589916682699</v>
       </c>
       <c r="L9">
-        <v>1.049360550775817</v>
+        <v>0.9899708002555273</v>
       </c>
       <c r="M9">
-        <v>1.060929306504961</v>
+        <v>1.023175789043327</v>
       </c>
       <c r="N9">
-        <v>1.049265378578272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.000901725675571</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.026914342279006</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043544590663515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012604997953826</v>
+        <v>0.9576243614311768</v>
       </c>
       <c r="D10">
-        <v>1.038768457754508</v>
+        <v>1.031043777753582</v>
       </c>
       <c r="E10">
-        <v>1.028432388477798</v>
+        <v>0.9710930943143172</v>
       </c>
       <c r="F10">
-        <v>1.040585042342832</v>
+        <v>1.005765234769752</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053179008991276</v>
+        <v>1.048650876430544</v>
       </c>
       <c r="J10">
-        <v>1.040327279850177</v>
+        <v>0.9876263274075021</v>
       </c>
       <c r="K10">
-        <v>1.052471322541729</v>
+        <v>1.04487427107293</v>
       </c>
       <c r="L10">
-        <v>1.042306586686942</v>
+        <v>0.9860046513549328</v>
       </c>
       <c r="M10">
-        <v>1.054258246792775</v>
+        <v>1.020031170522974</v>
       </c>
       <c r="N10">
-        <v>1.041804663914771</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9995718353912699</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.024477862282454</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.04283660110658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.007939042251448</v>
+        <v>0.9551091949950341</v>
       </c>
       <c r="D11">
-        <v>1.035971263613351</v>
+        <v>1.030184075884361</v>
       </c>
       <c r="E11">
-        <v>1.024674522454896</v>
+        <v>0.9692146658231083</v>
       </c>
       <c r="F11">
-        <v>1.037014293516991</v>
+        <v>1.005552920317782</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051670457726182</v>
+        <v>1.048616925898142</v>
       </c>
       <c r="J11">
-        <v>1.036985237152037</v>
+        <v>0.986476535617254</v>
       </c>
       <c r="K11">
-        <v>1.050245267540624</v>
+        <v>1.044558363074921</v>
       </c>
       <c r="L11">
-        <v>1.039145647185028</v>
+        <v>0.9847414766897805</v>
       </c>
       <c r="M11">
-        <v>1.051270377169508</v>
+        <v>1.020370871008027</v>
       </c>
       <c r="N11">
-        <v>1.038457875132662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9992088656652567</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.025189705156146</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042645760292897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.006180124261044</v>
+        <v>0.9543572612305953</v>
       </c>
       <c r="D12">
-        <v>1.034918775096958</v>
+        <v>1.029891080879549</v>
       </c>
       <c r="E12">
-        <v>1.023259688565984</v>
+        <v>0.9686864743231864</v>
       </c>
       <c r="F12">
-        <v>1.035670344966144</v>
+        <v>1.006079315388086</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051100553864922</v>
+        <v>1.048667391776013</v>
       </c>
       <c r="J12">
-        <v>1.03572521372831</v>
+        <v>0.9862272954489169</v>
       </c>
       <c r="K12">
-        <v>1.049406229192645</v>
+        <v>1.044467178589659</v>
       </c>
       <c r="L12">
-        <v>1.037954436601207</v>
+        <v>0.9844392284337353</v>
       </c>
       <c r="M12">
-        <v>1.050144643863187</v>
+        <v>1.021090964813017</v>
       </c>
       <c r="N12">
-        <v>1.037196062331146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9991566742147545</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.026090035210616</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042581291140745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.006558614973671</v>
+        <v>0.9549138572743153</v>
       </c>
       <c r="D13">
-        <v>1.035145161701075</v>
+        <v>1.030031815939188</v>
       </c>
       <c r="E13">
-        <v>1.023564056158136</v>
+        <v>0.9691604650397911</v>
       </c>
       <c r="F13">
-        <v>1.035959442864558</v>
+        <v>1.007226597829524</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051223241951148</v>
+        <v>1.048795246175792</v>
       </c>
       <c r="J13">
-        <v>1.035996357036604</v>
+        <v>0.9866568554981955</v>
       </c>
       <c r="K13">
-        <v>1.049586769341419</v>
+        <v>1.044563235795434</v>
       </c>
       <c r="L13">
-        <v>1.03821074765684</v>
+        <v>0.9848572388149972</v>
       </c>
       <c r="M13">
-        <v>1.050386854199974</v>
+        <v>1.022173071601795</v>
       </c>
       <c r="N13">
-        <v>1.037467590694039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9993408594839582</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.027225409657027</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042646737997012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00779418624102</v>
+        <v>0.955889591753335</v>
       </c>
       <c r="D14">
-        <v>1.03588454469719</v>
+        <v>1.030329003098231</v>
       </c>
       <c r="E14">
-        <v>1.024557966980801</v>
+        <v>0.969940553109126</v>
       </c>
       <c r="F14">
-        <v>1.036903568537123</v>
+        <v>1.008295432794082</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051623547599136</v>
+        <v>1.048917999136701</v>
       </c>
       <c r="J14">
-        <v>1.036881470812308</v>
+        <v>0.98725841815122</v>
       </c>
       <c r="K14">
-        <v>1.050176165287324</v>
+        <v>1.04471701090632</v>
       </c>
       <c r="L14">
-        <v>1.039047536800589</v>
+        <v>0.9854702653063505</v>
       </c>
       <c r="M14">
-        <v>1.051177654242238</v>
+        <v>1.023079352780593</v>
       </c>
       <c r="N14">
-        <v>1.038353961432828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9995745656988761</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.028116733551636</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042756870129494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008551990937727</v>
+        <v>0.9564173318370767</v>
       </c>
       <c r="D15">
-        <v>1.036338290164024</v>
+        <v>1.03050217417017</v>
       </c>
       <c r="E15">
-        <v>1.025167791840638</v>
+        <v>0.9703539047044888</v>
       </c>
       <c r="F15">
-        <v>1.037482905936454</v>
+        <v>1.008722035316578</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051868905397147</v>
+        <v>1.048968903466651</v>
       </c>
       <c r="J15">
-        <v>1.037424310840309</v>
+        <v>0.9875598697967226</v>
       </c>
       <c r="K15">
-        <v>1.050537674624659</v>
+        <v>1.04480204655509</v>
       </c>
       <c r="L15">
-        <v>1.039560810283614</v>
+        <v>0.9857822522694574</v>
       </c>
       <c r="M15">
-        <v>1.051662753339327</v>
+        <v>1.023410295897249</v>
       </c>
       <c r="N15">
-        <v>1.038897572355934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9996852259972832</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.028416153182643</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042822804973423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012911149182218</v>
+        <v>0.9592363436606021</v>
       </c>
       <c r="D16">
-        <v>1.038952253712928</v>
+        <v>1.031440681186979</v>
       </c>
       <c r="E16">
-        <v>1.028679193072245</v>
+        <v>0.9725301207078011</v>
       </c>
       <c r="F16">
-        <v>1.040819615616061</v>
+        <v>1.010444040732978</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053277816255946</v>
+        <v>1.049173130454784</v>
       </c>
       <c r="J16">
-        <v>1.040546534597249</v>
+        <v>0.9890838195263754</v>
       </c>
       <c r="K16">
-        <v>1.052617391086441</v>
+        <v>1.045229475416949</v>
       </c>
       <c r="L16">
-        <v>1.042514032485428</v>
+        <v>0.9873755238423272</v>
       </c>
       <c r="M16">
-        <v>1.054454367917386</v>
+        <v>1.024591119394404</v>
       </c>
       <c r="N16">
-        <v>1.042024230028733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.000211810451669</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.029310426546064</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.043128149244673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015601572573668</v>
+        <v>0.9608923910730789</v>
       </c>
       <c r="D17">
-        <v>1.040568795827978</v>
+        <v>1.032008579504001</v>
       </c>
       <c r="E17">
-        <v>1.030849333039493</v>
+        <v>0.9737967197576536</v>
       </c>
       <c r="F17">
-        <v>1.042882508070947</v>
+        <v>1.011203197283897</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054145141659458</v>
+        <v>1.049264135881899</v>
       </c>
       <c r="J17">
-        <v>1.042473131642489</v>
+        <v>0.9899410459631462</v>
       </c>
       <c r="K17">
-        <v>1.053901028312724</v>
+        <v>1.045477730710448</v>
       </c>
       <c r="L17">
-        <v>1.044337250611661</v>
+        <v>0.9882803343247279</v>
       </c>
       <c r="M17">
-        <v>1.056178227079571</v>
+        <v>1.025017604478629</v>
       </c>
       <c r="N17">
-        <v>1.043953563062761</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.000494236338194</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.029517345704692</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043306240458159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017155571072614</v>
+        <v>0.9616878545335299</v>
       </c>
       <c r="D18">
-        <v>1.041503621820807</v>
+        <v>1.032294527372219</v>
       </c>
       <c r="E18">
-        <v>1.032103832970569</v>
+        <v>0.9743812463755388</v>
       </c>
       <c r="F18">
-        <v>1.044075255598332</v>
+        <v>1.011097783525463</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054645279691977</v>
+        <v>1.049254697496962</v>
       </c>
       <c r="J18">
-        <v>1.043585769322281</v>
+        <v>0.9902806890850978</v>
       </c>
       <c r="K18">
-        <v>1.054642443059098</v>
+        <v>1.045578164299512</v>
       </c>
       <c r="L18">
-        <v>1.045390503615664</v>
+        <v>0.9886573479056689</v>
       </c>
       <c r="M18">
-        <v>1.057174219885754</v>
+        <v>1.024727665440693</v>
       </c>
       <c r="N18">
-        <v>1.04506778081568</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.000584804533879</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.029047995029922</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.043365722021432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017682903985567</v>
+        <v>0.9616787703188346</v>
       </c>
       <c r="D19">
-        <v>1.041821027247878</v>
+        <v>1.03234011313599</v>
       </c>
       <c r="E19">
-        <v>1.032529703426283</v>
+        <v>0.9743267991558857</v>
       </c>
       <c r="F19">
-        <v>1.044480202952906</v>
+        <v>1.010143202294145</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054814852580312</v>
+        <v>1.049153838107619</v>
       </c>
       <c r="J19">
-        <v>1.04396329953917</v>
+        <v>0.9901283627143277</v>
       </c>
       <c r="K19">
-        <v>1.054894027385716</v>
+        <v>1.045561345299711</v>
       </c>
       <c r="L19">
-        <v>1.045747937235355</v>
+        <v>0.9885368919025803</v>
       </c>
       <c r="M19">
-        <v>1.057512244157801</v>
+        <v>1.023725501141056</v>
       </c>
       <c r="N19">
-        <v>1.04544584716878</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.000497669997976</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.027926050653824</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043360165419659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015314508407649</v>
+        <v>0.9594255450576333</v>
       </c>
       <c r="D20">
-        <v>1.040396197149977</v>
+        <v>1.031671314923297</v>
       </c>
       <c r="E20">
-        <v>1.030617675655431</v>
+        <v>0.9724919710394848</v>
       </c>
       <c r="F20">
-        <v>1.042662273434881</v>
+        <v>1.006928443612582</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054052685155224</v>
+        <v>1.048796477428531</v>
       </c>
       <c r="J20">
-        <v>1.042267583873127</v>
+        <v>0.9886153937149889</v>
       </c>
       <c r="K20">
-        <v>1.053764067200414</v>
+        <v>1.045179221124882</v>
       </c>
       <c r="L20">
-        <v>1.044142699092939</v>
+        <v>0.9870363991636879</v>
       </c>
       <c r="M20">
-        <v>1.055994263347988</v>
+        <v>1.02085054899272</v>
       </c>
       <c r="N20">
-        <v>1.043747723391989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.999919030258295</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.025115595194933</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.043093867541603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007431067965755</v>
+        <v>0.9541045455795484</v>
       </c>
       <c r="D21">
-        <v>1.035667194068292</v>
+        <v>1.029936143815726</v>
       </c>
       <c r="E21">
-        <v>1.024265819998944</v>
+        <v>0.9683544163899656</v>
       </c>
       <c r="F21">
-        <v>1.036626042893297</v>
+        <v>1.003228119630388</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05150593602956</v>
+        <v>1.048357684020438</v>
       </c>
       <c r="J21">
-        <v>1.036621351625314</v>
+        <v>0.9856548655794756</v>
       </c>
       <c r="K21">
-        <v>1.05000294528427</v>
+        <v>1.044371727062117</v>
       </c>
       <c r="L21">
-        <v>1.038801604503008</v>
+        <v>0.9839611933544576</v>
       </c>
       <c r="M21">
-        <v>1.050945230851125</v>
+        <v>1.018148591299586</v>
       </c>
       <c r="N21">
-        <v>1.038093472846752</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9988744206357474</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.022935563838461</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042526126864178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002324301388012</v>
+        <v>0.9507189386677894</v>
       </c>
       <c r="D22">
-        <v>1.032615394152864</v>
+        <v>1.028824816820914</v>
       </c>
       <c r="E22">
-        <v>1.02016154916239</v>
+        <v>0.9657353066823431</v>
       </c>
       <c r="F22">
-        <v>1.032728279708349</v>
+        <v>1.000976673428351</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049849075907777</v>
+        <v>1.04807570447948</v>
       </c>
       <c r="J22">
-        <v>1.03296281628705</v>
+        <v>0.9837855669556107</v>
       </c>
       <c r="K22">
-        <v>1.047567288173634</v>
+        <v>1.043846088577596</v>
       </c>
       <c r="L22">
-        <v>1.035343910269964</v>
+        <v>0.9820175481588458</v>
       </c>
       <c r="M22">
-        <v>1.047678117783255</v>
+        <v>1.016528807025094</v>
       </c>
       <c r="N22">
-        <v>1.034429741968668</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9982162968574138</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.021653579702245</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042141110493928</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00504636714198</v>
+        <v>0.9525202919316548</v>
       </c>
       <c r="D23">
-        <v>1.034240944307685</v>
+        <v>1.02940174144689</v>
       </c>
       <c r="E23">
-        <v>1.022348233775207</v>
+        <v>0.967127775382593</v>
       </c>
       <c r="F23">
-        <v>1.034804683951161</v>
+        <v>1.002176183030375</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050732872591876</v>
+        <v>1.048223412312073</v>
       </c>
       <c r="J23">
-        <v>1.034912993116719</v>
+        <v>0.9847798183057929</v>
       </c>
       <c r="K23">
-        <v>1.048865454052776</v>
+        <v>1.044112546925332</v>
       </c>
       <c r="L23">
-        <v>1.037186726688947</v>
+        <v>0.9830511571495936</v>
       </c>
       <c r="M23">
-        <v>1.049419208817152</v>
+        <v>1.017392837136036</v>
       </c>
       <c r="N23">
-        <v>1.036382688273125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9985662111492556</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.022337419769314</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042319972513454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01544426743575</v>
+        <v>0.9594559333486208</v>
       </c>
       <c r="D24">
-        <v>1.040474211959285</v>
+        <v>1.031664844172767</v>
       </c>
       <c r="E24">
-        <v>1.03072238650259</v>
+        <v>0.9725088506671172</v>
       </c>
       <c r="F24">
-        <v>1.042761820360377</v>
+        <v>1.006812528609871</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054094480024842</v>
+        <v>1.048777973160931</v>
       </c>
       <c r="J24">
-        <v>1.042360496318779</v>
+        <v>0.9886092510121322</v>
       </c>
       <c r="K24">
-        <v>1.05382597656602</v>
+        <v>1.045157808095423</v>
       </c>
       <c r="L24">
-        <v>1.044230639988158</v>
+        <v>0.9870365767982676</v>
       </c>
       <c r="M24">
-        <v>1.056077417940034</v>
+        <v>1.020721055584104</v>
       </c>
       <c r="N24">
-        <v>1.043840767783972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9999131823497832</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.024971545027728</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.043051585624474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026916010444719</v>
+        <v>0.9672029601129025</v>
       </c>
       <c r="D25">
-        <v>1.047393101478879</v>
+        <v>1.034228895343412</v>
       </c>
       <c r="E25">
-        <v>1.0400001281777</v>
+        <v>0.9785566003078446</v>
       </c>
       <c r="F25">
-        <v>1.051586828069006</v>
+        <v>1.012032449807589</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057771058991522</v>
+        <v>1.049355776478608</v>
       </c>
       <c r="J25">
-        <v>1.050570298198096</v>
+        <v>0.9928868322642213</v>
       </c>
       <c r="K25">
-        <v>1.059297696315032</v>
+        <v>1.046318112489038</v>
       </c>
       <c r="L25">
-        <v>1.052007679491248</v>
+        <v>0.9914971757839954</v>
       </c>
       <c r="M25">
-        <v>1.063433830352431</v>
+        <v>1.024446805502364</v>
       </c>
       <c r="N25">
-        <v>1.052062228523635</v>
+        <v>1.001415330610314</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.027920285290041</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043869135610737</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9731592449310896</v>
+        <v>0.9744855274256407</v>
       </c>
       <c r="D2">
-        <v>1.03618268814141</v>
+        <v>1.033303692396796</v>
       </c>
       <c r="E2">
-        <v>0.9832333868804691</v>
+        <v>0.9843726790994364</v>
       </c>
       <c r="F2">
-        <v>1.016079966903167</v>
+        <v>1.016408018770546</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049752477481649</v>
+        <v>1.048667418131677</v>
       </c>
       <c r="J2">
-        <v>0.9961735072018214</v>
+        <v>0.9974571057826069</v>
       </c>
       <c r="K2">
-        <v>1.047159945110026</v>
+        <v>1.044317761433132</v>
       </c>
       <c r="L2">
-        <v>0.9949313571745154</v>
+        <v>0.9960541077967919</v>
       </c>
       <c r="M2">
-        <v>1.027319737014338</v>
+        <v>1.027643400323077</v>
       </c>
       <c r="N2">
-        <v>1.002566792159484</v>
+        <v>1.006444091711847</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.030194054823079</v>
+        <v>1.030450216316204</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044416433890641</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042415503339928</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023836690520595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9773670741895386</v>
+        <v>0.9786197200436531</v>
       </c>
       <c r="D3">
-        <v>1.037598380781442</v>
+        <v>1.03462072289055</v>
       </c>
       <c r="E3">
-        <v>0.9865522563121824</v>
+        <v>0.9876298300125433</v>
       </c>
       <c r="F3">
-        <v>1.018950383382393</v>
+        <v>1.019240299958001</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050017203629834</v>
+        <v>1.048887282224947</v>
       </c>
       <c r="J3">
-        <v>0.9984943456440261</v>
+        <v>0.9997107023079888</v>
       </c>
       <c r="K3">
-        <v>1.047771764835022</v>
+        <v>1.044828989515523</v>
       </c>
       <c r="L3">
-        <v>0.9973601452273815</v>
+        <v>0.9984234751843738</v>
       </c>
       <c r="M3">
-        <v>1.029346399025695</v>
+        <v>1.029632776918708</v>
       </c>
       <c r="N3">
-        <v>1.003378683539281</v>
+        <v>1.007073531891246</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031798043443165</v>
+        <v>1.032024695087905</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044846387336474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042774058799206</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023883050548401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9800382778988004</v>
+        <v>0.9812449255999806</v>
       </c>
       <c r="D4">
-        <v>1.038502963413585</v>
+        <v>1.035462853219242</v>
       </c>
       <c r="E4">
-        <v>0.9886656253844383</v>
+        <v>0.9897045397999175</v>
       </c>
       <c r="F4">
-        <v>1.020778626688907</v>
+        <v>1.02104463795174</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050175089907856</v>
+        <v>1.049016737877365</v>
       </c>
       <c r="J4">
-        <v>0.999966766881245</v>
+        <v>1.001140867612726</v>
       </c>
       <c r="K4">
-        <v>1.048157881010335</v>
+        <v>1.045151313895344</v>
       </c>
       <c r="L4">
-        <v>0.9989027990281287</v>
+        <v>0.999928830968527</v>
       </c>
       <c r="M4">
-        <v>1.030632576906821</v>
+        <v>1.030895538010982</v>
       </c>
       <c r="N4">
-        <v>1.003893060054213</v>
+        <v>1.007472411294065</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.03281597874598</v>
+        <v>1.033024097048072</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045120286860211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043002940864593</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02390910177823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.981149545017267</v>
+        <v>0.9823372167470256</v>
       </c>
       <c r="D5">
-        <v>1.038885768116317</v>
+        <v>1.035819521830636</v>
       </c>
       <c r="E5">
-        <v>0.989546370612636</v>
+        <v>0.9905693108672159</v>
       </c>
       <c r="F5">
-        <v>1.021540071048271</v>
+        <v>1.021796312559546</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050239857777599</v>
+        <v>1.049069741716391</v>
       </c>
       <c r="J5">
-        <v>1.000579162271294</v>
+        <v>1.001735773549667</v>
       </c>
       <c r="K5">
-        <v>1.048323060700232</v>
+        <v>1.04528977610912</v>
       </c>
       <c r="L5">
-        <v>0.9995448069647808</v>
+        <v>1.000555409273802</v>
       </c>
       <c r="M5">
-        <v>1.031167033434108</v>
+        <v>1.031420415371909</v>
       </c>
       <c r="N5">
-        <v>1.004106862508622</v>
+        <v>1.007638223667414</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.033238969698642</v>
+        <v>1.033439506532167</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045244199906273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.0431086851819</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02392019548982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9813356948869236</v>
+        <v>0.9825201866105407</v>
       </c>
       <c r="D6">
-        <v>1.038956243463139</v>
+        <v>1.035885374295336</v>
       </c>
       <c r="E6">
-        <v>0.9896940370088778</v>
+        <v>0.9907142961940557</v>
       </c>
       <c r="F6">
-        <v>1.02166707930975</v>
+        <v>1.02192181797105</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050252467686671</v>
+        <v>1.049080443255474</v>
       </c>
       <c r="J6">
-        <v>1.000681835897274</v>
+        <v>1.001835512283606</v>
       </c>
       <c r="K6">
-        <v>1.048356951136579</v>
+        <v>1.04531894713567</v>
       </c>
       <c r="L6">
-        <v>0.9996524537978244</v>
+        <v>1.00066046508353</v>
       </c>
       <c r="M6">
-        <v>1.031255985562247</v>
+        <v>1.031507894468912</v>
       </c>
       <c r="N6">
-        <v>1.004142754905202</v>
+        <v>1.007666055281646</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.033309370059142</v>
+        <v>1.03350874105573</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045276846268315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04313887532906</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023923313778019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9800538489398776</v>
+        <v>0.9812714581964321</v>
       </c>
       <c r="D7">
-        <v>1.038525039385311</v>
+        <v>1.035484183562122</v>
       </c>
       <c r="E7">
-        <v>0.9886780806012571</v>
+        <v>0.9897269078246715</v>
       </c>
       <c r="F7">
-        <v>1.020787554344449</v>
+        <v>1.021058712985628</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050181037133585</v>
+        <v>1.049023195398513</v>
       </c>
       <c r="J7">
-        <v>0.9999756339515092</v>
+        <v>1.001160414584734</v>
       </c>
       <c r="K7">
-        <v>1.048176861231205</v>
+        <v>1.045169543822613</v>
       </c>
       <c r="L7">
-        <v>0.9989120514676949</v>
+        <v>0.9999478782532802</v>
       </c>
       <c r="M7">
-        <v>1.030638482687215</v>
+        <v>1.030906533274142</v>
       </c>
       <c r="N7">
-        <v>1.00389631252771</v>
+        <v>1.007504284289026</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.03282065282571</v>
+        <v>1.033032799153098</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045153674576572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043037823590216</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023912769190153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9745931002959631</v>
+        <v>0.9759288911435605</v>
       </c>
       <c r="D8">
-        <v>1.03668402154154</v>
+        <v>1.033771471548945</v>
       </c>
       <c r="E8">
-        <v>0.9843630918647912</v>
+        <v>0.985512714267525</v>
       </c>
       <c r="F8">
-        <v>1.017054290190251</v>
+        <v>1.017385261479995</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049850613353193</v>
+        <v>1.048752120973262</v>
       </c>
       <c r="J8">
-        <v>0.9969648806517071</v>
+        <v>0.9982591575759382</v>
       </c>
       <c r="K8">
-        <v>1.047388994882844</v>
+        <v>1.044512621955145</v>
       </c>
       <c r="L8">
-        <v>0.9957591255146435</v>
+        <v>0.9968925681177845</v>
       </c>
       <c r="M8">
-        <v>1.028008101176112</v>
+        <v>1.028334777288081</v>
       </c>
       <c r="N8">
-        <v>1.002843985884614</v>
+        <v>1.006748487148291</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030738856628235</v>
+        <v>1.030997402384329</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044601114318568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042578309010457</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023857378996193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9645544188742978</v>
+        <v>0.9660761594713931</v>
       </c>
       <c r="D9">
-        <v>1.033324571988725</v>
+        <v>1.030649162838128</v>
       </c>
       <c r="E9">
-        <v>0.9764843161142147</v>
+        <v>0.9777895651188848</v>
       </c>
       <c r="F9">
-        <v>1.010246799867822</v>
+        <v>1.010673159790671</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049157479311989</v>
+        <v>1.048166364859174</v>
       </c>
       <c r="J9">
-        <v>0.9914240838308221</v>
+        <v>0.9928864777746276</v>
       </c>
       <c r="K9">
-        <v>1.04589916682699</v>
+        <v>1.043263807321801</v>
       </c>
       <c r="L9">
-        <v>0.9899708002555273</v>
+        <v>0.9912535718224991</v>
       </c>
       <c r="M9">
-        <v>1.023175789043327</v>
+        <v>1.023595413723292</v>
       </c>
       <c r="N9">
-        <v>1.000901725675571</v>
+        <v>1.005254715410466</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.026914342279006</v>
+        <v>1.027246453415831</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043544590663515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041691889573962</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023724060428469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9576243614311768</v>
+        <v>0.959330650397239</v>
       </c>
       <c r="D10">
-        <v>1.031043777753582</v>
+        <v>1.028532747745903</v>
       </c>
       <c r="E10">
-        <v>0.9710930943143172</v>
+        <v>0.9725557176360914</v>
       </c>
       <c r="F10">
-        <v>1.005765234769752</v>
+        <v>1.006283915720688</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048650876430544</v>
+        <v>1.047736695162552</v>
       </c>
       <c r="J10">
-        <v>0.9876263274075021</v>
+        <v>0.9892562265918363</v>
       </c>
       <c r="K10">
-        <v>1.04487427107293</v>
+        <v>1.042405261029562</v>
       </c>
       <c r="L10">
-        <v>0.9860046513549328</v>
+        <v>0.9874388202685929</v>
       </c>
       <c r="M10">
-        <v>1.020031170522974</v>
+        <v>1.020540631522996</v>
       </c>
       <c r="N10">
-        <v>0.9995718353912699</v>
+        <v>1.004359863501126</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.024477862282454</v>
+        <v>1.024881049617874</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04283660110658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041103201055351</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023617816883119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9551091949950341</v>
+        <v>0.9569667475284046</v>
       </c>
       <c r="D11">
-        <v>1.030184075884361</v>
+        <v>1.027726012594467</v>
       </c>
       <c r="E11">
-        <v>0.9692146658231083</v>
+        <v>0.9708106256691755</v>
       </c>
       <c r="F11">
-        <v>1.005552920317782</v>
+        <v>1.006149247128858</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048616925898142</v>
+        <v>1.047735434326876</v>
       </c>
       <c r="J11">
-        <v>0.986476535617254</v>
+        <v>0.9882462001842056</v>
       </c>
       <c r="K11">
-        <v>1.044558363074921</v>
+        <v>1.042143337188003</v>
       </c>
       <c r="L11">
-        <v>0.9847414766897805</v>
+        <v>0.9863048347789104</v>
       </c>
       <c r="M11">
-        <v>1.020370871008027</v>
+        <v>1.020956121965109</v>
       </c>
       <c r="N11">
-        <v>0.9992088656652567</v>
+        <v>1.004343208636061</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.025189705156146</v>
+        <v>1.025652632116399</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042645760292897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040953779938268</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023586778684639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9543572612305953</v>
+        <v>0.9562749263240716</v>
       </c>
       <c r="D12">
-        <v>1.029891080879549</v>
+        <v>1.027445636683277</v>
       </c>
       <c r="E12">
-        <v>0.9686864743231864</v>
+        <v>0.9703354502129788</v>
       </c>
       <c r="F12">
-        <v>1.006079315388086</v>
+        <v>1.006707843002739</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048667391776013</v>
+        <v>1.047796294260241</v>
       </c>
       <c r="J12">
-        <v>0.9862272954489169</v>
+        <v>0.9880524362532338</v>
       </c>
       <c r="K12">
-        <v>1.044467178589659</v>
+        <v>1.042065257364135</v>
       </c>
       <c r="L12">
-        <v>0.9844392284337353</v>
+        <v>0.9860539321576347</v>
       </c>
       <c r="M12">
-        <v>1.021090964813017</v>
+        <v>1.021707649878985</v>
       </c>
       <c r="N12">
-        <v>0.9991566742147545</v>
+        <v>1.004420893220072</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.026090035210616</v>
+        <v>1.026577656654856</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042581291140745</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040898576936673</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023575251924168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9549138572743153</v>
+        <v>0.9568084029855156</v>
       </c>
       <c r="D13">
-        <v>1.030031815939188</v>
+        <v>1.027567767050398</v>
       </c>
       <c r="E13">
-        <v>0.9691604650397911</v>
+        <v>0.9707887430642692</v>
       </c>
       <c r="F13">
-        <v>1.007226597829524</v>
+        <v>1.007846605992234</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048795246175792</v>
+        <v>1.047917905625837</v>
       </c>
       <c r="J13">
-        <v>0.9866568554981955</v>
+        <v>0.9884604805009363</v>
       </c>
       <c r="K13">
-        <v>1.044563235795434</v>
+        <v>1.042142880343373</v>
       </c>
       <c r="L13">
-        <v>0.9848572388149972</v>
+        <v>0.9864518322271083</v>
       </c>
       <c r="M13">
-        <v>1.022173071601795</v>
+        <v>1.022781471389788</v>
       </c>
       <c r="N13">
-        <v>0.9993408594839582</v>
+        <v>1.004537813815256</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.027225409657027</v>
+        <v>1.027706356418088</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042646737997012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.04095074392239</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.0235830610907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.955889591753335</v>
+        <v>0.9577311497621142</v>
       </c>
       <c r="D14">
-        <v>1.030329003098231</v>
+        <v>1.027838073410489</v>
       </c>
       <c r="E14">
-        <v>0.969940553109126</v>
+        <v>0.9715219012979849</v>
       </c>
       <c r="F14">
-        <v>1.008295432794082</v>
+        <v>1.008891797124229</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048917999136701</v>
+        <v>1.048029222897874</v>
       </c>
       <c r="J14">
-        <v>0.98725841815122</v>
+        <v>0.9890129215813667</v>
       </c>
       <c r="K14">
-        <v>1.04471701090632</v>
+        <v>1.042269736712186</v>
       </c>
       <c r="L14">
-        <v>0.9854702653063505</v>
+        <v>0.9870193305315043</v>
       </c>
       <c r="M14">
-        <v>1.023079352780593</v>
+        <v>1.023664704522984</v>
       </c>
       <c r="N14">
-        <v>0.9995745656988761</v>
+        <v>1.004636995272582</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.028116733551636</v>
+        <v>1.028579397236379</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042756870129494</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041041982903274</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023597433905832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9564173318370767</v>
+        <v>0.9582290108250353</v>
       </c>
       <c r="D15">
-        <v>1.03050217417017</v>
+        <v>1.027997593862123</v>
       </c>
       <c r="E15">
-        <v>0.9703539047044888</v>
+        <v>0.9719089118919951</v>
       </c>
       <c r="F15">
-        <v>1.008722035316578</v>
+        <v>1.009304581751691</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048968903466651</v>
+        <v>1.048073921400087</v>
       </c>
       <c r="J15">
-        <v>0.9875598697967226</v>
+        <v>0.989286685039523</v>
       </c>
       <c r="K15">
-        <v>1.04480204655509</v>
+        <v>1.042341043949452</v>
       </c>
       <c r="L15">
-        <v>0.9857822522694574</v>
+        <v>0.987305768334753</v>
       </c>
       <c r="M15">
-        <v>1.023410295897249</v>
+        <v>1.023982170143527</v>
       </c>
       <c r="N15">
-        <v>0.9996852259972832</v>
+        <v>1.004674655562558</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.028416153182643</v>
+        <v>1.028868152209922</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042822804973423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041098789185381</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023606505165797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9592363436606021</v>
+        <v>0.960897128668404</v>
       </c>
       <c r="D16">
-        <v>1.031440681186979</v>
+        <v>1.028868252241816</v>
       </c>
       <c r="E16">
-        <v>0.9725301207078011</v>
+        <v>0.9739529015060637</v>
       </c>
       <c r="F16">
-        <v>1.010444040732978</v>
+        <v>1.010953419327024</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049173130454784</v>
+        <v>1.048244048161722</v>
       </c>
       <c r="J16">
-        <v>0.9890838195263754</v>
+        <v>0.9906708434912876</v>
       </c>
       <c r="K16">
-        <v>1.045229475416949</v>
+        <v>1.04269992911641</v>
       </c>
       <c r="L16">
-        <v>0.9873755238423272</v>
+        <v>0.988770812628411</v>
       </c>
       <c r="M16">
-        <v>1.024591119394404</v>
+        <v>1.025091577828151</v>
       </c>
       <c r="N16">
-        <v>1.000211810451669</v>
+        <v>1.004844135429533</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.029310426546064</v>
+        <v>1.029705991264919</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043128149244673</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04135598084595</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023656314179817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9608923910730789</v>
+        <v>0.9624783106935259</v>
       </c>
       <c r="D17">
-        <v>1.032008579504001</v>
+        <v>1.029398144100996</v>
       </c>
       <c r="E17">
-        <v>0.9737967197576536</v>
+        <v>0.9751543641593231</v>
       </c>
       <c r="F17">
-        <v>1.011203197283897</v>
+        <v>1.011674933649743</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049264135881899</v>
+        <v>1.048315062534209</v>
       </c>
       <c r="J17">
-        <v>0.9899410459631462</v>
+        <v>0.9914588744343003</v>
       </c>
       <c r="K17">
-        <v>1.045477730710448</v>
+        <v>1.042909630655044</v>
       </c>
       <c r="L17">
-        <v>0.9882803343247279</v>
+        <v>0.9896125180690638</v>
       </c>
       <c r="M17">
-        <v>1.025017604478629</v>
+        <v>1.02548130943511</v>
       </c>
       <c r="N17">
-        <v>1.000494236338194</v>
+        <v>1.00495405952198</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029517345704692</v>
+        <v>1.029883897326504</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043306240458159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041507067442516</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023686391613047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9616878545335299</v>
+        <v>0.9632406965714826</v>
       </c>
       <c r="D18">
-        <v>1.032294527372219</v>
+        <v>1.029669078443142</v>
       </c>
       <c r="E18">
-        <v>0.9743812463755388</v>
+        <v>0.9757102702083752</v>
       </c>
       <c r="F18">
-        <v>1.011097783525463</v>
+        <v>1.011550489944553</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049254697496962</v>
+        <v>1.048295270723494</v>
       </c>
       <c r="J18">
-        <v>0.9902806890850978</v>
+        <v>0.9917681504550534</v>
       </c>
       <c r="K18">
-        <v>1.045578164299512</v>
+        <v>1.042994609730799</v>
       </c>
       <c r="L18">
-        <v>0.9886573479056689</v>
+        <v>0.989961875271462</v>
       </c>
       <c r="M18">
-        <v>1.024727665440693</v>
+        <v>1.025172781521652</v>
       </c>
       <c r="N18">
-        <v>1.000584804533879</v>
+        <v>1.004976217539993</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.029047995029922</v>
+        <v>1.029399927140324</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043365722021432</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041554473715574</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023699433341781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9616787703188346</v>
+        <v>0.9632285518183776</v>
       </c>
       <c r="D19">
-        <v>1.03234011313599</v>
+        <v>1.029720096583675</v>
       </c>
       <c r="E19">
-        <v>0.9743267991558857</v>
+        <v>0.9756531660835838</v>
       </c>
       <c r="F19">
-        <v>1.010143202294145</v>
+        <v>1.010591312741161</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049153838107619</v>
+        <v>1.048193592502577</v>
       </c>
       <c r="J19">
-        <v>0.9901283627143277</v>
+        <v>0.9916132760299616</v>
       </c>
       <c r="K19">
-        <v>1.045561345299711</v>
+        <v>1.04298290896133</v>
       </c>
       <c r="L19">
-        <v>0.9885368919025803</v>
+        <v>0.9898389399692048</v>
       </c>
       <c r="M19">
-        <v>1.023725501141056</v>
+        <v>1.024166120264736</v>
       </c>
       <c r="N19">
-        <v>1.000497669997976</v>
+        <v>1.004894404528364</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.027926050653824</v>
+        <v>1.028274543816086</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043360165419659</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041553167097903</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023698447859015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9594255450576333</v>
+        <v>0.9610515833778835</v>
       </c>
       <c r="D20">
-        <v>1.031671314923297</v>
+        <v>1.029115043417948</v>
       </c>
       <c r="E20">
-        <v>0.9724919710394848</v>
+        <v>0.973884366673758</v>
       </c>
       <c r="F20">
-        <v>1.006928443612582</v>
+        <v>1.007409242490029</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048796477428531</v>
+        <v>1.047861269366384</v>
       </c>
       <c r="J20">
-        <v>0.9886153937149889</v>
+        <v>0.9901710967417044</v>
       </c>
       <c r="K20">
-        <v>1.045179221124882</v>
+        <v>1.042664556277751</v>
       </c>
       <c r="L20">
-        <v>0.9870363991636879</v>
+        <v>0.9884025165193684</v>
       </c>
       <c r="M20">
-        <v>1.02085054899272</v>
+        <v>1.021323048547127</v>
       </c>
       <c r="N20">
-        <v>0.999919030258295</v>
+        <v>1.004515434933969</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.025115595194933</v>
+        <v>1.025489535863807</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043093867541603</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041332345067376</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02365323362792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9541045455795484</v>
+        <v>0.9560301596563676</v>
       </c>
       <c r="D21">
-        <v>1.029936143815726</v>
+        <v>1.027512793530511</v>
       </c>
       <c r="E21">
-        <v>0.9683544163899656</v>
+        <v>0.9700115235847687</v>
       </c>
       <c r="F21">
-        <v>1.003228119630388</v>
+        <v>1.003854337188678</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048357684020438</v>
+        <v>1.047489932246086</v>
       </c>
       <c r="J21">
-        <v>0.9856548655794756</v>
+        <v>0.9874886410858591</v>
       </c>
       <c r="K21">
-        <v>1.044371727062117</v>
+        <v>1.041991024736468</v>
       </c>
       <c r="L21">
-        <v>0.9839611933544576</v>
+        <v>0.9855842156294747</v>
       </c>
       <c r="M21">
-        <v>1.018148591299586</v>
+        <v>1.018763054059035</v>
       </c>
       <c r="N21">
-        <v>0.9988744206357474</v>
+        <v>1.004187932906408</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.022935563838461</v>
+        <v>1.023421881979985</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042526126864178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.04085963975977</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02356264354637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9507189386677894</v>
+        <v>0.9528354582382534</v>
       </c>
       <c r="D22">
-        <v>1.028824816820914</v>
+        <v>1.026486405245906</v>
       </c>
       <c r="E22">
-        <v>0.9657353066823431</v>
+        <v>0.967561571788417</v>
       </c>
       <c r="F22">
-        <v>1.000976673428351</v>
+        <v>1.001697650507269</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04807570447948</v>
+        <v>1.047251192305228</v>
       </c>
       <c r="J22">
-        <v>0.9837855669556107</v>
+        <v>0.9857949899832458</v>
       </c>
       <c r="K22">
-        <v>1.043846088577596</v>
+        <v>1.041550809371274</v>
       </c>
       <c r="L22">
-        <v>0.9820175481588458</v>
+        <v>0.9838042435040787</v>
       </c>
       <c r="M22">
-        <v>1.016528807025094</v>
+        <v>1.017235551460825</v>
       </c>
       <c r="N22">
-        <v>0.9982162968574138</v>
+        <v>1.003977553611004</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.021653579702245</v>
+        <v>1.022212935447929</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042141110493928</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040533695107874</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023500101252247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9525202919316548</v>
+        <v>0.954516480045429</v>
       </c>
       <c r="D23">
-        <v>1.02940174144689</v>
+        <v>1.027018072483404</v>
       </c>
       <c r="E23">
-        <v>0.967127775382593</v>
+        <v>0.9688467609996624</v>
       </c>
       <c r="F23">
-        <v>1.002176183030375</v>
+        <v>1.002836853712162</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048223412312073</v>
+        <v>1.047374513236019</v>
       </c>
       <c r="J23">
-        <v>0.9847798183057929</v>
+        <v>0.9866780959564181</v>
       </c>
       <c r="K23">
-        <v>1.044112546925332</v>
+        <v>1.041771773699107</v>
       </c>
       <c r="L23">
-        <v>0.9830511571495936</v>
+        <v>0.9847339027654763</v>
       </c>
       <c r="M23">
-        <v>1.017392837136036</v>
+        <v>1.018040806835837</v>
       </c>
       <c r="N23">
-        <v>0.9985662111492556</v>
+        <v>1.004044087960937</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.022337419769314</v>
+        <v>1.022850257509554</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042319972513454</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040679440533465</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023531357110799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9594559333486208</v>
+        <v>0.9610801144455559</v>
       </c>
       <c r="D24">
-        <v>1.031664844172767</v>
+        <v>1.029109492004076</v>
       </c>
       <c r="E24">
-        <v>0.9725088506671172</v>
+        <v>0.9738996281940042</v>
       </c>
       <c r="F24">
-        <v>1.006812528609871</v>
+        <v>1.007291440290503</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048777973160931</v>
+        <v>1.047841990363875</v>
       </c>
       <c r="J24">
-        <v>0.9886092510121322</v>
+        <v>0.9901632830763634</v>
       </c>
       <c r="K24">
-        <v>1.045157808095423</v>
+        <v>1.042643995086396</v>
       </c>
       <c r="L24">
-        <v>0.9870365767982676</v>
+        <v>0.9884011418367683</v>
       </c>
       <c r="M24">
-        <v>1.020721055584104</v>
+        <v>1.021191708676586</v>
       </c>
       <c r="N24">
-        <v>0.9999131823497832</v>
+        <v>1.004506282351398</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.024971545027728</v>
+        <v>1.025344043549927</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043051585624474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041287959163176</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023648876796171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9672029601129025</v>
+        <v>0.9686609449898835</v>
       </c>
       <c r="D25">
-        <v>1.034228895343412</v>
+        <v>1.03148945618334</v>
       </c>
       <c r="E25">
-        <v>0.9785566003078446</v>
+        <v>0.9798076231556173</v>
       </c>
       <c r="F25">
-        <v>1.012032449807589</v>
+        <v>1.012427668720695</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049355776478608</v>
+        <v>1.04833597343392</v>
       </c>
       <c r="J25">
-        <v>0.9928868322642213</v>
+        <v>0.9942910645619358</v>
       </c>
       <c r="K25">
-        <v>1.046318112489038</v>
+        <v>1.043617842707061</v>
       </c>
       <c r="L25">
-        <v>0.9914971757839954</v>
+        <v>0.9927277020621136</v>
       </c>
       <c r="M25">
-        <v>1.024446805502364</v>
+        <v>1.024836076473878</v>
       </c>
       <c r="N25">
-        <v>1.001415330610314</v>
+        <v>1.005614806545154</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.027920285290041</v>
+        <v>1.02822837259786</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043869135610737</v>
+        <v>1.041973385236932</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023766722357188</v>
       </c>
     </row>
   </sheetData>
